--- a/类信贷测算/类信贷测算.xlsx
+++ b/类信贷测算/类信贷测算.xlsx
@@ -5,9 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据底稿" sheetId="1" r:id="rId1"/>
+    <sheet name="非标类信贷" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="141">
   <si>
     <t>工商银行</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -476,17 +478,86 @@
   </si>
   <si>
     <t>应收账款类投资减值准备（组合计提）</t>
+  </si>
+  <si>
+    <t>注：根据年报批注：政府主要是凭证式国债、储蓄式国债和地方政府债。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类信贷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>民生银行</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>北京银行</t>
+  </si>
+  <si>
+    <t>南京银行</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>江苏银行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
     <numFmt numFmtId="178" formatCode="#,##0.000"/>
     <numFmt numFmtId="179" formatCode="0.0000000000"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -610,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -703,6 +774,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -986,14 +1063,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.53125" customWidth="1"/>
     <col min="20" max="20" width="15.19921875" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -1014,8 +1095,16 @@
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="16">
+        <f>H13-SUM(H6:H7,H9:H11)</f>
+        <v>3270.6499999999996</v>
+      </c>
       <c r="J2" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="K2">
+        <f>K10+K12</f>
+        <v>1699.77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -1105,10 +1194,10 @@
       <c r="H7" s="19">
         <v>1557.88</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="17">
         <v>15</v>
       </c>
     </row>
@@ -1246,30 +1335,68 @@
         <v>48.9</v>
       </c>
     </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <f>SUM(B23:B26)</f>
+        <v>219.76</v>
+      </c>
+    </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <f>B32-B18</f>
+        <v>5646.9999999999991</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="E19">
+        <f>E27</f>
+        <v>8438.9500000000007</v>
+      </c>
       <c r="G19" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="H19" s="16">
+        <f>H30-SUM(H23:H25)</f>
+        <v>6796.17</v>
+      </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="K19">
+        <f>K29-K23-K25-K26</f>
+        <v>9139.35</v>
+      </c>
       <c r="M19" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="N19">
+        <f>N26</f>
+        <v>5165.9399999999996</v>
+      </c>
       <c r="P19" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="Q19" s="32">
+        <f>Q28-Q23-Q24</f>
+        <v>2048.3199999999997</v>
+      </c>
       <c r="S19" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="T19" s="16">
+        <f>T28-SUM(T23:T25)</f>
+        <v>15913.82</v>
+      </c>
       <c r="V19" s="7" t="s">
         <v>62</v>
+      </c>
+      <c r="W19">
+        <f>W29-W26-W28</f>
+        <v>4129.9699999999993</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
@@ -1538,7 +1665,7 @@
       <c r="V26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="17">
         <v>537.85</v>
       </c>
     </row>
@@ -1631,10 +1758,10 @@
         <f>SUM(T23:T27)</f>
         <v>20223.32</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="V28" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="17">
         <v>0.25</v>
       </c>
     </row>
@@ -1737,23 +1864,51 @@
       <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="B37">
+        <f>B48-SUM(B43:B46)</f>
+        <v>3701.5499999999997</v>
+      </c>
       <c r="E37" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="F37" s="33">
+        <f>F44-F42</f>
+        <v>2379.6147000000001</v>
+      </c>
       <c r="H37" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="I37">
+        <f>I45</f>
+        <v>1.2</v>
+      </c>
       <c r="K37" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="L37">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="N37" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="O37">
+        <f>SUM(O42:O43)</f>
+        <v>763.49552000000006</v>
+      </c>
       <c r="Q37" s="20" t="s">
         <v>89</v>
       </c>
+      <c r="R37" s="34">
+        <f>R43</f>
+        <v>711.88409999999999</v>
+      </c>
       <c r="T37" s="20" t="s">
         <v>96</v>
+      </c>
+      <c r="U37" s="33">
+        <f>U47-U43</f>
+        <v>1449.6943999999999</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
@@ -2090,6 +2245,11 @@
         <v>1465.8905099999999</v>
       </c>
     </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T50" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56" s="23" t="s">
         <v>102</v>
@@ -2097,14 +2257,26 @@
       <c r="E56" s="25" t="s">
         <v>106</v>
       </c>
+      <c r="F56" s="35">
+        <f>F60</f>
+        <v>78.983999999999995</v>
+      </c>
       <c r="H56" s="25" t="s">
         <v>110</v>
       </c>
+      <c r="I56" s="36">
+        <f>I62</f>
+        <v>142.75730999999999</v>
+      </c>
       <c r="L56" s="25" t="s">
         <v>115</v>
       </c>
       <c r="O56" s="25" t="s">
         <v>116</v>
+      </c>
+      <c r="P56" s="37">
+        <f>SUM(P61:P63)</f>
+        <v>63.418611708699999</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.4">
@@ -2278,6 +2450,179 @@
       <c r="P66" s="29">
         <f>P64-P65</f>
         <v>62.469861708700002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <f>数据底稿!B2</f>
+        <v>1645.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3">
+        <f>数据底稿!E2</f>
+        <v>556.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <f>数据底稿!H2</f>
+        <v>3270.6499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/类信贷测算/类信贷测算.xlsx
+++ b/类信贷测算/类信贷测算.xlsx
@@ -5,12 +5,14 @@
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据底稿" sheetId="1" r:id="rId1"/>
     <sheet name="非标类信贷" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="174">
   <si>
     <t>工商银行</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -508,9 +510,6 @@
     <t>交通银行</t>
   </si>
   <si>
-    <t>邮储银行</t>
-  </si>
-  <si>
     <t>招商银行</t>
   </si>
   <si>
@@ -545,21 +544,153 @@
   </si>
   <si>
     <t>江苏银行</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.应收账款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融机构债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信托及资管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减值准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非债券类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设：类信贷占调整后的非标比重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国有行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股份行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城商行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国有行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农商行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农商行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五级分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>不良贷款拨备计提指导标准</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>关注</t>
+  </si>
+  <si>
+    <t>次级</t>
+  </si>
+  <si>
+    <t>可疑</t>
+  </si>
+  <si>
+    <t>损失</t>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位:亿元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款总额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类信贷分类总额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类计提</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计提拨备加总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化拨备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产减值损失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占拨备比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产减值准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
     <numFmt numFmtId="178" formatCode="#,##0.000"/>
     <numFmt numFmtId="179" formatCode="0.0000000000"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    <numFmt numFmtId="188" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="191" formatCode="###,###,##0.00"/>
+    <numFmt numFmtId="193" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +743,13 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -677,11 +815,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -780,8 +921,20 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
@@ -796,6 +949,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="s_stm07_cs"/>
+      <definedName name="s_stmnote_bank"/>
+      <definedName name="s_stmnote_bank_1n"/>
+      <definedName name="to_tradecode"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,10 +1239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="I27" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1077,7 +1252,7 @@
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,8 +1281,15 @@
         <f>K10+K12</f>
         <v>1699.77</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="16">
+        <f>N9</f>
+        <v>2787.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1124,8 +1306,12 @@
       <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1147,8 +1333,12 @@
         <f>1921.91+6.77</f>
         <v>1928.68</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
@@ -1174,8 +1364,14 @@
         <f>100.24</f>
         <v>100.24</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="12">
+        <v>985.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -1200,8 +1396,14 @@
       <c r="K7" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="12">
+        <v>150.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1227,8 +1429,14 @@
         <f>360.38+1.32</f>
         <v>361.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1255,8 +1463,14 @@
         <f>65.28+13.61</f>
         <v>78.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="12">
+        <v>2787.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1276,8 +1490,15 @@
       <c r="K10" s="2">
         <v>1600</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="2">
+        <f>SUM(N6:N9)</f>
+        <v>4130.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1297,8 +1518,14 @@
         <f>SUM(K5:K10)</f>
         <v>4084.5099999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="2">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1539,7 @@
         <v>99.77</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1327,7 +1554,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1340,6 +1567,9 @@
         <f>SUM(B23:B26)</f>
         <v>219.76</v>
       </c>
+      <c r="T18">
+        <v>5000</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
@@ -1397,6 +1627,12 @@
       <c r="W19">
         <f>W29-W26-W28</f>
         <v>4129.9699999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="T20">
+        <f>T18/T19</f>
+        <v>0.31419231837484651</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
@@ -2460,172 +2696,3523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A3:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B8" s="38"/>
+      <c r="F8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B9" s="38"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>171</v>
+      </c>
+      <c r="R12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
         <v>123</v>
       </c>
-      <c r="B2">
+      <c r="C13" s="39">
         <f>数据底稿!B2</f>
         <v>1645.73</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="D13" s="39">
+        <f>C13*$B$4</f>
+        <v>164.57300000000001</v>
+      </c>
+      <c r="E13" s="16">
+        <f>D13*I45</f>
+        <v>155.57376741741206</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" ref="F13:I13" si="0">E13*J45</f>
+        <v>6.0716129819110813</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>4.5911784157344239E-2</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>3.0751759886994706E-4</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="0"/>
+        <v>4.2909920315615335E-7</v>
+      </c>
+      <c r="J13" s="16">
+        <f>E13*$G$4</f>
+        <v>2.3336065112611806</v>
+      </c>
+      <c r="K13" s="16">
+        <f>F13*$G$5</f>
+        <v>0.18214838945733244</v>
+      </c>
+      <c r="L13" s="16">
+        <f>G13*$G$6</f>
+        <v>1.3773535247203272E-2</v>
+      </c>
+      <c r="M13" s="16">
+        <f>H13*$G$7</f>
+        <v>1.8451055932196822E-4</v>
+      </c>
+      <c r="N13" s="16">
+        <f>I13*$G$8</f>
+        <v>4.2909920315615335E-7</v>
+      </c>
+      <c r="O13" s="16">
+        <f>SUM(J13:N13)</f>
+        <v>2.5297133756242416</v>
+      </c>
+      <c r="P13" s="39">
+        <f>O13*2</f>
+        <v>5.0594267512484832</v>
+      </c>
+      <c r="Q13" s="42">
+        <f>O45</f>
+        <v>613.42999999999995</v>
+      </c>
+      <c r="R13" s="44">
+        <f>O13/Q13</f>
+        <v>4.1238827178720341E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="46"/>
+      <c r="B14" t="s">
         <v>124</v>
       </c>
-      <c r="B3">
+      <c r="C14" s="39">
         <f>数据底稿!E2</f>
         <v>556.53</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="D14" s="39">
+        <f t="shared" ref="D14:D17" si="1">C14*$B$4</f>
+        <v>55.652999999999999</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:E37" si="2">D14*I46</f>
+        <v>53.231860503712269</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" ref="F14:F37" si="3">E14*J46</f>
+        <v>1.5124513680081912</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" ref="G14:G37" si="4">F14*K46</f>
+        <v>9.4332450440608503E-3</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" ref="H14:H37" si="5">G14*L46</f>
+        <v>6.791442316658901E-5</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" ref="I14:I37" si="6">H14*M46</f>
+        <v>1.1240858026636072E-7</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" ref="J14:J37" si="7">E14*$G$4</f>
+        <v>0.79847790755568404</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" ref="K14:K37" si="8">F14*$G$5</f>
+        <v>4.5373541040245734E-2</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" ref="L14:L37" si="9">G14*$G$6</f>
+        <v>2.8299735132182552E-3</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" ref="M14:M37" si="10">H14*$G$7</f>
+        <v>4.0748653899953407E-5</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" ref="N14:N37" si="11">I14*$G$8</f>
+        <v>1.1240858026636072E-7</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" ref="O14:O37" si="12">SUM(J14:N14)</f>
+        <v>0.84672228317162812</v>
+      </c>
+      <c r="P14" s="39">
+        <f t="shared" ref="P14:P37" si="13">O14*2</f>
+        <v>1.6934445663432562</v>
+      </c>
+      <c r="Q14" s="42">
+        <f t="shared" ref="Q14:Q37" si="14">O46</f>
+        <v>605.1</v>
+      </c>
+      <c r="R14" s="44">
+        <f t="shared" ref="R14:R37" si="15">O14/Q14</f>
+        <v>1.3993096730649944E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="46"/>
+      <c r="B15" t="s">
         <v>125</v>
       </c>
-      <c r="B4">
+      <c r="C15" s="39">
         <f>数据底稿!H2</f>
         <v>3270.6499999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="D15" s="39">
+        <f t="shared" si="1"/>
+        <v>327.065</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>308.05144855587611</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="3"/>
+        <v>11.149763241899922</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="4"/>
+        <v>4.2701830636199908E-2</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="5"/>
+        <v>6.7643890741183633E-4</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5345383043803817E-6</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="7"/>
+        <v>4.6207717283381413</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="8"/>
+        <v>0.33449289725699766</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="9"/>
+        <v>1.2810549190859973E-2</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="10"/>
+        <v>4.0586334444710177E-4</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" si="11"/>
+        <v>1.5345383043803817E-6</v>
+      </c>
+      <c r="O15" s="16">
+        <f t="shared" si="12"/>
+        <v>4.9684825726687505</v>
+      </c>
+      <c r="P15" s="39">
+        <f t="shared" si="13"/>
+        <v>9.936965145337501</v>
+      </c>
+      <c r="Q15" s="42">
+        <f t="shared" si="14"/>
+        <v>446.97</v>
+      </c>
+      <c r="R15" s="44">
+        <f t="shared" si="15"/>
+        <v>1.1115919575516813E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="46"/>
+      <c r="B16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="C16" s="39">
+        <f>数据底稿!K2</f>
+        <v>1699.77</v>
+      </c>
+      <c r="D16" s="39">
+        <f t="shared" si="1"/>
+        <v>169.977</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>162.92230295652786</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="3"/>
+        <v>4.5128793675154446</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>2.7064048621139283E-2</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="5"/>
+        <v>8.0980961116565526E-5</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="6"/>
+        <v>3.8992230174297698E-7</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="7"/>
+        <v>2.4438345443479177</v>
+      </c>
+      <c r="K16" s="16">
+        <f t="shared" si="8"/>
+        <v>0.13538638102546333</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="9"/>
+        <v>8.1192145863417838E-3</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="10"/>
+        <v>4.8588576669939316E-5</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="11"/>
+        <v>3.8992230174297698E-7</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="12"/>
+        <v>2.5873891184586943</v>
+      </c>
+      <c r="P16" s="39">
+        <f t="shared" si="13"/>
+        <v>5.1747782369173887</v>
+      </c>
+      <c r="Q16" s="42">
+        <f t="shared" si="14"/>
+        <v>269.60000000000002</v>
+      </c>
+      <c r="R16" s="44">
+        <f t="shared" si="15"/>
+        <v>9.5971406471019819E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="46"/>
+      <c r="B17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="C17" s="39">
+        <f>数据底稿!N2</f>
+        <v>2787.16</v>
+      </c>
+      <c r="D17" s="39">
+        <f t="shared" si="1"/>
+        <v>278.71600000000001</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="2"/>
+        <v>266.44621189905052</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="3"/>
+        <v>7.7085112841331771</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="4"/>
+        <v>3.3140191853110235E-2</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="5"/>
+        <v>1.9207014758441216E-4</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="6"/>
+        <v>9.5974707779871214E-7</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="7"/>
+        <v>3.9966931784857578</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="8"/>
+        <v>0.2312553385239953</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="9"/>
+        <v>9.9420575559330693E-3</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="10"/>
+        <v>1.1524208855064729E-4</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="11"/>
+        <v>9.5974707779871214E-7</v>
+      </c>
+      <c r="O17" s="16">
+        <f t="shared" si="12"/>
+        <v>4.2380067764013143</v>
+      </c>
+      <c r="P17" s="39">
+        <f t="shared" si="13"/>
+        <v>8.4760135528026286</v>
+      </c>
+      <c r="Q17" s="42">
+        <f t="shared" si="14"/>
+        <v>149.41999999999999</v>
+      </c>
+      <c r="R17" s="44">
+        <f t="shared" si="15"/>
+        <v>2.8363048965341416E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="C18" s="39">
+        <f>数据底稿!B19</f>
+        <v>5646.9999999999991</v>
+      </c>
+      <c r="D18" s="39">
+        <f>C18*$B$5</f>
+        <v>1694.0999999999997</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="2"/>
+        <v>1636.0985514435563</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="3"/>
+        <v>28.072522715406361</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="4"/>
+        <v>0.17084887627430612</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="5"/>
+        <v>1.1356822937607092E-3</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="6"/>
+        <v>4.9354922055738699E-6</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="7"/>
+        <v>24.541478271653343</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="8"/>
+        <v>0.84217568146219079</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="9"/>
+        <v>5.1254662882291836E-2</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="10"/>
+        <v>6.8140937625642544E-4</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="11"/>
+        <v>4.9354922055738699E-6</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="12"/>
+        <v>25.43559496086629</v>
+      </c>
+      <c r="P18" s="39">
+        <f t="shared" si="13"/>
+        <v>50.871189921732579</v>
+      </c>
+      <c r="Q18" s="42">
+        <f t="shared" si="14"/>
+        <v>326.48</v>
+      </c>
+      <c r="R18" s="44">
+        <f t="shared" si="15"/>
+        <v>7.7908585398389754E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="46"/>
+      <c r="B19" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="C19" s="39">
+        <f>数据底稿!E19</f>
+        <v>8438.9500000000007</v>
+      </c>
+      <c r="D19" s="39">
+        <f t="shared" ref="D19:D25" si="16">C19*$B$5</f>
+        <v>2531.6849999999999</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="2"/>
+        <v>2431.6451551149348</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="3"/>
+        <v>55.873413397903768</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="4"/>
+        <v>0.51240726118212998</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="5"/>
+        <v>3.0358907058144536E-3</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="6"/>
+        <v>4.3774018190366263E-6</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="7"/>
+        <v>36.47467732672402</v>
+      </c>
+      <c r="K19" s="16">
+        <f t="shared" si="8"/>
+        <v>1.6762024019371129</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="9"/>
+        <v>0.153722178354639</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="10"/>
+        <v>1.8215344234886722E-3</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="11"/>
+        <v>4.3774018190366263E-6</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="12"/>
+        <v>38.306427818841087</v>
+      </c>
+      <c r="P19" s="39">
+        <f t="shared" si="13"/>
+        <v>76.612855637682173</v>
+      </c>
+      <c r="Q19" s="42">
+        <f t="shared" si="14"/>
+        <v>244.14</v>
+      </c>
+      <c r="R19" s="44">
+        <f t="shared" si="15"/>
+        <v>0.15690353001900995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="46"/>
+      <c r="B20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="C20" s="39">
+        <f>数据底稿!H19</f>
+        <v>6796.17</v>
+      </c>
+      <c r="D20" s="39">
+        <f t="shared" si="16"/>
+        <v>2038.8509999999999</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="2"/>
+        <v>1918.1262185595572</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="3"/>
+        <v>73.40992842438915</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.66191692583515671</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="5"/>
+        <v>4.8838872547406435E-3</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="6"/>
+        <v>2.2199003566816163E-5</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="7"/>
+        <v>28.771893278393357</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="8"/>
+        <v>2.2022978527316743</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="9"/>
+        <v>0.198575077750547</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="10"/>
+        <v>2.930332352844386E-3</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="11"/>
+        <v>2.2199003566816163E-5</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="12"/>
+        <v>31.175718740231989</v>
+      </c>
+      <c r="P20" s="39">
+        <f t="shared" si="13"/>
+        <v>62.351437480463979</v>
+      </c>
+      <c r="Q20" s="42">
+        <f t="shared" si="14"/>
+        <v>271.7</v>
+      </c>
+      <c r="R20" s="44">
+        <f t="shared" si="15"/>
+        <v>0.11474316798024288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" s="46"/>
+      <c r="B21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="C21" s="39">
+        <f>数据底稿!K19</f>
+        <v>9139.35</v>
+      </c>
+      <c r="D21" s="39">
+        <f t="shared" si="16"/>
+        <v>2741.8049999999998</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="2"/>
+        <v>2594.7159486552459</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="3"/>
+        <v>95.46865413417666</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="4"/>
+        <v>0.59169319216335881</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="5"/>
+        <v>4.4450877435612129E-3</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3971104524021293E-5</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="7"/>
+        <v>38.92073922982869</v>
+      </c>
+      <c r="K21" s="16">
+        <f t="shared" si="8"/>
+        <v>2.8640596240252996</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="9"/>
+        <v>0.17750795764900765</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="10"/>
+        <v>2.6670526461367275E-3</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="11"/>
+        <v>1.3971104524021293E-5</v>
+      </c>
+      <c r="O21" s="16">
+        <f t="shared" si="12"/>
+        <v>41.964987835253659</v>
+      </c>
+      <c r="P21" s="39">
+        <f t="shared" si="13"/>
+        <v>83.929975670507318</v>
+      </c>
+      <c r="Q21" s="42">
+        <f t="shared" si="14"/>
+        <v>171.39</v>
+      </c>
+      <c r="R21" s="44">
+        <f t="shared" si="15"/>
+        <v>0.24485085381442129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" s="46"/>
+      <c r="B22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="C22" s="39">
+        <f>数据底稿!T19</f>
+        <v>15913.82</v>
+      </c>
+      <c r="D22" s="39">
+        <f t="shared" si="16"/>
+        <v>4774.1459999999997</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="2"/>
+        <v>4560.8117302991905</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="3"/>
+        <v>130.69190553504666</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="4"/>
+        <v>0.78912875054153164</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="5"/>
+        <v>5.6601089591358372E-3</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5957158623165289E-5</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="7"/>
+        <v>68.41217595448785</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="8"/>
+        <v>3.9207571660513998</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="9"/>
+        <v>0.23673862516245947</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="10"/>
+        <v>3.3960653754815024E-3</v>
+      </c>
+      <c r="N22" s="16">
+        <f t="shared" si="11"/>
+        <v>1.5957158623165289E-5</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="12"/>
+        <v>72.573083768235819</v>
+      </c>
+      <c r="P22" s="39">
+        <f t="shared" si="13"/>
+        <v>145.14616753647164</v>
+      </c>
+      <c r="Q22" s="42">
+        <f t="shared" si="14"/>
+        <v>142.53</v>
+      </c>
+      <c r="R22" s="44">
+        <f>O22/Q22</f>
+        <v>0.50917760308872395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23" s="46"/>
+      <c r="B23" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="C23" s="39">
+        <f>数据底稿!N19</f>
+        <v>5165.9399999999996</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" si="16"/>
+        <v>1549.7819999999999</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="2"/>
+        <v>1473.844221961589</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="3"/>
+        <v>48.913116585822486</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="4"/>
+        <v>0.27675422859318088</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="5"/>
+        <v>2.0940614634793286E-3</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="6"/>
+        <v>5.4173082501557421E-6</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="7"/>
+        <v>22.107663329423836</v>
+      </c>
+      <c r="K23" s="16">
+        <f t="shared" si="8"/>
+        <v>1.4673934975746745</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="9"/>
+        <v>8.3026268577954268E-2</v>
+      </c>
+      <c r="M23" s="16">
+        <f t="shared" si="10"/>
+        <v>1.2564368780875971E-3</v>
+      </c>
+      <c r="N23" s="16">
+        <f t="shared" si="11"/>
+        <v>5.4173082501557421E-6</v>
+      </c>
+      <c r="O23" s="16">
+        <f t="shared" si="12"/>
+        <v>23.659344949762804</v>
+      </c>
+      <c r="P23" s="39">
+        <f t="shared" si="13"/>
+        <v>47.318689899525609</v>
+      </c>
+      <c r="Q23" s="42">
+        <f t="shared" si="14"/>
+        <v>100.3</v>
+      </c>
+      <c r="R23" s="44">
+        <f t="shared" si="15"/>
+        <v>0.23588579212126426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="46"/>
+      <c r="B24" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="C24" s="39">
+        <f>数据底稿!Q19</f>
+        <v>2048.3199999999997</v>
+      </c>
+      <c r="D24" s="39">
+        <f t="shared" si="16"/>
+        <v>614.49599999999987</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="2"/>
+        <v>576.87553881362555</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="3"/>
+        <v>25.603515143660122</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="4"/>
+        <v>0.17846462589244541</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="5"/>
+        <v>1.2026625295049765E-3</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="6"/>
+        <v>3.7635063612632652E-6</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="7"/>
+        <v>8.6531330822043824</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" si="8"/>
+        <v>0.76810545430980359</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="9"/>
+        <v>5.3539387767733621E-2</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="10"/>
+        <v>7.2159751770298588E-4</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="11"/>
+        <v>3.7635063612632652E-6</v>
+      </c>
+      <c r="O24" s="16">
+        <f t="shared" si="12"/>
+        <v>9.4755032853059848</v>
+      </c>
+      <c r="P24" s="39">
+        <f t="shared" si="13"/>
+        <v>18.95100657061197</v>
+      </c>
+      <c r="Q24" s="42">
+        <f t="shared" si="14"/>
+        <v>82.18</v>
+      </c>
+      <c r="R24" s="44">
+        <f t="shared" si="15"/>
+        <v>0.11530181656493045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" s="46"/>
+      <c r="B25" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="C25" s="39">
+        <f>数据底稿!W19</f>
+        <v>4129.9699999999993</v>
+      </c>
+      <c r="D25" s="39">
+        <f t="shared" si="16"/>
+        <v>1238.9909999999998</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="2"/>
+        <v>1165.903415323271</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="3"/>
+        <v>48.272618529653052</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="4"/>
+        <v>0.41663372452411213</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="5"/>
+        <v>1.3006402553605708E-3</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="6"/>
+        <v>7.5870905912152938E-6</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="7"/>
+        <v>17.488551229849065</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" si="8"/>
+        <v>1.4481785558895914</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="9"/>
+        <v>0.12499011735723363</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="10"/>
+        <v>7.8038415321634246E-4</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" si="11"/>
+        <v>7.5870905912152938E-6</v>
+      </c>
+      <c r="O25" s="16">
+        <f t="shared" si="12"/>
+        <v>19.062507874339694</v>
+      </c>
+      <c r="P25" s="39">
+        <f t="shared" si="13"/>
+        <v>38.125015748679388</v>
+      </c>
+      <c r="Q25" s="42">
+        <f t="shared" si="14"/>
+        <v>237.16</v>
+      </c>
+      <c r="R25" s="44">
+        <f t="shared" si="15"/>
+        <v>8.0378258873080172E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="C26" s="39">
+        <f>数据底稿!B37</f>
+        <v>3701.5499999999997</v>
+      </c>
+      <c r="D26" s="39">
+        <f>C26*$B$6</f>
+        <v>740.31</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="2"/>
+        <v>722.87766811063602</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="3"/>
+        <v>8.4781253281900693</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="4"/>
+        <v>7.8838158882978765E-2</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="5"/>
+        <v>4.442684258023388E-5</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="6"/>
+        <v>8.6921739944319944E-8</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="7"/>
+        <v>10.843165021659541</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="8"/>
+        <v>0.25434375984570207</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="9"/>
+        <v>2.3651447664893629E-2</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="10"/>
+        <v>2.6656105548140327E-5</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="11"/>
+        <v>8.6921739944319944E-8</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="12"/>
+        <v>11.121186972197423</v>
+      </c>
+      <c r="P26" s="39">
+        <f t="shared" si="13"/>
+        <v>22.242373944394846</v>
+      </c>
+      <c r="Q26" s="42">
+        <f t="shared" si="14"/>
+        <v>66.53</v>
+      </c>
+      <c r="R26" s="44">
+        <f t="shared" si="15"/>
+        <v>0.16716048357428864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="46"/>
+      <c r="B27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="C27" s="39">
+        <f>数据底稿!F37</f>
+        <v>2379.6147000000001</v>
+      </c>
+      <c r="D27" s="39">
+        <f t="shared" ref="D27:D32" si="17">C27*$B$6</f>
+        <v>475.92294000000004</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="2"/>
+        <v>463.12626619659568</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="3"/>
+        <v>8.4479856796534136</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="4"/>
+        <v>4.9775943631112401E-2</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="5"/>
+        <v>1.0194552217228024E-4</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="6"/>
+        <v>7.2052008376939182E-8</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="7"/>
+        <v>6.9468939929489348</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="8"/>
+        <v>0.25343957038960241</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="9"/>
+        <v>1.4932783089333719E-2</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="10"/>
+        <v>6.1167313303368145E-5</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="11"/>
+        <v>7.2052008376939182E-8</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="12"/>
+        <v>7.2153275857931831</v>
+      </c>
+      <c r="P27" s="39">
+        <f t="shared" si="13"/>
+        <v>14.430655171586366</v>
+      </c>
+      <c r="Q27" s="42">
+        <f t="shared" si="14"/>
+        <v>25.476379999999999</v>
+      </c>
+      <c r="R27" s="44">
+        <f t="shared" si="15"/>
+        <v>0.28321635906644443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="46"/>
+      <c r="B28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="C28" s="39">
+        <f>数据底稿!I37</f>
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="39">
+        <f t="shared" si="17"/>
+        <v>0.24</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.23596919587595644</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="3"/>
+        <v>1.8219168109086124E-3</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="4"/>
+        <v>9.8958149039622732E-6</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="5"/>
+        <v>2.9785077960494787E-8</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="6"/>
+        <v>1.884252624790698E-11</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="7"/>
+        <v>3.5395379381393463E-3</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="8"/>
+        <v>5.4657504327258369E-5</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="9"/>
+        <v>2.9687444711886818E-6</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="10"/>
+        <v>1.7871046776296872E-8</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="11"/>
+        <v>1.884252624790698E-11</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" si="12"/>
+        <v>3.5971820768270955E-3</v>
+      </c>
+      <c r="P28" s="39">
+        <f t="shared" si="13"/>
+        <v>7.1943641536541909E-3</v>
+      </c>
+      <c r="Q28" s="42">
+        <f t="shared" si="14"/>
+        <v>27.42343</v>
+      </c>
+      <c r="R28" s="44">
+        <f t="shared" si="15"/>
+        <v>1.3117185110786999E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="46"/>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="39">
+        <f>数据底稿!U37</f>
+        <v>1449.6943999999999</v>
+      </c>
+      <c r="D29" s="39">
+        <f t="shared" si="17"/>
+        <v>289.93887999999998</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="2"/>
+        <v>280.41546185959203</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="3"/>
+        <v>5.9521557934116567</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="4"/>
+        <v>2.2721225844242191E-2</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.324639847597479E-4</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="6"/>
+        <v>2.6132690296092877E-7</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="7"/>
+        <v>4.2062319278938807</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="8"/>
+        <v>0.17856467380234969</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="9"/>
+        <v>6.8163677532726572E-3</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="10"/>
+        <v>7.9478390855848745E-5</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="11"/>
+        <v>2.6132690296092877E-7</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="12"/>
+        <v>4.3916927091672626</v>
+      </c>
+      <c r="P29" s="39">
+        <f t="shared" si="13"/>
+        <v>8.7833854183345252</v>
+      </c>
+      <c r="Q29" s="42">
+        <f t="shared" si="14"/>
+        <v>34.431939999999997</v>
+      </c>
+      <c r="R29" s="44">
+        <f t="shared" si="15"/>
+        <v>0.12754705976971564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="46"/>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="39">
+        <f>数据底稿!O37</f>
+        <v>763.49552000000006</v>
+      </c>
+      <c r="D30" s="39">
+        <f t="shared" si="17"/>
+        <v>152.69910400000001</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="2"/>
+        <v>144.90026932641356</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="3"/>
+        <v>5.2842275104815801</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="4"/>
+        <v>3.6155459424567563E-2</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="5"/>
+        <v>1.6210610771591854E-4</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="6"/>
+        <v>5.3162113321043435E-7</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="7"/>
+        <v>2.1735040398962036</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="8"/>
+        <v>0.15852682531444739</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="9"/>
+        <v>1.0846637827370269E-2</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="10"/>
+        <v>9.7263664629551122E-5</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="11"/>
+        <v>5.3162113321043435E-7</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="12"/>
+        <v>2.3429752983237844</v>
+      </c>
+      <c r="P30" s="39">
+        <f t="shared" si="13"/>
+        <v>4.6859505966475687</v>
+      </c>
+      <c r="Q30" s="42">
+        <f t="shared" si="14"/>
+        <v>19.298410000000001</v>
+      </c>
+      <c r="R30" s="44">
+        <f t="shared" si="15"/>
+        <v>0.12140768583130861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31" s="46"/>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="39">
+        <f>数据底稿!R37</f>
+        <v>711.88409999999999</v>
+      </c>
+      <c r="D31" s="39">
+        <f t="shared" si="17"/>
+        <v>142.37682000000001</v>
+      </c>
+      <c r="E31" s="16">
+        <f t="shared" si="2"/>
+        <v>134.93610158211033</v>
+      </c>
+      <c r="F31" s="16">
+        <f t="shared" si="3"/>
+        <v>4.8774555078828152</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="4"/>
+        <v>3.5768745092366758E-2</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="5"/>
+        <v>5.1077214859867595E-5</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" si="6"/>
+        <v>3.7556386603899497E-7</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="7"/>
+        <v>2.0240415237316549</v>
+      </c>
+      <c r="K31" s="16">
+        <f t="shared" si="8"/>
+        <v>0.14632366523648446</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" si="9"/>
+        <v>1.0730623527710027E-2</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="10"/>
+        <v>3.0646328915920553E-5</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" si="11"/>
+        <v>3.7556386603899497E-7</v>
+      </c>
+      <c r="O31" s="16">
+        <f t="shared" si="12"/>
+        <v>2.1811268343886314</v>
+      </c>
+      <c r="P31" s="39">
+        <f t="shared" si="13"/>
+        <v>4.3622536687772628</v>
+      </c>
+      <c r="Q31" s="42">
+        <f t="shared" si="14"/>
+        <v>15.796060000000001</v>
+      </c>
+      <c r="R31" s="44">
+        <f t="shared" si="15"/>
+        <v>0.13808043489253849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32" s="46"/>
+      <c r="B32" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="C32" s="39">
+        <f>数据底稿!L37</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="39">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="42">
+        <f t="shared" si="14"/>
+        <v>54.173029999999997</v>
+      </c>
+      <c r="R32" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A33" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="39">
+        <f>数据底稿!F56</f>
+        <v>78.983999999999995</v>
+      </c>
+      <c r="D33" s="39">
+        <f>C33*$B$7</f>
+        <v>15.796799999999999</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="2"/>
+        <v>15.35210382250157</v>
+      </c>
+      <c r="F33" s="16">
+        <f t="shared" si="3"/>
+        <v>0.23040864695638982</v>
+      </c>
+      <c r="G33" s="16">
+        <f t="shared" si="4"/>
+        <v>2.5176959006617413E-3</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" si="5"/>
+        <v>5.1751422320314975E-6</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" si="6"/>
+        <v>8.2882024525024084E-10</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="7"/>
+        <v>0.23028155733752353</v>
+      </c>
+      <c r="K33" s="16">
+        <f t="shared" si="8"/>
+        <v>6.9122594086916947E-3</v>
+      </c>
+      <c r="L33" s="16">
+        <f t="shared" si="9"/>
+        <v>7.5530877019852236E-4</v>
+      </c>
+      <c r="M33" s="16">
+        <f t="shared" si="10"/>
+        <v>3.1050853392188983E-6</v>
+      </c>
+      <c r="N33" s="16">
+        <f t="shared" si="11"/>
+        <v>8.2882024525024084E-10</v>
+      </c>
+      <c r="O33" s="16">
+        <f t="shared" si="12"/>
+        <v>0.2379522314305732</v>
+      </c>
+      <c r="P33" s="39">
+        <f t="shared" si="13"/>
+        <v>0.4759044628611464</v>
+      </c>
+      <c r="Q33" s="42">
+        <f t="shared" si="14"/>
+        <v>3.19502</v>
+      </c>
+      <c r="R33" s="44">
+        <f t="shared" si="15"/>
+        <v>7.4475975559017846E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A34" s="46"/>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="39">
+        <f>数据底稿!I56</f>
+        <v>142.75730999999999</v>
+      </c>
+      <c r="D34" s="39">
+        <f t="shared" ref="D34:D37" si="18">C34*$B$7</f>
+        <v>28.551462000000001</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="2"/>
+        <v>27.286579192881241</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="3"/>
+        <v>0.85619170170738312</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0767836303052843E-2</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="5"/>
+        <v>2.9202797231478814E-6</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="6"/>
+        <v>2.2329452029884165E-10</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="7"/>
+        <v>0.4092986878932186</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="8"/>
+        <v>2.5685751051221492E-2</v>
+      </c>
+      <c r="L34" s="16">
+        <f t="shared" si="9"/>
+        <v>3.2303508909158527E-3</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="10"/>
+        <v>1.7521678338887288E-6</v>
+      </c>
+      <c r="N34" s="16">
+        <f t="shared" si="11"/>
+        <v>2.2329452029884165E-10</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" si="12"/>
+        <v>0.43821654222648432</v>
+      </c>
+      <c r="P34" s="39">
+        <f t="shared" si="13"/>
+        <v>0.87643308445296864</v>
+      </c>
+      <c r="Q34" s="42">
+        <f t="shared" si="14"/>
+        <v>7.3852799999999998</v>
+      </c>
+      <c r="R34" s="44">
+        <f t="shared" si="15"/>
+        <v>5.9336483143020216E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A35" s="46"/>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="42">
+        <f t="shared" si="14"/>
+        <v>4.0594200000000003</v>
+      </c>
+      <c r="R35" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A36" s="46"/>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="39">
+        <f>数据底稿!M56</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="42">
+        <f t="shared" si="14"/>
+        <v>4.2630999999999997</v>
+      </c>
+      <c r="R36" s="44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A37" s="46"/>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="39">
+        <f>数据底稿!P56</f>
+        <v>63.418611708699999</v>
+      </c>
+      <c r="D37" s="39">
+        <f t="shared" si="18"/>
+        <v>12.683722341740001</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="2"/>
+        <v>11.561241466883564</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="shared" si="3"/>
+        <v>0.79548538408054648</v>
+      </c>
+      <c r="G37" s="16">
+        <f t="shared" si="4"/>
+        <v>1.1563626142472401E-2</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="shared" si="5"/>
+        <v>5.1560770283698155E-5</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="6"/>
+        <v>3.5890506249651859E-8</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="7"/>
+        <v>0.17341862200325345</v>
+      </c>
+      <c r="K37" s="16">
+        <f t="shared" si="8"/>
+        <v>2.3864561522416394E-2</v>
+      </c>
+      <c r="L37" s="16">
+        <f t="shared" si="9"/>
+        <v>3.4690878427417202E-3</v>
+      </c>
+      <c r="M37" s="16">
+        <f t="shared" si="10"/>
+        <v>3.0936462170218894E-5</v>
+      </c>
+      <c r="N37" s="16">
+        <f t="shared" si="11"/>
+        <v>3.5890506249651859E-8</v>
+      </c>
+      <c r="O37" s="16">
+        <f t="shared" si="12"/>
+        <v>0.20078324372108805</v>
+      </c>
+      <c r="P37" s="39">
+        <f t="shared" si="13"/>
+        <v>0.4015664874421761</v>
+      </c>
+      <c r="Q37" s="42">
+        <f t="shared" si="14"/>
+        <v>4.2600216346000002</v>
+      </c>
+      <c r="R37" s="44">
+        <f t="shared" si="15"/>
+        <v>4.7131977474086428E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A43" s="41">
+        <v>42916</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="I43" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q43">
+        <v>5000</v>
+      </c>
+      <c r="R43" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S43">
+        <f>R43*Q43</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" t="s">
+        <v>165</v>
+      </c>
+      <c r="I44" t="s">
+        <v>163</v>
+      </c>
+      <c r="J44" t="s">
+        <v>159</v>
+      </c>
+      <c r="K44" t="s">
+        <v>160</v>
+      </c>
+      <c r="L44" t="s">
+        <v>161</v>
+      </c>
+      <c r="M44" t="s">
+        <v>162</v>
+      </c>
+      <c r="O44" t="s">
+        <v>173</v>
+      </c>
+      <c r="T44" s="42">
+        <v>142.53</v>
+      </c>
+      <c r="U44">
+        <f>S43/T44</f>
+        <v>0.52620500947169013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A45" t="str">
+        <f>[1]!to_tradecode(B45)</f>
+        <v>601398</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="43">
+        <f>[1]!s_stmnote_bank(A45,"31",$A$43,100000000)</f>
+        <v>131076.89000000001</v>
+      </c>
+      <c r="D45" s="43">
+        <f>[1]!s_stmnote_bank(A45,"34",$A$43,100000000)</f>
+        <v>5411.48</v>
+      </c>
+      <c r="E45" s="43">
+        <f>[1]!s_stmnote_bank(A45,"37",$A$43,100000000)</f>
+        <v>1048.5</v>
+      </c>
+      <c r="F45" s="43">
+        <f>[1]!s_stmnote_bank(A45,"40",$A$43,100000000)</f>
+        <v>928.74</v>
+      </c>
+      <c r="G45" s="43">
+        <f>[1]!s_stmnote_bank(A45,"43",$A$43,100000000)</f>
+        <v>193.48</v>
+      </c>
+      <c r="H45" s="43">
+        <f>[1]!s_stmnote_bank_1n(A45,$A$43,1,100000000)</f>
+        <v>138659.09</v>
+      </c>
+      <c r="I45" s="45">
+        <f>C45/$H45</f>
+        <v>0.94531768526679372</v>
+      </c>
+      <c r="J45" s="45">
+        <f t="shared" ref="J45:M45" si="19">D45/$H45</f>
+        <v>3.9027228579100008E-2</v>
+      </c>
+      <c r="K45" s="45">
+        <f t="shared" si="19"/>
+        <v>7.5617112444629486E-3</v>
+      </c>
+      <c r="L45" s="45">
+        <f t="shared" si="19"/>
+        <v>6.6980102061826603E-3</v>
+      </c>
+      <c r="M45" s="45">
+        <f t="shared" si="19"/>
+        <v>1.3953647034608404E-3</v>
+      </c>
+      <c r="N45" s="40">
+        <f>SUM(I45:M45)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O45" s="42">
+        <f>[1]!s_stm07_cs(A45,"W95763514",$A$43,1,100000000)</f>
+        <v>613.42999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A46" t="str">
+        <f>[1]!to_tradecode(B46)</f>
+        <v>601939</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="43">
+        <f>[1]!s_stmnote_bank(A46,"31",$A$43,100000000)</f>
+        <v>119629.13</v>
+      </c>
+      <c r="D46" s="43">
+        <f>[1]!s_stmnote_bank(A46,"34",$A$43,100000000)</f>
+        <v>3553.56</v>
+      </c>
+      <c r="E46" s="43">
+        <f>[1]!s_stmnote_bank(A46,"37",$A$43,100000000)</f>
+        <v>780.07</v>
+      </c>
+      <c r="F46" s="43">
+        <f>[1]!s_stmnote_bank(A46,"40",$A$43,100000000)</f>
+        <v>900.44</v>
+      </c>
+      <c r="G46" s="43">
+        <f>[1]!s_stmnote_bank(A46,"43",$A$43,100000000)</f>
+        <v>207.01</v>
+      </c>
+      <c r="H46" s="43">
+        <f>[1]!s_stmnote_bank_1n(A46,$A$43,1,100000000)</f>
+        <v>125070.21</v>
+      </c>
+      <c r="I46" s="45">
+        <f t="shared" ref="I46:I69" si="20">C46/$H46</f>
+        <v>0.95649579544161634</v>
+      </c>
+      <c r="J46" s="45">
+        <f t="shared" ref="J46:J69" si="21">D46/$H46</f>
+        <v>2.8412521255061454E-2</v>
+      </c>
+      <c r="K46" s="45">
+        <f t="shared" ref="K46:K69" si="22">E46/$H46</f>
+        <v>6.2370567699534529E-3</v>
+      </c>
+      <c r="L46" s="45">
+        <f t="shared" ref="L46:L69" si="23">F46/$H46</f>
+        <v>7.1994761982089898E-3</v>
+      </c>
+      <c r="M46" s="45">
+        <f t="shared" ref="M46:M69" si="24">G46/$H46</f>
+        <v>1.6551503351597474E-3</v>
+      </c>
+      <c r="N46" s="40">
+        <f t="shared" ref="N46:N69" si="25">SUM(I46:M46)</f>
+        <v>1</v>
+      </c>
+      <c r="O46" s="42">
+        <f>[1]!s_stm07_cs(A46,"W95763514",$A$43,1,100000000)</f>
+        <v>605.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A47" t="str">
+        <f>[1]!to_tradecode(B47)</f>
+        <v>601288</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="43">
+        <f>[1]!s_stmnote_bank(A47,"31",$A$43,100000000)</f>
+        <v>98066.33</v>
+      </c>
+      <c r="D47" s="43">
+        <f>[1]!s_stmnote_bank(A47,"34",$A$43,100000000)</f>
+        <v>3768.54</v>
+      </c>
+      <c r="E47" s="43">
+        <f>[1]!s_stmnote_bank(A47,"37",$A$43,100000000)</f>
+        <v>398.76</v>
+      </c>
+      <c r="F47" s="43">
+        <f>[1]!s_stmnote_bank(A47,"40",$A$43,100000000)</f>
+        <v>1649.35</v>
+      </c>
+      <c r="G47" s="43">
+        <f>[1]!s_stmnote_bank(A47,"43",$A$43,100000000)</f>
+        <v>236.2</v>
+      </c>
+      <c r="H47" s="43">
+        <f>[1]!s_stmnote_bank_1n(A47,$A$43,1,100000000)</f>
+        <v>104119.18</v>
+      </c>
+      <c r="I47" s="45">
+        <f t="shared" si="20"/>
+        <v>0.94186613840024491</v>
+      </c>
+      <c r="J47" s="45">
+        <f t="shared" si="21"/>
+        <v>3.6194484051833682E-2</v>
+      </c>
+      <c r="K47" s="45">
+        <f t="shared" si="22"/>
+        <v>3.8298419176947033E-3</v>
+      </c>
+      <c r="L47" s="45">
+        <f t="shared" si="23"/>
+        <v>1.5840981459900087E-2</v>
+      </c>
+      <c r="M47" s="45">
+        <f t="shared" si="24"/>
+        <v>2.2685541703267352E-3</v>
+      </c>
+      <c r="N47" s="40">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O47" s="42">
+        <f>[1]!s_stm07_cs(A47,"W95763514",$A$43,1,100000000)</f>
+        <v>446.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A48" t="str">
+        <f>[1]!to_tradecode(B48)</f>
+        <v>601988</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="43">
+        <f>[1]!s_stmnote_bank(A48,"31",$A$43,100000000)</f>
+        <v>102086.58</v>
+      </c>
+      <c r="D48" s="43">
+        <f>[1]!s_stmnote_bank(A48,"34",$A$43,100000000)</f>
+        <v>2950.2</v>
+      </c>
+      <c r="E48" s="43">
+        <f>[1]!s_stmnote_bank(A48,"37",$A$43,100000000)</f>
+        <v>638.73</v>
+      </c>
+      <c r="F48" s="43">
+        <f>[1]!s_stmnote_bank(A48,"40",$A$43,100000000)</f>
+        <v>318.69</v>
+      </c>
+      <c r="G48" s="43">
+        <f>[1]!s_stmnote_bank(A48,"43",$A$43,100000000)</f>
+        <v>512.83000000000004</v>
+      </c>
+      <c r="H48" s="43">
+        <f>[1]!s_stmnote_bank_1n(A48,$A$43,1,100000000)</f>
+        <v>106507.03</v>
+      </c>
+      <c r="I48" s="45">
+        <f t="shared" si="20"/>
+        <v>0.95849616687274075</v>
+      </c>
+      <c r="J48" s="45">
+        <f t="shared" si="21"/>
+        <v>2.7699580018333062E-2</v>
+      </c>
+      <c r="K48" s="45">
+        <f t="shared" si="22"/>
+        <v>5.9970689258727807E-3</v>
+      </c>
+      <c r="L48" s="45">
+        <f t="shared" si="23"/>
+        <v>2.9921968531091327E-3</v>
+      </c>
+      <c r="M48" s="45">
+        <f t="shared" si="24"/>
+        <v>4.8149873299443242E-3</v>
+      </c>
+      <c r="N48" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="42">
+        <f>[1]!s_stm07_cs(A48,"W95763514",$A$43,1,100000000)</f>
+        <v>269.60000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" t="str">
+        <f>[1]!to_tradecode(B49)</f>
+        <v>601328</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="43">
+        <f>[1]!s_stmnote_bank(A49,"31",$A$43,100000000)</f>
+        <v>41777.620000000003</v>
+      </c>
+      <c r="D49" s="43">
+        <f>[1]!s_stmnote_bank(A49,"34",$A$43,100000000)</f>
+        <v>1264.32</v>
+      </c>
+      <c r="E49" s="43">
+        <f>[1]!s_stmnote_bank(A49,"37",$A$43,100000000)</f>
+        <v>187.88</v>
+      </c>
+      <c r="F49" s="43">
+        <f>[1]!s_stmnote_bank(A49,"40",$A$43,100000000)</f>
+        <v>253.28</v>
+      </c>
+      <c r="G49" s="43">
+        <f>[1]!s_stmnote_bank(A49,"43",$A$43,100000000)</f>
+        <v>218.37</v>
+      </c>
+      <c r="H49" s="43">
+        <f>[1]!s_stmnote_bank_1n(A49,$A$43,1,100000000)</f>
+        <v>43701.47</v>
+      </c>
+      <c r="I49" s="45">
+        <f t="shared" si="20"/>
+        <v>0.95597745339001183</v>
+      </c>
+      <c r="J49" s="45">
+        <f t="shared" si="21"/>
+        <v>2.8930834592062919E-2</v>
+      </c>
+      <c r="K49" s="45">
+        <f t="shared" si="22"/>
+        <v>4.2991688837926961E-3</v>
+      </c>
+      <c r="L49" s="45">
+        <f t="shared" si="23"/>
+        <v>5.795686049004759E-3</v>
+      </c>
+      <c r="M49" s="45">
+        <f t="shared" si="24"/>
+        <v>4.9968570851278002E-3</v>
+      </c>
+      <c r="N49" s="40">
+        <f t="shared" si="25"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O49" s="42">
+        <f>[1]!s_stm07_cs(A49,"W95763514",$A$43,1,100000000)</f>
+        <v>149.41999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" t="str">
+        <f>[1]!to_tradecode(B50)</f>
+        <v>600036</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="43">
+        <f>[1]!s_stmnote_bank(A50,"31",$A$43,100000000)</f>
+        <v>34187.4</v>
+      </c>
+      <c r="D50" s="43">
+        <f>[1]!s_stmnote_bank(A50,"34",$A$43,100000000)</f>
+        <v>607.39</v>
+      </c>
+      <c r="E50" s="43">
+        <f>[1]!s_stmnote_bank(A50,"37",$A$43,100000000)</f>
+        <v>215.44</v>
+      </c>
+      <c r="F50" s="43">
+        <f>[1]!s_stmnote_bank(A50,"40",$A$43,100000000)</f>
+        <v>235.31</v>
+      </c>
+      <c r="G50" s="43">
+        <f>[1]!s_stmnote_bank(A50,"43",$A$43,100000000)</f>
+        <v>153.84</v>
+      </c>
+      <c r="H50" s="43">
+        <f>[1]!s_stmnote_bank_1n(A50,$A$43,1,100000000)</f>
+        <v>35399.379999999997</v>
+      </c>
+      <c r="I50" s="45">
+        <f t="shared" si="20"/>
+        <v>0.96576267719943132</v>
+      </c>
+      <c r="J50" s="45">
+        <f t="shared" si="21"/>
+        <v>1.7158210115544397E-2</v>
+      </c>
+      <c r="K50" s="45">
+        <f t="shared" si="22"/>
+        <v>6.0859822968650865E-3</v>
+      </c>
+      <c r="L50" s="45">
+        <f t="shared" si="23"/>
+        <v>6.647291562733585E-3</v>
+      </c>
+      <c r="M50" s="45">
+        <f t="shared" si="24"/>
+        <v>4.3458388254257567E-3</v>
+      </c>
+      <c r="N50" s="40">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O50" s="42">
+        <f>[1]!s_stm07_cs(A50,"W95763514",$A$43,1,100000000)</f>
+        <v>326.48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" t="str">
+        <f>[1]!to_tradecode(B51)</f>
+        <v>601998</v>
+      </c>
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="43">
+        <f>[1]!s_stmnote_bank(A51,"31",$A$43,100000000)</f>
+        <v>29689.5</v>
+      </c>
+      <c r="D51" s="43">
+        <f>[1]!s_stmnote_bank(A51,"34",$A$43,100000000)</f>
+        <v>710.26</v>
+      </c>
+      <c r="E51" s="43">
+        <f>[1]!s_stmnote_bank(A51,"37",$A$43,100000000)</f>
+        <v>283.48</v>
+      </c>
+      <c r="F51" s="43">
+        <f>[1]!s_stmnote_bank(A51,"40",$A$43,100000000)</f>
+        <v>183.14</v>
+      </c>
+      <c r="G51" s="43">
+        <f>[1]!s_stmnote_bank(A51,"43",$A$43,100000000)</f>
+        <v>44.57</v>
+      </c>
+      <c r="H51" s="43">
+        <f>[1]!s_stmnote_bank_1n(A51,$A$43,1,100000000)</f>
+        <v>30910.95</v>
+      </c>
+      <c r="I51" s="45">
+        <f t="shared" si="20"/>
+        <v>0.9604848767184444</v>
+      </c>
+      <c r="J51" s="45">
+        <f t="shared" si="21"/>
+        <v>2.2977617963860702E-2</v>
+      </c>
+      <c r="K51" s="45">
+        <f t="shared" si="22"/>
+        <v>9.1708601644401103E-3</v>
+      </c>
+      <c r="L51" s="45">
+        <f t="shared" si="23"/>
+        <v>5.9247612900929928E-3</v>
+      </c>
+      <c r="M51" s="45">
+        <f t="shared" si="24"/>
+        <v>1.4418838631617599E-3</v>
+      </c>
+      <c r="N51" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="42">
+        <f>[1]!s_stm07_cs(A51,"W95763514",$A$43,1,100000000)</f>
+        <v>244.14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" t="str">
+        <f>[1]!to_tradecode(B52)</f>
+        <v>600000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="43">
+        <f>[1]!s_stmnote_bank(A52,"31",$A$43,100000000)</f>
+        <v>28482.22</v>
+      </c>
+      <c r="D52" s="43">
+        <f>[1]!s_stmnote_bank(A52,"34",$A$43,100000000)</f>
+        <v>1158.67</v>
+      </c>
+      <c r="E52" s="43">
+        <f>[1]!s_stmnote_bank(A52,"37",$A$43,100000000)</f>
+        <v>272.98</v>
+      </c>
+      <c r="F52" s="43">
+        <f>[1]!s_stmnote_bank(A52,"40",$A$43,100000000)</f>
+        <v>223.38</v>
+      </c>
+      <c r="G52" s="43">
+        <f>[1]!s_stmnote_bank(A52,"43",$A$43,100000000)</f>
+        <v>137.61000000000001</v>
+      </c>
+      <c r="H52" s="43">
+        <f>[1]!s_stmnote_bank_1n(A52,$A$43,1,100000000)</f>
+        <v>30274.86</v>
+      </c>
+      <c r="I52" s="45">
+        <f t="shared" si="20"/>
+        <v>0.94078783518734688</v>
+      </c>
+      <c r="J52" s="45">
+        <f t="shared" si="21"/>
+        <v>3.8271688126716358E-2</v>
+      </c>
+      <c r="K52" s="45">
+        <f t="shared" si="22"/>
+        <v>9.0167221252220493E-3</v>
+      </c>
+      <c r="L52" s="45">
+        <f t="shared" si="23"/>
+        <v>7.3783991073782008E-3</v>
+      </c>
+      <c r="M52" s="45">
+        <f t="shared" si="24"/>
+        <v>4.5453554533365307E-3</v>
+      </c>
+      <c r="N52" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="42">
+        <f>[1]!s_stm07_cs(A52,"W95763514",$A$43,1,100000000)</f>
+        <v>271.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53" t="str">
+        <f>[1]!to_tradecode(B53)</f>
+        <v>600016</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="43">
+        <f>[1]!s_stmnote_bank(A53,"31",$A$43,100000000)</f>
+        <v>25611.1</v>
+      </c>
+      <c r="D53" s="43">
+        <f>[1]!s_stmnote_bank(A53,"34",$A$43,100000000)</f>
+        <v>995.74</v>
+      </c>
+      <c r="E53" s="43">
+        <f>[1]!s_stmnote_bank(A53,"37",$A$43,100000000)</f>
+        <v>167.73</v>
+      </c>
+      <c r="F53" s="43">
+        <f>[1]!s_stmnote_bank(A53,"40",$A$43,100000000)</f>
+        <v>203.31</v>
+      </c>
+      <c r="G53" s="43">
+        <f>[1]!s_stmnote_bank(A53,"43",$A$43,100000000)</f>
+        <v>85.06</v>
+      </c>
+      <c r="H53" s="43">
+        <f>[1]!s_stmnote_bank_1n(A53,$A$43,1,100000000)</f>
+        <v>27062.94</v>
+      </c>
+      <c r="I53" s="45">
+        <f t="shared" si="20"/>
+        <v>0.94635320478854112</v>
+      </c>
+      <c r="J53" s="45">
+        <f t="shared" si="21"/>
+        <v>3.6793489546959796E-2</v>
+      </c>
+      <c r="K53" s="45">
+        <f t="shared" si="22"/>
+        <v>6.1977745211717573E-3</v>
+      </c>
+      <c r="L53" s="45">
+        <f t="shared" si="23"/>
+        <v>7.5124875567842966E-3</v>
+      </c>
+      <c r="M53" s="45">
+        <f t="shared" si="24"/>
+        <v>3.1430435865430735E-3</v>
+      </c>
+      <c r="N53" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O53" s="42">
+        <f>[1]!s_stm07_cs(A53,"W95763514",$A$43,1,100000000)</f>
+        <v>171.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" t="str">
+        <f>[1]!to_tradecode(B54)</f>
+        <v>601166</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="43">
+        <f>[1]!s_stmnote_bank(A54,"31",$A$43,100000000)</f>
+        <v>21825.74</v>
+      </c>
+      <c r="D54" s="43">
+        <f>[1]!s_stmnote_bank(A54,"34",$A$43,100000000)</f>
+        <v>654.67999999999995</v>
+      </c>
+      <c r="E54" s="43">
+        <f>[1]!s_stmnote_bank(A54,"37",$A$43,100000000)</f>
+        <v>137.94999999999999</v>
+      </c>
+      <c r="F54" s="43">
+        <f>[1]!s_stmnote_bank(A54,"40",$A$43,100000000)</f>
+        <v>163.87</v>
+      </c>
+      <c r="G54" s="43">
+        <f>[1]!s_stmnote_bank(A54,"43",$A$43,100000000)</f>
+        <v>64.41</v>
+      </c>
+      <c r="H54" s="43">
+        <f>[1]!s_stmnote_bank_1n(A54,$A$43,1,100000000)</f>
+        <v>22846.65</v>
+      </c>
+      <c r="I54" s="45">
+        <f t="shared" si="20"/>
+        <v>0.95531467414259863</v>
+      </c>
+      <c r="J54" s="45">
+        <f t="shared" si="21"/>
+        <v>2.8655404621684137E-2</v>
+      </c>
+      <c r="K54" s="45">
+        <f t="shared" si="22"/>
+        <v>6.0380843581006394E-3</v>
+      </c>
+      <c r="L54" s="45">
+        <f t="shared" si="23"/>
+        <v>7.1726051740627177E-3</v>
+      </c>
+      <c r="M54" s="45">
+        <f t="shared" si="24"/>
+        <v>2.8192317035539123E-3</v>
+      </c>
+      <c r="N54" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O54" s="42">
+        <f>[1]!s_stm07_cs(A54,"W95763514",$A$43,1,100000000)</f>
+        <v>142.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" t="str">
+        <f>[1]!to_tradecode(B55)</f>
+        <v>601818</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="43">
+        <f>[1]!s_stmnote_bank(A55,"31",$A$43,100000000)</f>
+        <v>18681.919999999998</v>
+      </c>
+      <c r="D55" s="43">
+        <f>[1]!s_stmnote_bank(A55,"34",$A$43,100000000)</f>
+        <v>651.95000000000005</v>
+      </c>
+      <c r="E55" s="43">
+        <f>[1]!s_stmnote_bank(A55,"37",$A$43,100000000)</f>
+        <v>111.15</v>
+      </c>
+      <c r="F55" s="43">
+        <f>[1]!s_stmnote_bank(A55,"40",$A$43,100000000)</f>
+        <v>148.63999999999999</v>
+      </c>
+      <c r="G55" s="43">
+        <f>[1]!s_stmnote_bank(A55,"43",$A$43,100000000)</f>
+        <v>50.82</v>
+      </c>
+      <c r="H55" s="43">
+        <f>[1]!s_stmnote_bank_1n(A55,$A$43,1,100000000)</f>
+        <v>19644.48</v>
+      </c>
+      <c r="I55" s="45">
+        <f t="shared" si="20"/>
+        <v>0.95100099366335977</v>
+      </c>
+      <c r="J55" s="45">
+        <f t="shared" si="21"/>
+        <v>3.318743993223542E-2</v>
+      </c>
+      <c r="K55" s="45">
+        <f t="shared" si="22"/>
+        <v>5.6580779944289698E-3</v>
+      </c>
+      <c r="L55" s="45">
+        <f t="shared" si="23"/>
+        <v>7.5665021420775703E-3</v>
+      </c>
+      <c r="M55" s="45">
+        <f t="shared" si="24"/>
+        <v>2.5869862678981575E-3</v>
+      </c>
+      <c r="N55" s="40">
+        <f t="shared" si="25"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="O55" s="42">
+        <f>[1]!s_stm07_cs(A55,"W95763514",$A$43,1,100000000)</f>
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" t="str">
+        <f>[1]!to_tradecode(B56)</f>
+        <v>600015</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="43">
+        <f>[1]!s_stmnote_bank(A56,"31",$A$43,100000000)</f>
+        <v>12293.8</v>
+      </c>
+      <c r="D56" s="43">
+        <f>[1]!s_stmnote_bank(A56,"34",$A$43,100000000)</f>
+        <v>581.22</v>
+      </c>
+      <c r="E56" s="43">
+        <f>[1]!s_stmnote_bank(A56,"37",$A$43,100000000)</f>
+        <v>91.28</v>
+      </c>
+      <c r="F56" s="43">
+        <f>[1]!s_stmnote_bank(A56,"40",$A$43,100000000)</f>
+        <v>88.25</v>
+      </c>
+      <c r="G56" s="43">
+        <f>[1]!s_stmnote_bank(A56,"43",$A$43,100000000)</f>
+        <v>40.98</v>
+      </c>
+      <c r="H56" s="43">
+        <f>[1]!s_stmnote_bank_1n(A56,$A$43,1,100000000)</f>
+        <v>13095.53</v>
+      </c>
+      <c r="I56" s="45">
+        <f t="shared" si="20"/>
+        <v>0.93877834650449421</v>
+      </c>
+      <c r="J56" s="45">
+        <f t="shared" si="21"/>
+        <v>4.438308338799575E-2</v>
+      </c>
+      <c r="K56" s="45">
+        <f t="shared" si="22"/>
+        <v>6.970317352562286E-3</v>
+      </c>
+      <c r="L56" s="45">
+        <f t="shared" si="23"/>
+        <v>6.7389406919765747E-3</v>
+      </c>
+      <c r="M56" s="45">
+        <f t="shared" si="24"/>
+        <v>3.1293120629711049E-3</v>
+      </c>
+      <c r="N56" s="40">
+        <f t="shared" si="25"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O56" s="42">
+        <f>[1]!s_stm07_cs(A56,"W95763514",$A$43,1,100000000)</f>
+        <v>82.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" t="str">
+        <f>[1]!to_tradecode(B57)</f>
+        <v>000001</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="43">
+        <f>[1]!s_stmnote_bank(A57,"31",$A$43,100000000)</f>
+        <v>15002.35</v>
+      </c>
+      <c r="D57" s="43">
+        <f>[1]!s_stmnote_bank(A57,"34",$A$43,100000000)</f>
+        <v>660.09</v>
+      </c>
+      <c r="E57" s="43">
+        <f>[1]!s_stmnote_bank(A57,"37",$A$43,100000000)</f>
+        <v>137.6</v>
+      </c>
+      <c r="F57" s="43">
+        <f>[1]!s_stmnote_bank(A57,"40",$A$43,100000000)</f>
+        <v>49.77</v>
+      </c>
+      <c r="G57" s="43">
+        <f>[1]!s_stmnote_bank(A57,"43",$A$43,100000000)</f>
+        <v>93</v>
+      </c>
+      <c r="H57" s="43">
+        <f>[1]!s_stmnote_bank_1n(A57,$A$43,1,100000000)</f>
+        <v>15942.81</v>
+      </c>
+      <c r="I57" s="45">
+        <f t="shared" si="20"/>
+        <v>0.94101039904508688</v>
+      </c>
+      <c r="J57" s="45">
+        <f t="shared" si="21"/>
+        <v>4.1403617053706342E-2</v>
+      </c>
+      <c r="K57" s="45">
+        <f t="shared" si="22"/>
+        <v>8.6308498940901885E-3</v>
+      </c>
+      <c r="L57" s="45">
+        <f t="shared" si="23"/>
+        <v>3.1217834246284066E-3</v>
+      </c>
+      <c r="M57" s="45">
+        <f t="shared" si="24"/>
+        <v>5.8333505824882817E-3</v>
+      </c>
+      <c r="N57" s="40">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O57" s="42">
+        <f>[1]!s_stm07_cs(A57,"W95763514",$A$43,1,100000000)</f>
+        <v>237.16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" t="str">
+        <f>[1]!to_tradecode(B58)</f>
+        <v>601169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="43">
+        <f>[1]!s_stmnote_bank(A58,"31",$A$43,100000000)</f>
+        <v>9805.0815999999995</v>
+      </c>
+      <c r="D58" s="43">
+        <f>[1]!s_stmnote_bank(A58,"34",$A$43,100000000)</f>
+        <v>117.7701</v>
+      </c>
+      <c r="E58" s="43">
+        <f>[1]!s_stmnote_bank(A58,"37",$A$43,100000000)</f>
+        <v>93.376300000000001</v>
+      </c>
+      <c r="F58" s="43">
+        <f>[1]!s_stmnote_bank(A58,"40",$A$43,100000000)</f>
+        <v>5.6585999999999999</v>
+      </c>
+      <c r="G58" s="43">
+        <f>[1]!s_stmnote_bank(A58,"43",$A$43,100000000)</f>
+        <v>19.6464</v>
+      </c>
+      <c r="H58" s="43">
+        <v>10041.532999999999</v>
+      </c>
+      <c r="I58" s="45">
+        <f t="shared" si="20"/>
+        <v>0.97645265917066648</v>
+      </c>
+      <c r="J58" s="45">
+        <f t="shared" si="21"/>
+        <v>1.172829885635988E-2</v>
+      </c>
+      <c r="K58" s="45">
+        <f t="shared" si="22"/>
+        <v>9.2990084282947635E-3</v>
+      </c>
+      <c r="L58" s="45">
+        <f t="shared" si="23"/>
+        <v>5.6351953431811662E-4</v>
+      </c>
+      <c r="M58" s="45">
+        <f t="shared" si="24"/>
+        <v>1.9565140103607686E-3</v>
+      </c>
+      <c r="N58" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O58" s="42">
+        <f>[1]!s_stm07_cs(A58,"W95763514",$A$43,1,100000000)</f>
+        <v>66.53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" t="str">
+        <f>[1]!to_tradecode(B59)</f>
+        <v>601009</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="43">
+        <f>[1]!s_stmnote_bank(A59,"31",$A$43,100000000)</f>
+        <v>3586.1287200000002</v>
+      </c>
+      <c r="D59" s="43">
+        <f>[1]!s_stmnote_bank(A59,"34",$A$43,100000000)</f>
+        <v>67.222840000000005</v>
+      </c>
+      <c r="E59" s="43">
+        <f>[1]!s_stmnote_bank(A59,"37",$A$43,100000000)</f>
+        <v>21.713480000000001</v>
+      </c>
+      <c r="F59" s="43">
+        <f>[1]!s_stmnote_bank(A59,"40",$A$43,100000000)</f>
+        <v>7.54765</v>
+      </c>
+      <c r="G59" s="43">
+        <f>[1]!s_stmnote_bank(A59,"43",$A$43,100000000)</f>
+        <v>2.6046</v>
+      </c>
+      <c r="H59" s="43">
+        <f>[1]!s_stmnote_bank_1n(A59,$A$43,1,100000000)</f>
+        <v>3685.21729</v>
+      </c>
+      <c r="I59" s="45">
+        <f t="shared" si="20"/>
+        <v>0.97311187856713877</v>
+      </c>
+      <c r="J59" s="45">
+        <f t="shared" si="21"/>
+        <v>1.8241214753445381E-2</v>
+      </c>
+      <c r="K59" s="45">
+        <f t="shared" si="22"/>
+        <v>5.8920487698026621E-3</v>
+      </c>
+      <c r="L59" s="45">
+        <f t="shared" si="23"/>
+        <v>2.0480881874946374E-3</v>
+      </c>
+      <c r="M59" s="45">
+        <f t="shared" si="24"/>
+        <v>7.0676972211861078E-4</v>
+      </c>
+      <c r="N59" s="40">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="O59" s="42">
+        <f>[1]!s_stm07_cs(A59,"W95763514",$A$43,1,100000000)</f>
+        <v>25.476379999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60" t="str">
+        <f>[1]!to_tradecode(B60)</f>
+        <v>002142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="43">
+        <f>[1]!s_stmnote_bank(A60,"31",$A$43,100000000)</f>
+        <v>3202.2810100000002</v>
+      </c>
+      <c r="D60" s="43">
+        <f>[1]!s_stmnote_bank(A60,"34",$A$43,100000000)</f>
+        <v>25.14714</v>
+      </c>
+      <c r="E60" s="43">
+        <f>[1]!s_stmnote_bank(A60,"37",$A$43,100000000)</f>
+        <v>17.690429999999999</v>
+      </c>
+      <c r="F60" s="43">
+        <f>[1]!s_stmnote_bank(A60,"40",$A$43,100000000)</f>
+        <v>9.8030799999999996</v>
+      </c>
+      <c r="G60" s="43">
+        <f>[1]!s_stmnote_bank(A60,"43",$A$43,100000000)</f>
+        <v>2.0604200000000001</v>
+      </c>
+      <c r="H60" s="43">
+        <f>[1]!s_stmnote_bank_1n(A60,$A$43,1,100000000)</f>
+        <v>3256.9820800000002</v>
+      </c>
+      <c r="I60" s="45">
+        <f t="shared" si="20"/>
+        <v>0.98320498281648516</v>
+      </c>
+      <c r="J60" s="45">
+        <f t="shared" si="21"/>
+        <v>7.7209942770087329E-3</v>
+      </c>
+      <c r="K60" s="45">
+        <f t="shared" si="22"/>
+        <v>5.4315404768822059E-3</v>
+      </c>
+      <c r="L60" s="45">
+        <f t="shared" si="23"/>
+        <v>3.0098661150754625E-3</v>
+      </c>
+      <c r="M60" s="45">
+        <f t="shared" si="24"/>
+        <v>6.3261631454846693E-4</v>
+      </c>
+      <c r="N60" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O60" s="42">
+        <f>[1]!s_stm07_cs(A60,"W95763514",$A$43,1,100000000)</f>
+        <v>27.42343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" t="str">
+        <f>[1]!to_tradecode(B61)</f>
+        <v>601229</v>
+      </c>
+      <c r="B61" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="C61" s="43">
+        <f>[1]!s_stmnote_bank(A61,"31",$A$43,100000000)</f>
+        <v>5811.7031699999998</v>
+      </c>
+      <c r="D61" s="43">
+        <f>[1]!s_stmnote_bank(A61,"34",$A$43,100000000)</f>
+        <v>127.54994000000001</v>
+      </c>
+      <c r="E61" s="43">
+        <f>[1]!s_stmnote_bank(A61,"37",$A$43,100000000)</f>
+        <v>22.93852</v>
+      </c>
+      <c r="F61" s="43">
+        <f>[1]!s_stmnote_bank(A61,"40",$A$43,100000000)</f>
+        <v>35.032730000000001</v>
+      </c>
+      <c r="G61" s="43">
+        <f>[1]!s_stmnote_bank(A61,"43",$A$43,100000000)</f>
+        <v>11.854799999999999</v>
+      </c>
+      <c r="H61" s="43">
+        <f>[1]!s_stmnote_bank_1n(A61,$A$43,1,100000000)</f>
+        <v>6009.0791600000002</v>
+      </c>
+      <c r="I61" s="45">
+        <f t="shared" si="20"/>
+        <v>0.96715370446209925</v>
+      </c>
+      <c r="J61" s="45">
+        <f t="shared" si="21"/>
+        <v>2.1226203982974323E-2</v>
+      </c>
+      <c r="K61" s="45">
+        <f t="shared" si="22"/>
+        <v>3.8173103381117716E-3</v>
+      </c>
+      <c r="L61" s="45">
+        <f t="shared" si="23"/>
+        <v>5.8299664669419996E-3</v>
+      </c>
+      <c r="M61" s="45">
+        <f t="shared" si="24"/>
+        <v>1.9728147498725909E-3</v>
+      </c>
+      <c r="N61" s="40">
+        <f t="shared" si="25"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O61" s="42">
+        <f>[1]!s_stm07_cs(A61,"W95763514",$A$43,1,100000000)</f>
+        <v>34.431939999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" t="str">
+        <f>[1]!to_tradecode(B62)</f>
+        <v>601997</v>
+      </c>
+      <c r="B62" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="C62" s="43">
+        <f>[1]!s_stmnote_bank(A62,"31",$A$43,100000000)</f>
+        <v>1040.7348500000001</v>
+      </c>
+      <c r="D62" s="43">
+        <f>[1]!s_stmnote_bank(A62,"34",$A$43,100000000)</f>
+        <v>39.996290000000002</v>
+      </c>
+      <c r="E62" s="43">
+        <f>[1]!s_stmnote_bank(A62,"37",$A$43,100000000)</f>
+        <v>7.5041200000000003</v>
+      </c>
+      <c r="F62" s="43">
+        <f>[1]!s_stmnote_bank(A62,"40",$A$43,100000000)</f>
+        <v>4.91737</v>
+      </c>
+      <c r="G62" s="43">
+        <f>[1]!s_stmnote_bank(A62,"43",$A$43,100000000)</f>
+        <v>3.5967500000000001</v>
+      </c>
+      <c r="H62" s="43">
+        <f>[1]!s_stmnote_bank_1n(A62,$A$43,1,100000000)</f>
+        <v>1096.74937</v>
+      </c>
+      <c r="I62" s="45">
+        <f t="shared" si="20"/>
+        <v>0.94892678169489175</v>
+      </c>
+      <c r="J62" s="45">
+        <f t="shared" si="21"/>
+        <v>3.6468030977761128E-2</v>
+      </c>
+      <c r="K62" s="45">
+        <f t="shared" si="22"/>
+        <v>6.8421466246203549E-3</v>
+      </c>
+      <c r="L62" s="45">
+        <f t="shared" si="23"/>
+        <v>4.4835858898191116E-3</v>
+      </c>
+      <c r="M62" s="45">
+        <f t="shared" si="24"/>
+        <v>3.2794639307611364E-3</v>
+      </c>
+      <c r="N62" s="40">
+        <f t="shared" si="25"/>
+        <v>1.0000000091178534</v>
+      </c>
+      <c r="O62" s="42">
+        <f>[1]!s_stm07_cs(A62,"W95763514",$A$43,1,100000000)</f>
+        <v>19.298410000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" t="str">
+        <f>[1]!to_tradecode(B63)</f>
+        <v>600926</v>
+      </c>
+      <c r="B63" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="C63" s="43">
+        <f>[1]!s_stmnote_bank(A63,"31",$A$43,100000000)</f>
+        <v>2588.3849100000002</v>
+      </c>
+      <c r="D63" s="43">
+        <f>[1]!s_stmnote_bank(A63,"34",$A$43,100000000)</f>
+        <v>98.72</v>
+      </c>
+      <c r="E63" s="43">
+        <f>[1]!s_stmnote_bank(A63,"37",$A$43,100000000)</f>
+        <v>20.028590000000001</v>
+      </c>
+      <c r="F63" s="43">
+        <f>[1]!s_stmnote_bank(A63,"40",$A$43,100000000)</f>
+        <v>3.8999899999999998</v>
+      </c>
+      <c r="G63" s="43">
+        <f>[1]!s_stmnote_bank(A63,"43",$A$43,100000000)</f>
+        <v>20.081520000000001</v>
+      </c>
+      <c r="H63" s="43">
+        <f>[1]!s_stmnote_bank_1n(A63,$A$43,1,100000000)</f>
+        <v>2731.11501</v>
+      </c>
+      <c r="I63" s="45">
+        <f t="shared" si="20"/>
+        <v>0.94773925686857119</v>
+      </c>
+      <c r="J63" s="45">
+        <f t="shared" si="21"/>
+        <v>3.6146408935008562E-2</v>
+      </c>
+      <c r="K63" s="45">
+        <f t="shared" si="22"/>
+        <v>7.333484648821143E-3</v>
+      </c>
+      <c r="L63" s="45">
+        <f t="shared" si="23"/>
+        <v>1.4279845358837525E-3</v>
+      </c>
+      <c r="M63" s="45">
+        <f t="shared" si="24"/>
+        <v>7.3528650117154907E-3</v>
+      </c>
+      <c r="N63" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="42">
+        <f>[1]!s_stm07_cs(A63,"W95763514",$A$43,1,100000000)</f>
+        <v>15.796060000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" t="str">
+        <f>[1]!to_tradecode(B64)</f>
+        <v>600919</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="43">
+        <f>[1]!s_stmnote_bank(A64,"31",$A$43,100000000)</f>
+        <v>6702.3899099999999</v>
+      </c>
+      <c r="D64" s="43">
+        <f>[1]!s_stmnote_bank(A64,"34",$A$43,100000000)</f>
+        <v>207.65314000000001</v>
+      </c>
+      <c r="E64" s="43">
+        <f>[1]!s_stmnote_bank(A64,"37",$A$43,100000000)</f>
+        <v>52.106589999999997</v>
+      </c>
+      <c r="F64" s="43">
+        <f>[1]!s_stmnote_bank(A64,"40",$A$43,100000000)</f>
+        <v>34.686799999999998</v>
+      </c>
+      <c r="G64" s="43">
+        <f>[1]!s_stmnote_bank(A64,"43",$A$43,100000000)</f>
+        <v>13.780010000000001</v>
+      </c>
+      <c r="H64" s="43">
+        <f>[1]!s_stmnote_bank_1n(A64,$A$43,1,100000000)</f>
+        <v>7010.6164500000004</v>
+      </c>
+      <c r="I64" s="45">
+        <f t="shared" si="20"/>
+        <v>0.95603431706779496</v>
+      </c>
+      <c r="J64" s="45">
+        <f t="shared" si="21"/>
+        <v>2.9619811821255747E-2</v>
+      </c>
+      <c r="K64" s="45">
+        <f t="shared" si="22"/>
+        <v>7.4325261368420742E-3</v>
+      </c>
+      <c r="L64" s="45">
+        <f t="shared" si="23"/>
+        <v>4.9477532036430261E-3</v>
+      </c>
+      <c r="M64" s="45">
+        <f t="shared" si="24"/>
+        <v>1.9655917704640654E-3</v>
+      </c>
+      <c r="N64" s="40">
+        <f t="shared" si="25"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O64" s="42">
+        <f>[1]!s_stm07_cs(A64,"W95763514",$A$43,1,100000000)</f>
+        <v>54.173029999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" t="str">
+        <f>[1]!to_tradecode(B65)</f>
+        <v>600908</v>
+      </c>
+      <c r="B65" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="C65" s="43">
+        <f>[1]!s_stmnote_bank(A65,"31",$A$43,100000000)</f>
+        <v>618.77553999999998</v>
+      </c>
+      <c r="D65" s="43">
+        <f>[1]!s_stmnote_bank(A65,"34",$A$43,100000000)</f>
+        <v>9.5557599999999994</v>
+      </c>
+      <c r="E65" s="43">
+        <f>[1]!s_stmnote_bank(A65,"37",$A$43,100000000)</f>
+        <v>6.9572700000000003</v>
+      </c>
+      <c r="F65" s="43">
+        <f>[1]!s_stmnote_bank(A65,"40",$A$43,100000000)</f>
+        <v>1.30874</v>
+      </c>
+      <c r="G65" s="43">
+        <f>[1]!s_stmnote_bank(A65,"43",$A$43,100000000)</f>
+        <v>0.10197000000000001</v>
+      </c>
+      <c r="H65" s="43">
+        <f>[1]!s_stmnote_bank_1n(A65,$A$43,1,100000000)</f>
+        <v>636.69928000000004</v>
+      </c>
+      <c r="I65" s="45">
+        <f t="shared" si="20"/>
+        <v>0.971848970835965</v>
+      </c>
+      <c r="J65" s="45">
+        <f t="shared" si="21"/>
+        <v>1.5008278319397501E-2</v>
+      </c>
+      <c r="K65" s="45">
+        <f t="shared" si="22"/>
+        <v>1.092708947307118E-2</v>
+      </c>
+      <c r="L65" s="45">
+        <f t="shared" si="23"/>
+        <v>2.0555072718159819E-3</v>
+      </c>
+      <c r="M65" s="45">
+        <f t="shared" si="24"/>
+        <v>1.6015409975019917E-4</v>
+      </c>
+      <c r="N65" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="42">
+        <f>[1]!s_stm07_cs(A65,"W95763514",$A$43,1,100000000)</f>
+        <v>3.19502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" t="str">
+        <f>[1]!to_tradecode(B66)</f>
+        <v>601128</v>
+      </c>
+      <c r="B66" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="C66" s="43">
+        <f>[1]!s_stmnote_bank(A66,"31",$A$43,100000000)</f>
+        <v>685.68228999999997</v>
+      </c>
+      <c r="D66" s="43">
+        <f>[1]!s_stmnote_bank(A66,"34",$A$43,100000000)</f>
+        <v>22.512519999999999</v>
+      </c>
+      <c r="E66" s="43">
+        <f>[1]!s_stmnote_bank(A66,"37",$A$43,100000000)</f>
+        <v>9.02318</v>
+      </c>
+      <c r="F66" s="43">
+        <f>[1]!s_stmnote_bank(A66,"40",$A$43,100000000)</f>
+        <v>0.19458</v>
+      </c>
+      <c r="G66" s="43">
+        <f>[1]!s_stmnote_bank(A66,"43",$A$43,100000000)</f>
+        <v>5.4859999999999999E-2</v>
+      </c>
+      <c r="H66" s="43">
+        <f>[1]!s_stmnote_bank_1n(A66,$A$43,1,100000000)</f>
+        <v>717.46743000000004</v>
+      </c>
+      <c r="I66" s="45">
+        <f t="shared" si="20"/>
+        <v>0.95569814228361549</v>
+      </c>
+      <c r="J66" s="45">
+        <f t="shared" si="21"/>
+        <v>3.1377758848230922E-2</v>
+      </c>
+      <c r="K66" s="45">
+        <f t="shared" si="22"/>
+        <v>1.2576431518292056E-2</v>
+      </c>
+      <c r="L66" s="45">
+        <f t="shared" si="23"/>
+        <v>2.7120394858899725E-4</v>
+      </c>
+      <c r="M66" s="45">
+        <f t="shared" si="24"/>
+        <v>7.6463401272445206E-5</v>
+      </c>
+      <c r="N66" s="40">
+        <f t="shared" si="25"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O66" s="42">
+        <f>[1]!s_stm07_cs(A66,"W95763514",$A$43,1,100000000)</f>
+        <v>7.3852799999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A67" t="str">
+        <f>[1]!to_tradecode(B67)</f>
+        <v>002807</v>
+      </c>
+      <c r="B67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+      <c r="C67" s="43">
+        <f>[1]!s_stmnote_bank(A67,"31",$A$43,100000000)</f>
+        <v>517.12267999999995</v>
+      </c>
+      <c r="D67" s="43">
+        <f>[1]!s_stmnote_bank(A67,"34",$A$43,100000000)</f>
+        <v>10.763260000000001</v>
+      </c>
+      <c r="E67" s="43">
+        <f>[1]!s_stmnote_bank(A67,"37",$A$43,100000000)</f>
+        <v>5.0457700000000001</v>
+      </c>
+      <c r="F67" s="43">
+        <f>[1]!s_stmnote_bank(A67,"40",$A$43,100000000)</f>
+        <v>6.7613799999999999</v>
+      </c>
+      <c r="G67" s="43">
+        <f>[1]!s_stmnote_bank(A67,"43",$A$43,100000000)</f>
+        <v>1.4669700000000001</v>
+      </c>
+      <c r="H67" s="43">
+        <f>[1]!s_stmnote_bank_1n(A67,$A$43,1,100000000)</f>
+        <v>541.16006000000004</v>
+      </c>
+      <c r="I67" s="45">
+        <f t="shared" si="20"/>
+        <v>0.95558175523892119</v>
+      </c>
+      <c r="J67" s="45">
+        <f t="shared" si="21"/>
+        <v>1.9889235728150375E-2</v>
+      </c>
+      <c r="K67" s="45">
+        <f t="shared" si="22"/>
+        <v>9.323988174589232E-3</v>
+      </c>
+      <c r="L67" s="45">
+        <f t="shared" si="23"/>
+        <v>1.2494233221867851E-2</v>
+      </c>
+      <c r="M67" s="45">
+        <f t="shared" si="24"/>
+        <v>2.7107876364711762E-3</v>
+      </c>
+      <c r="N67" s="40">
+        <f t="shared" si="25"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="O67" s="42">
+        <f>[1]!s_stm07_cs(A67,"W95763514",$A$43,1,100000000)</f>
+        <v>4.0594200000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A68" t="str">
+        <f>[1]!to_tradecode(B68)</f>
+        <v>603323</v>
+      </c>
+      <c r="B68" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="C68" s="43">
+        <f>[1]!s_stmnote_bank(A68,"31",$A$43,100000000)</f>
+        <v>409.86730999999997</v>
+      </c>
+      <c r="D68" s="43">
+        <f>[1]!s_stmnote_bank(A68,"34",$A$43,100000000)</f>
+        <v>57.653190000000002</v>
+      </c>
+      <c r="E68" s="43">
+        <f>[1]!s_stmnote_bank(A68,"37",$A$43,100000000)</f>
+        <v>6.22966</v>
+      </c>
+      <c r="F68" s="43">
+        <f>[1]!s_stmnote_bank(A68,"40",$A$43,100000000)</f>
+        <v>1.1354299999999999</v>
+      </c>
+      <c r="G68" s="43">
+        <f>[1]!s_stmnote_bank(A68,"43",$A$43,100000000)</f>
+        <v>0.77741000000000005</v>
+      </c>
+      <c r="H68" s="43">
+        <f>[1]!s_stmnote_bank_1n(A68,$A$43,1,100000000)</f>
+        <v>475.66300000000001</v>
+      </c>
+      <c r="I68" s="45">
+        <f t="shared" si="20"/>
+        <v>0.8616758293161334</v>
+      </c>
+      <c r="J68" s="45">
+        <f t="shared" si="21"/>
+        <v>0.12120595884060774</v>
+      </c>
+      <c r="K68" s="45">
+        <f t="shared" si="22"/>
+        <v>1.3096793317958303E-2</v>
+      </c>
+      <c r="L68" s="45">
+        <f t="shared" si="23"/>
+        <v>2.387047132108236E-3</v>
+      </c>
+      <c r="M68" s="45">
+        <f t="shared" si="24"/>
+        <v>1.6343713931922391E-3</v>
+      </c>
+      <c r="N68" s="40">
+        <f t="shared" si="25"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O68" s="42">
+        <f>[1]!s_stm07_cs(A68,"W95763514",$A$43,1,100000000)</f>
+        <v>4.2630999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A69" t="str">
+        <f>[1]!to_tradecode(B69)</f>
+        <v>002839</v>
+      </c>
+      <c r="B69" t="s">
         <v>116</v>
       </c>
+      <c r="C69" s="43">
+        <f>[1]!s_stmnote_bank(A69,"31",$A$43,100000000)</f>
+        <v>432.94372017239999</v>
+      </c>
+      <c r="D69" s="43">
+        <f>[1]!s_stmnote_bank(A69,"34",$A$43,100000000)</f>
+        <v>32.681458633200002</v>
+      </c>
+      <c r="E69" s="43">
+        <f>[1]!s_stmnote_bank(A69,"37",$A$43,100000000)</f>
+        <v>6.9045525099000002</v>
+      </c>
+      <c r="F69" s="43">
+        <f>[1]!s_stmnote_bank(A69,"40",$A$43,100000000)</f>
+        <v>2.1178688054000001</v>
+      </c>
+      <c r="G69" s="43">
+        <f>[1]!s_stmnote_bank(A69,"43",$A$43,100000000)</f>
+        <v>0.33062362750000002</v>
+      </c>
+      <c r="H69" s="43">
+        <f>[1]!s_stmnote_bank_1n(A69,$A$43,1,100000000)</f>
+        <v>474.97822374839996</v>
+      </c>
+      <c r="I69" s="45">
+        <f t="shared" si="20"/>
+        <v>0.91150225110474536</v>
+      </c>
+      <c r="J69" s="45">
+        <f t="shared" si="21"/>
+        <v>6.8806225210256478E-2</v>
+      </c>
+      <c r="K69" s="45">
+        <f t="shared" si="22"/>
+        <v>1.4536566445954375E-2</v>
+      </c>
+      <c r="L69" s="45">
+        <f t="shared" si="23"/>
+        <v>4.4588755852559957E-3</v>
+      </c>
+      <c r="M69" s="45">
+        <f t="shared" si="24"/>
+        <v>6.9608165378784643E-4</v>
+      </c>
+      <c r="N69" s="40">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="42">
+        <f>[1]!s_stm07_cs(A69,"W95763514",$A$43,1,100000000)</f>
+        <v>4.2600216346000002</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A33:A37"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/类信贷测算/类信贷测算.xlsx
+++ b/类信贷测算/类信贷测算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据底稿" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="176">
   <si>
     <t>工商银行</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -663,15 +663,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>资产减值损失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>占拨备比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>资产减值准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产减值准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款项减值准备</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +693,10 @@
     <numFmt numFmtId="178" formatCode="#,##0.000"/>
     <numFmt numFmtId="179" formatCode="0.0000000000"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
-    <numFmt numFmtId="188" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="191" formatCode="###,###,##0.00"/>
-    <numFmt numFmtId="193" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="183" formatCode="###,###,##0.00"/>
+    <numFmt numFmtId="184" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -822,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -916,7 +924,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -925,13 +933,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -960,7 +969,6 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <definedNames>
-      <definedName name="s_stm07_cs"/>
       <definedName name="s_stmnote_bank"/>
       <definedName name="s_stmnote_bank_1n"/>
       <definedName name="to_tradecode"/>
@@ -1239,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I27" workbookViewId="0">
+    <sheetView topLeftCell="I13" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -2698,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2713,9 +2721,11 @@
     <col min="14" max="14" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -2726,7 +2736,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -2740,7 +2750,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -2754,7 +2764,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -2768,7 +2778,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -2782,7 +2792,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8" s="38"/>
       <c r="F8" t="s">
         <v>162</v>
@@ -2791,13 +2801,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E11" t="s">
         <v>167</v>
       </c>
@@ -2805,7 +2815,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>121</v>
       </c>
@@ -2852,13 +2862,16 @@
         <v>170</v>
       </c>
       <c r="Q12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" t="s">
+        <v>175</v>
+      </c>
+      <c r="S12" t="s">
         <v>171</v>
       </c>
-      <c r="R12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="46" t="s">
         <v>152</v>
       </c>
@@ -2923,14 +2936,15 @@
       </c>
       <c r="Q13" s="42">
         <f>O45</f>
-        <v>613.42999999999995</v>
-      </c>
-      <c r="R13" s="44">
+        <v>0</v>
+      </c>
+      <c r="R13" s="42"/>
+      <c r="S13" s="44" t="e">
         <f>O13/Q13</f>
-        <v>4.1238827178720341E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="46"/>
       <c r="B14" t="s">
         <v>124</v>
@@ -2993,14 +3007,15 @@
       </c>
       <c r="Q14" s="42">
         <f t="shared" ref="Q14:Q37" si="14">O46</f>
-        <v>605.1</v>
-      </c>
-      <c r="R14" s="44">
-        <f t="shared" ref="R14:R37" si="15">O14/Q14</f>
-        <v>1.3993096730649944E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="42"/>
+      <c r="S14" s="44" t="e">
+        <f t="shared" ref="S14:S37" si="15">O14/Q14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="46"/>
       <c r="B15" t="s">
         <v>125</v>
@@ -3063,14 +3078,15 @@
       </c>
       <c r="Q15" s="42">
         <f t="shared" si="14"/>
-        <v>446.97</v>
-      </c>
-      <c r="R15" s="44">
+        <v>0</v>
+      </c>
+      <c r="R15" s="42"/>
+      <c r="S15" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>1.1115919575516813E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="46"/>
       <c r="B16" t="s">
         <v>126</v>
@@ -3133,14 +3149,15 @@
       </c>
       <c r="Q16" s="42">
         <f t="shared" si="14"/>
-        <v>269.60000000000002</v>
-      </c>
-      <c r="R16" s="44">
+        <v>0</v>
+      </c>
+      <c r="R16" s="42"/>
+      <c r="S16" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>9.5971406471019819E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="46"/>
       <c r="B17" t="s">
         <v>127</v>
@@ -3203,14 +3220,15 @@
       </c>
       <c r="Q17" s="42">
         <f t="shared" si="14"/>
-        <v>149.41999999999999</v>
-      </c>
-      <c r="R17" s="44">
+        <v>0</v>
+      </c>
+      <c r="R17" s="42"/>
+      <c r="S17" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>2.8363048965341416E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="46" t="s">
         <v>150</v>
       </c>
@@ -3275,14 +3293,15 @@
       </c>
       <c r="Q18" s="42">
         <f t="shared" si="14"/>
-        <v>326.48</v>
-      </c>
-      <c r="R18" s="44">
+        <v>0</v>
+      </c>
+      <c r="R18" s="42"/>
+      <c r="S18" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>7.7908585398389754E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="46"/>
       <c r="B19" t="s">
         <v>129</v>
@@ -3345,14 +3364,15 @@
       </c>
       <c r="Q19" s="42">
         <f t="shared" si="14"/>
-        <v>244.14</v>
-      </c>
-      <c r="R19" s="44">
+        <v>0</v>
+      </c>
+      <c r="R19" s="42"/>
+      <c r="S19" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.15690353001900995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="46"/>
       <c r="B20" t="s">
         <v>130</v>
@@ -3415,14 +3435,15 @@
       </c>
       <c r="Q20" s="42">
         <f t="shared" si="14"/>
-        <v>271.7</v>
-      </c>
-      <c r="R20" s="44">
+        <v>0</v>
+      </c>
+      <c r="R20" s="42"/>
+      <c r="S20" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.11474316798024288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="46"/>
       <c r="B21" t="s">
         <v>131</v>
@@ -3485,14 +3506,15 @@
       </c>
       <c r="Q21" s="42">
         <f t="shared" si="14"/>
-        <v>171.39</v>
-      </c>
-      <c r="R21" s="44">
+        <v>0</v>
+      </c>
+      <c r="R21" s="42"/>
+      <c r="S21" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.24485085381442129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="46"/>
       <c r="B22" t="s">
         <v>132</v>
@@ -3555,14 +3577,15 @@
       </c>
       <c r="Q22" s="42">
         <f t="shared" si="14"/>
-        <v>142.53</v>
-      </c>
-      <c r="R22" s="44">
+        <v>0</v>
+      </c>
+      <c r="R22" s="42"/>
+      <c r="S22" s="44" t="e">
         <f>O22/Q22</f>
-        <v>0.50917760308872395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" s="46"/>
       <c r="B23" t="s">
         <v>133</v>
@@ -3625,14 +3648,15 @@
       </c>
       <c r="Q23" s="42">
         <f t="shared" si="14"/>
-        <v>100.3</v>
-      </c>
-      <c r="R23" s="44">
+        <v>0</v>
+      </c>
+      <c r="R23" s="42"/>
+      <c r="S23" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.23588579212126426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" s="46"/>
       <c r="B24" t="s">
         <v>134</v>
@@ -3695,14 +3719,15 @@
       </c>
       <c r="Q24" s="42">
         <f t="shared" si="14"/>
-        <v>82.18</v>
-      </c>
-      <c r="R24" s="44">
+        <v>0</v>
+      </c>
+      <c r="R24" s="42"/>
+      <c r="S24" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.11530181656493045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
         <v>135</v>
@@ -3765,14 +3790,15 @@
       </c>
       <c r="Q25" s="42">
         <f t="shared" si="14"/>
-        <v>237.16</v>
-      </c>
-      <c r="R25" s="44">
+        <v>0</v>
+      </c>
+      <c r="R25" s="42"/>
+      <c r="S25" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>8.0378258873080172E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A26" s="46" t="s">
         <v>151</v>
       </c>
@@ -3837,14 +3863,15 @@
       </c>
       <c r="Q26" s="42">
         <f t="shared" si="14"/>
-        <v>66.53</v>
-      </c>
-      <c r="R26" s="44">
+        <v>0</v>
+      </c>
+      <c r="R26" s="42"/>
+      <c r="S26" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.16716048357428864</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
         <v>137</v>
@@ -3907,14 +3934,15 @@
       </c>
       <c r="Q27" s="42">
         <f t="shared" si="14"/>
-        <v>25.476379999999999</v>
-      </c>
-      <c r="R27" s="44">
+        <v>0</v>
+      </c>
+      <c r="R27" s="42"/>
+      <c r="S27" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.28321635906644443</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
         <v>138</v>
@@ -3977,14 +4005,15 @@
       </c>
       <c r="Q28" s="42">
         <f t="shared" si="14"/>
-        <v>27.42343</v>
-      </c>
-      <c r="R28" s="44">
+        <v>0</v>
+      </c>
+      <c r="R28" s="42"/>
+      <c r="S28" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>1.3117185110786999E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
         <v>96</v>
@@ -4047,14 +4076,15 @@
       </c>
       <c r="Q29" s="42">
         <f t="shared" si="14"/>
-        <v>34.431939999999997</v>
-      </c>
-      <c r="R29" s="44">
+        <v>0</v>
+      </c>
+      <c r="R29" s="42"/>
+      <c r="S29" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.12754705976971564</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
         <v>88</v>
@@ -4117,14 +4147,15 @@
       </c>
       <c r="Q30" s="42">
         <f t="shared" si="14"/>
-        <v>19.298410000000001</v>
-      </c>
-      <c r="R30" s="44">
+        <v>0</v>
+      </c>
+      <c r="R30" s="42"/>
+      <c r="S30" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.12140768583130861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A31" s="46"/>
       <c r="B31" t="s">
         <v>89</v>
@@ -4187,14 +4218,15 @@
       </c>
       <c r="Q31" s="42">
         <f t="shared" si="14"/>
-        <v>15.796060000000001</v>
-      </c>
-      <c r="R31" s="44">
+        <v>0</v>
+      </c>
+      <c r="R31" s="42"/>
+      <c r="S31" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0.13808043489253849</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A32" s="46"/>
       <c r="B32" t="s">
         <v>139</v>
@@ -4257,11 +4289,12 @@
       </c>
       <c r="Q32" s="42">
         <f t="shared" si="14"/>
-        <v>54.173029999999997</v>
-      </c>
-      <c r="R32" s="44">
+        <v>0</v>
+      </c>
+      <c r="R32" s="42"/>
+      <c r="S32" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
@@ -4329,11 +4362,12 @@
       </c>
       <c r="Q33" s="42">
         <f t="shared" si="14"/>
-        <v>3.19502</v>
-      </c>
-      <c r="R33" s="44">
+        <v>0</v>
+      </c>
+      <c r="R33" s="42"/>
+      <c r="S33" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>7.4475975559017846E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
@@ -4399,11 +4433,12 @@
       </c>
       <c r="Q34" s="42">
         <f t="shared" si="14"/>
-        <v>7.3852799999999998</v>
-      </c>
-      <c r="R34" s="44">
+        <v>0</v>
+      </c>
+      <c r="R34" s="42"/>
+      <c r="S34" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>5.9336483143020216E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
@@ -4466,11 +4501,12 @@
       </c>
       <c r="Q35" s="42">
         <f t="shared" si="14"/>
-        <v>4.0594200000000003</v>
-      </c>
-      <c r="R35" s="44">
+        <v>0</v>
+      </c>
+      <c r="R35" s="42"/>
+      <c r="S35" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
@@ -4536,11 +4572,12 @@
       </c>
       <c r="Q36" s="42">
         <f t="shared" si="14"/>
-        <v>4.2630999999999997</v>
-      </c>
-      <c r="R36" s="44">
+        <v>0</v>
+      </c>
+      <c r="R36" s="42"/>
+      <c r="S36" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
@@ -4606,11 +4643,17 @@
       </c>
       <c r="Q37" s="42">
         <f t="shared" si="14"/>
-        <v>4.2600216346000002</v>
-      </c>
-      <c r="R37" s="44">
+        <v>0</v>
+      </c>
+      <c r="R37" s="42"/>
+      <c r="S37" s="44" t="e">
         <f t="shared" si="15"/>
-        <v>4.7131977474086428E-2</v>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A42" s="47" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
@@ -4623,16 +4666,7 @@
       <c r="I43" t="s">
         <v>166</v>
       </c>
-      <c r="Q43">
-        <v>5000</v>
-      </c>
-      <c r="R43" s="40">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="S43">
-        <f>R43*Q43</f>
-        <v>75</v>
-      </c>
+      <c r="S43" s="40"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
@@ -4672,15 +4706,9 @@
         <v>162</v>
       </c>
       <c r="O44" t="s">
-        <v>173</v>
-      </c>
-      <c r="T44" s="42">
-        <v>142.53</v>
-      </c>
-      <c r="U44">
-        <f>S43/T44</f>
-        <v>0.52620500947169013</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="U44" s="42"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
@@ -4738,10 +4766,7 @@
         <f>SUM(I45:M45)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O45" s="42">
-        <f>[1]!s_stm07_cs(A45,"W95763514",$A$43,1,100000000)</f>
-        <v>613.42999999999995</v>
-      </c>
+      <c r="O45" s="42"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
@@ -4799,10 +4824,7 @@
         <f t="shared" ref="N46:N69" si="25">SUM(I46:M46)</f>
         <v>1</v>
       </c>
-      <c r="O46" s="42">
-        <f>[1]!s_stm07_cs(A46,"W95763514",$A$43,1,100000000)</f>
-        <v>605.1</v>
-      </c>
+      <c r="O46" s="42"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
@@ -4860,10 +4882,7 @@
         <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O47" s="42">
-        <f>[1]!s_stm07_cs(A47,"W95763514",$A$43,1,100000000)</f>
-        <v>446.97</v>
-      </c>
+      <c r="O47" s="42"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
@@ -4921,10 +4940,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O48" s="42">
-        <f>[1]!s_stm07_cs(A48,"W95763514",$A$43,1,100000000)</f>
-        <v>269.60000000000002</v>
-      </c>
+      <c r="O48" s="42"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
@@ -4982,10 +4998,7 @@
         <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O49" s="42">
-        <f>[1]!s_stm07_cs(A49,"W95763514",$A$43,1,100000000)</f>
-        <v>149.41999999999999</v>
-      </c>
+      <c r="O49" s="42"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
@@ -5043,10 +5056,7 @@
         <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O50" s="42">
-        <f>[1]!s_stm07_cs(A50,"W95763514",$A$43,1,100000000)</f>
-        <v>326.48</v>
-      </c>
+      <c r="O50" s="42"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
@@ -5104,10 +5114,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O51" s="42">
-        <f>[1]!s_stm07_cs(A51,"W95763514",$A$43,1,100000000)</f>
-        <v>244.14</v>
-      </c>
+      <c r="O51" s="42"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
@@ -5165,10 +5172,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O52" s="42">
-        <f>[1]!s_stm07_cs(A52,"W95763514",$A$43,1,100000000)</f>
-        <v>271.7</v>
-      </c>
+      <c r="O52" s="42"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" t="str">
@@ -5226,10 +5230,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O53" s="42">
-        <f>[1]!s_stm07_cs(A53,"W95763514",$A$43,1,100000000)</f>
-        <v>171.39</v>
-      </c>
+      <c r="O53" s="42"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
@@ -5287,10 +5288,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O54" s="42">
-        <f>[1]!s_stm07_cs(A54,"W95763514",$A$43,1,100000000)</f>
-        <v>142.53</v>
-      </c>
+      <c r="O54" s="42"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" t="str">
@@ -5348,10 +5346,7 @@
         <f t="shared" si="25"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="O55" s="42">
-        <f>[1]!s_stm07_cs(A55,"W95763514",$A$43,1,100000000)</f>
-        <v>100.3</v>
-      </c>
+      <c r="O55" s="42"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" t="str">
@@ -5409,10 +5404,7 @@
         <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O56" s="42">
-        <f>[1]!s_stm07_cs(A56,"W95763514",$A$43,1,100000000)</f>
-        <v>82.18</v>
-      </c>
+      <c r="O56" s="42"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" t="str">
@@ -5470,10 +5462,7 @@
         <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O57" s="42">
-        <f>[1]!s_stm07_cs(A57,"W95763514",$A$43,1,100000000)</f>
-        <v>237.16</v>
-      </c>
+      <c r="O57" s="42"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" t="str">
@@ -5530,10 +5519,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O58" s="42">
-        <f>[1]!s_stm07_cs(A58,"W95763514",$A$43,1,100000000)</f>
-        <v>66.53</v>
-      </c>
+      <c r="O58" s="42"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59" t="str">
@@ -5591,10 +5577,7 @@
         <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O59" s="42">
-        <f>[1]!s_stm07_cs(A59,"W95763514",$A$43,1,100000000)</f>
-        <v>25.476379999999999</v>
-      </c>
+      <c r="O59" s="42"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" t="str">
@@ -5652,10 +5635,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O60" s="42">
-        <f>[1]!s_stm07_cs(A60,"W95763514",$A$43,1,100000000)</f>
-        <v>27.42343</v>
-      </c>
+      <c r="O60" s="42"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
@@ -5713,10 +5693,7 @@
         <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O61" s="42">
-        <f>[1]!s_stm07_cs(A61,"W95763514",$A$43,1,100000000)</f>
-        <v>34.431939999999997</v>
-      </c>
+      <c r="O61" s="42"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" t="str">
@@ -5774,10 +5751,7 @@
         <f t="shared" si="25"/>
         <v>1.0000000091178534</v>
       </c>
-      <c r="O62" s="42">
-        <f>[1]!s_stm07_cs(A62,"W95763514",$A$43,1,100000000)</f>
-        <v>19.298410000000001</v>
-      </c>
+      <c r="O62" s="42"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
@@ -5835,10 +5809,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O63" s="42">
-        <f>[1]!s_stm07_cs(A63,"W95763514",$A$43,1,100000000)</f>
-        <v>15.796060000000001</v>
-      </c>
+      <c r="O63" s="42"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" t="str">
@@ -5896,10 +5867,7 @@
         <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O64" s="42">
-        <f>[1]!s_stm07_cs(A64,"W95763514",$A$43,1,100000000)</f>
-        <v>54.173029999999997</v>
-      </c>
+      <c r="O64" s="42"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" t="str">
@@ -5957,10 +5925,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O65" s="42">
-        <f>[1]!s_stm07_cs(A65,"W95763514",$A$43,1,100000000)</f>
-        <v>3.19502</v>
-      </c>
+      <c r="O65" s="42"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" t="str">
@@ -6018,10 +5983,7 @@
         <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O66" s="42">
-        <f>[1]!s_stm07_cs(A66,"W95763514",$A$43,1,100000000)</f>
-        <v>7.3852799999999998</v>
-      </c>
+      <c r="O66" s="42"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" t="str">
@@ -6079,10 +6041,7 @@
         <f t="shared" si="25"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="O67" s="42">
-        <f>[1]!s_stm07_cs(A67,"W95763514",$A$43,1,100000000)</f>
-        <v>4.0594200000000003</v>
-      </c>
+      <c r="O67" s="42"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" t="str">
@@ -6140,10 +6099,7 @@
         <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O68" s="42">
-        <f>[1]!s_stm07_cs(A68,"W95763514",$A$43,1,100000000)</f>
-        <v>4.2630999999999997</v>
-      </c>
+      <c r="O68" s="42"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" t="str">
@@ -6201,10 +6157,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O69" s="42">
-        <f>[1]!s_stm07_cs(A69,"W95763514",$A$43,1,100000000)</f>
-        <v>4.2600216346000002</v>
-      </c>
+      <c r="O69" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/类信贷测算/类信贷测算.xlsx
+++ b/类信贷测算/类信贷测算.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="数据底稿" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="178">
   <si>
     <t>工商银行</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -680,13 +680,21 @@
   </si>
   <si>
     <t>应收款项减值准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款项类减值准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他包括回收金额固定或可确定的金融债券、企业债券、债权投资计划、资产支持计划、专项资产管理计划和理财产品。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
@@ -830,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -937,10 +945,13 @@
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1247,20 +1258,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W66"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.53125" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="15.25" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1308,7 @@
         <v>2787.16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1330,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1346,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +1390,7 @@
         <v>985.19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>150.49</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1444,7 +1455,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>2787.16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1506,7 +1517,7 @@
         <v>4130.84</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1533,7 +1544,12 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1563,10 @@
         <v>99.77</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1562,7 +1581,10 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1570,7 +1592,12 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B23:B26)</f>
         <v>219.76</v>
@@ -1579,7 +1606,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1637,13 +1664,13 @@
         <v>4129.9699999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="T20">
         <f>T18/T19</f>
         <v>0.31419231837484651</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1679,7 +1706,7 @@
       </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
@@ -1710,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
@@ -1760,7 +1787,7 @@
         <v>444.6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>10</v>
       </c>
@@ -1810,7 +1837,7 @@
         <v>3331.29</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>30</v>
       </c>
@@ -1861,7 +1888,7 @@
         <v>328.59</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>31</v>
       </c>
@@ -1913,7 +1940,7 @@
         <v>537.85</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1964,7 +1991,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2009,7 +2036,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2048,7 +2075,7 @@
         <v>4668.07</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2075,7 +2102,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2087,7 +2114,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -2096,7 +2123,7 @@
         <v>5866.7599999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -2104,7 +2131,7 @@
         <v>43.06</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
@@ -2155,7 +2182,7 @@
         <v>1449.6943999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -2185,7 +2212,7 @@
       </c>
       <c r="U40" s="21"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
@@ -2213,7 +2240,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2255,7 +2282,7 @@
       </c>
       <c r="U42" s="22"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>54</v>
       </c>
@@ -2299,7 +2326,7 @@
         <v>83.904269999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>71</v>
       </c>
@@ -2345,7 +2372,7 @@
         <v>9.1248500000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>10</v>
       </c>
@@ -2391,7 +2418,7 @@
         <v>1439.5695499999999</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>11</v>
       </c>
@@ -2424,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -2453,7 +2480,7 @@
         <v>1533.5986699999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2473,7 +2500,7 @@
         <v>67.708160000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -2489,12 +2516,12 @@
         <v>1465.8905099999999</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T50" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>102</v>
       </c>
@@ -2523,7 +2550,7 @@
         <v>63.418611708699999</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
         <v>103</v>
       </c>
@@ -2541,7 +2568,7 @@
       </c>
       <c r="P58" s="24"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
       <c r="B59" s="24">
         <v>2016</v>
@@ -2559,7 +2586,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
         <v>104</v>
       </c>
@@ -2585,7 +2612,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
         <v>105</v>
       </c>
@@ -2610,7 +2637,7 @@
         <v>49.15</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E62" s="27" t="s">
         <v>109</v>
       </c>
@@ -2630,7 +2657,7 @@
         <v>14.102498947400001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E63" s="27" t="s">
         <v>94</v>
       </c>
@@ -2651,7 +2678,7 @@
         <v>0.16611276129999999</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E64" s="27" t="s">
         <v>95</v>
       </c>
@@ -2672,7 +2699,7 @@
         <v>63.418611708699999</v>
       </c>
     </row>
-    <row r="65" spans="8:16" x14ac:dyDescent="0.4">
+    <row r="65" spans="8:16" x14ac:dyDescent="0.2">
       <c r="H65" s="24" t="s">
         <v>95</v>
       </c>
@@ -2687,7 +2714,7 @@
         <v>0.94874999999999998</v>
       </c>
     </row>
-    <row r="66" spans="8:16" x14ac:dyDescent="0.4">
+    <row r="66" spans="8:16" x14ac:dyDescent="0.2">
       <c r="O66" s="24" t="s">
         <v>95</v>
       </c>
@@ -2697,6 +2724,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:C15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2706,26 +2736,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -2736,7 +2766,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -2750,7 +2780,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -2764,7 +2794,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -2778,7 +2808,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -2792,7 +2822,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="F8" t="s">
         <v>162</v>
@@ -2801,13 +2831,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>167</v>
       </c>
@@ -2815,7 +2845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>121</v>
       </c>
@@ -2871,8 +2901,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
         <v>152</v>
       </c>
       <c r="B13" t="s">
@@ -2944,8 +2974,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
       <c r="B14" t="s">
         <v>124</v>
       </c>
@@ -3006,17 +3036,17 @@
         <v>1.6934445663432562</v>
       </c>
       <c r="Q14" s="42">
-        <f t="shared" ref="Q14:Q37" si="14">O46</f>
-        <v>0</v>
+        <f>P46</f>
+        <v>17.059999999999999</v>
       </c>
       <c r="R14" s="42"/>
-      <c r="S14" s="44" t="e">
-        <f t="shared" ref="S14:S37" si="15">O14/Q14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="46"/>
+      <c r="S14" s="44">
+        <f t="shared" ref="S14:S37" si="14">O14/Q14</f>
+        <v>4.9632021287903179E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
       <c r="B15" t="s">
         <v>125</v>
       </c>
@@ -3077,17 +3107,17 @@
         <v>9.936965145337501</v>
       </c>
       <c r="Q15" s="42">
+        <f t="shared" ref="Q14:Q37" si="15">O47</f>
+        <v>4347.78</v>
+      </c>
+      <c r="R15" s="42"/>
+      <c r="S15" s="44">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="42"/>
-      <c r="S15" s="44" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
+        <v>1.1427631050027257E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
       <c r="B16" t="s">
         <v>126</v>
       </c>
@@ -3148,17 +3178,17 @@
         <v>5.1747782369173887</v>
       </c>
       <c r="Q16" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R16" s="42"/>
       <c r="S16" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
       <c r="B17" t="s">
         <v>127</v>
       </c>
@@ -3219,17 +3249,17 @@
         <v>8.4760135528026286</v>
       </c>
       <c r="Q17" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R17" s="42"/>
       <c r="S17" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
         <v>150</v>
       </c>
       <c r="B18" t="s">
@@ -3292,17 +3322,17 @@
         <v>50.871189921732579</v>
       </c>
       <c r="Q18" s="42">
+        <f t="shared" si="15"/>
+        <v>1452.02</v>
+      </c>
+      <c r="R18" s="42"/>
+      <c r="S18" s="44">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="44" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A19" s="46"/>
+        <v>1.751738609720685E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
       <c r="B19" t="s">
         <v>129</v>
       </c>
@@ -3363,17 +3393,17 @@
         <v>76.612855637682173</v>
       </c>
       <c r="Q19" s="42">
+        <f t="shared" si="15"/>
+        <v>873.12</v>
+      </c>
+      <c r="R19" s="42"/>
+      <c r="S19" s="44">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="42"/>
-      <c r="S19" s="44" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A20" s="46"/>
+        <v>4.387303900820172E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
       <c r="B20" t="s">
         <v>130</v>
       </c>
@@ -3434,17 +3464,17 @@
         <v>62.351437480463979</v>
       </c>
       <c r="Q20" s="42">
+        <f t="shared" si="15"/>
+        <v>1084</v>
+      </c>
+      <c r="R20" s="42"/>
+      <c r="S20" s="44">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="42"/>
-      <c r="S20" s="44" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A21" s="46"/>
+        <v>2.8759888136745376E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
       <c r="B21" t="s">
         <v>131</v>
       </c>
@@ -3505,17 +3535,17 @@
         <v>83.929975670507318</v>
       </c>
       <c r="Q21" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R21" s="42"/>
       <c r="S21" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
       <c r="B22" t="s">
         <v>132</v>
       </c>
@@ -3576,7 +3606,7 @@
         <v>145.14616753647164</v>
       </c>
       <c r="Q22" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R22" s="42"/>
@@ -3585,8 +3615,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
       <c r="B23" t="s">
         <v>133</v>
       </c>
@@ -3647,17 +3677,17 @@
         <v>47.318689899525609</v>
       </c>
       <c r="Q23" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R23" s="42"/>
       <c r="S23" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A24" s="46"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
       <c r="B24" t="s">
         <v>134</v>
       </c>
@@ -3718,17 +3748,17 @@
         <v>18.95100657061197</v>
       </c>
       <c r="Q24" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R24" s="42"/>
       <c r="S24" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
       <c r="B25" t="s">
         <v>135</v>
       </c>
@@ -3789,17 +3819,17 @@
         <v>38.125015748679388</v>
       </c>
       <c r="Q25" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R25" s="42"/>
       <c r="S25" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
         <v>151</v>
       </c>
       <c r="B26" t="s">
@@ -3862,17 +3892,17 @@
         <v>22.242373944394846</v>
       </c>
       <c r="Q26" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R26" s="42"/>
       <c r="S26" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A27" s="46"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -3933,17 +3963,17 @@
         <v>14.430655171586366</v>
       </c>
       <c r="Q27" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R27" s="42"/>
       <c r="S27" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A28" s="46"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -4004,17 +4034,17 @@
         <v>7.1943641536541909E-3</v>
       </c>
       <c r="Q28" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R28" s="42"/>
       <c r="S28" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A29" s="46"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
       <c r="B29" t="s">
         <v>96</v>
       </c>
@@ -4075,17 +4105,17 @@
         <v>8.7833854183345252</v>
       </c>
       <c r="Q29" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R29" s="42"/>
       <c r="S29" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -4146,17 +4176,17 @@
         <v>4.6859505966475687</v>
       </c>
       <c r="Q30" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R30" s="42"/>
       <c r="S30" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A31" s="46"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
       <c r="B31" t="s">
         <v>89</v>
       </c>
@@ -4217,17 +4247,17 @@
         <v>4.3622536687772628</v>
       </c>
       <c r="Q31" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R31" s="42"/>
       <c r="S31" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A32" s="46"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -4288,17 +4318,17 @@
         <v>0</v>
       </c>
       <c r="Q32" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R32" s="42"/>
       <c r="S32" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
         <v>153</v>
       </c>
       <c r="B33" t="s">
@@ -4361,17 +4391,17 @@
         <v>0.4759044628611464</v>
       </c>
       <c r="Q33" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R33" s="42"/>
       <c r="S33" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="46"/>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="47"/>
       <c r="B34" t="s">
         <v>110</v>
       </c>
@@ -4432,17 +4462,17 @@
         <v>0.87643308445296864</v>
       </c>
       <c r="Q34" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R34" s="42"/>
       <c r="S34" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="46"/>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
       <c r="B35" t="s">
         <v>102</v>
       </c>
@@ -4500,17 +4530,17 @@
         <v>0</v>
       </c>
       <c r="Q35" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R35" s="42"/>
       <c r="S35" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="46"/>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="47"/>
       <c r="B36" t="s">
         <v>115</v>
       </c>
@@ -4571,17 +4601,17 @@
         <v>0</v>
       </c>
       <c r="Q36" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R36" s="42"/>
       <c r="S36" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="46"/>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="47"/>
       <c r="B37" t="s">
         <v>116</v>
       </c>
@@ -4642,21 +4672,21 @@
         <v>0.4015664874421761</v>
       </c>
       <c r="Q37" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R37" s="42"/>
       <c r="S37" s="44" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="47" t="s">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="41">
         <v>42916</v>
       </c>
@@ -4668,7 +4698,7 @@
       </c>
       <c r="S43" s="40"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>155</v>
       </c>
@@ -4708,9 +4738,12 @@
       <c r="O44" t="s">
         <v>172</v>
       </c>
+      <c r="P44" t="s">
+        <v>176</v>
+      </c>
       <c r="U44" s="42"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>[1]!to_tradecode(B45)</f>
         <v>601398</v>
@@ -4768,7 +4801,7 @@
       </c>
       <c r="O45" s="42"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>[1]!to_tradecode(B46)</f>
         <v>601939</v>
@@ -4824,9 +4857,14 @@
         <f t="shared" ref="N46:N69" si="25">SUM(I46:M46)</f>
         <v>1</v>
       </c>
-      <c r="O46" s="42"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="O46">
+        <v>3172.48</v>
+      </c>
+      <c r="P46" s="42">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>[1]!to_tradecode(B47)</f>
         <v>601288</v>
@@ -4882,9 +4920,14 @@
         <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O47" s="42"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="O47" s="42">
+        <v>4347.78</v>
+      </c>
+      <c r="P47">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>[1]!to_tradecode(B48)</f>
         <v>601988</v>
@@ -4941,8 +4984,11 @@
         <v>1</v>
       </c>
       <c r="O48" s="42"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P48">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>[1]!to_tradecode(B49)</f>
         <v>601328</v>
@@ -4999,8 +5045,11 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="O49" s="42"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P49">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>[1]!to_tradecode(B50)</f>
         <v>600036</v>
@@ -5056,9 +5105,14 @@
         <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O50" s="42"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O50" s="42">
+        <v>1452.02</v>
+      </c>
+      <c r="P50">
+        <v>43.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>[1]!to_tradecode(B51)</f>
         <v>601998</v>
@@ -5114,9 +5168,14 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O51" s="42"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O51" s="42">
+        <v>873.12</v>
+      </c>
+      <c r="P51">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>[1]!to_tradecode(B52)</f>
         <v>600000</v>
@@ -5172,9 +5231,14 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O52" s="42"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O52" s="43">
+        <v>1084</v>
+      </c>
+      <c r="P52">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>[1]!to_tradecode(B53)</f>
         <v>600016</v>
@@ -5232,7 +5296,7 @@
       </c>
       <c r="O53" s="42"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>[1]!to_tradecode(B54)</f>
         <v>601166</v>
@@ -5290,7 +5354,7 @@
       </c>
       <c r="O54" s="42"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>[1]!to_tradecode(B55)</f>
         <v>601818</v>
@@ -5348,7 +5412,7 @@
       </c>
       <c r="O55" s="42"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f>[1]!to_tradecode(B56)</f>
         <v>600015</v>
@@ -5406,7 +5470,7 @@
       </c>
       <c r="O56" s="42"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f>[1]!to_tradecode(B57)</f>
         <v>000001</v>
@@ -5464,7 +5528,7 @@
       </c>
       <c r="O57" s="42"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>[1]!to_tradecode(B58)</f>
         <v>601169</v>
@@ -5521,7 +5585,7 @@
       </c>
       <c r="O58" s="42"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>[1]!to_tradecode(B59)</f>
         <v>601009</v>
@@ -5579,7 +5643,7 @@
       </c>
       <c r="O59" s="42"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>[1]!to_tradecode(B60)</f>
         <v>002142</v>
@@ -5637,7 +5701,7 @@
       </c>
       <c r="O60" s="42"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>[1]!to_tradecode(B61)</f>
         <v>601229</v>
@@ -5695,7 +5759,7 @@
       </c>
       <c r="O61" s="42"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>[1]!to_tradecode(B62)</f>
         <v>601997</v>
@@ -5753,7 +5817,7 @@
       </c>
       <c r="O62" s="42"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>[1]!to_tradecode(B63)</f>
         <v>600926</v>
@@ -5811,7 +5875,7 @@
       </c>
       <c r="O63" s="42"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f>[1]!to_tradecode(B64)</f>
         <v>600919</v>
@@ -5869,7 +5933,7 @@
       </c>
       <c r="O64" s="42"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f>[1]!to_tradecode(B65)</f>
         <v>600908</v>
@@ -5927,7 +5991,7 @@
       </c>
       <c r="O65" s="42"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>[1]!to_tradecode(B66)</f>
         <v>601128</v>
@@ -5985,7 +6049,7 @@
       </c>
       <c r="O66" s="42"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>[1]!to_tradecode(B67)</f>
         <v>002807</v>
@@ -6043,7 +6107,7 @@
       </c>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>[1]!to_tradecode(B68)</f>
         <v>603323</v>
@@ -6101,7 +6165,7 @@
       </c>
       <c r="O68" s="42"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>[1]!to_tradecode(B69)</f>
         <v>002839</v>
@@ -6168,5 +6232,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/类信贷测算/类信贷测算.xlsx
+++ b/类信贷测算/类信贷测算.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据底稿" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="192">
   <si>
     <t>工商银行</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -486,216 +486,761 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>银行</t>
+    <t>交通银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.应收账款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融机构债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信托及资管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减值准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假设：类信贷占调整后的非标比重</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>类信贷</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分类</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不良贷款拨备计提指导标准</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国有行</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工商银行</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股份行</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>中信银行</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
-    <t>民生银行</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>光大银行</t>
-  </si>
-  <si>
-    <t>华夏银行</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>北京银行</t>
-  </si>
-  <si>
-    <t>南京银行</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>江苏银行</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.应收账款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府债</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融机构债</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>信托及资管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>减值准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>非债券类</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关注</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>城商行</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>假设：类信贷占调整后的非标比重</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>农商行</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>国有行</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可疑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>损失</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类信贷分类总额</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>股份行</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分类计提</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>城商行</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银行</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>国有行</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>农商行</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资产减值准备</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>农商行</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应收款项减值准备</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>五级分类</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假如按照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计提</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>不良贷款拨备计提指导标准</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>关注</t>
-  </si>
-  <si>
-    <t>次级</t>
-  </si>
-  <si>
-    <t>可疑</t>
-  </si>
-  <si>
-    <t>损失</t>
-  </si>
-  <si>
-    <t>正常</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国有行</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单位:亿元</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工商银行</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贷款总额</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建设银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>农业银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交通银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>招商银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中信银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浦发银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民生银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兴业银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光大银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华夏银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平安银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南京银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁波银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贵阳银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杭州银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江苏银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无锡银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常熟银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江阴银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吴江银行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张家港行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据源</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>占比</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿元</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>类信贷分类总额</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占比</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分类计提</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五级分类</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>计提拨备加总</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>年化拨备</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贷款总额</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>占拨备比例</t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>资产减值准备</t>
+    <t>非债券类非标资产</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>资产减值准备</t>
+    <t>类信贷资产总额E</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数据源</t>
+    <t>类信贷类测算计提加总</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>应收款项减值准备</t>
+    <t>应收款项类其他计提（E）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>应收款项类减值准备</t>
+    <t>假设：应收款项类其他项计提比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>其他包括回收金额固定或可确定的金融债券、企业债券、债权投资计划、资产支持计划、专项资产管理计划和理财产品。</t>
+    <t>相对1.5%新增计提（对利润的影响）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现阶段应收款项类计提缺口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对净利润的影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照兴业银行倒推：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
     <numFmt numFmtId="178" formatCode="#,##0.000"/>
@@ -705,8 +1250,9 @@
     <numFmt numFmtId="182" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="183" formatCode="###,###,##0.00"/>
     <numFmt numFmtId="184" formatCode="0.0%"/>
+    <numFmt numFmtId="186" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +1314,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -807,7 +1374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -830,6 +1397,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -838,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -937,20 +1584,83 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="9" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -958,7 +1668,191 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -980,6 +1874,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <definedNames>
+      <definedName name="s_stm07_is"/>
       <definedName name="s_stmnote_bank"/>
       <definedName name="s_stmnote_bank_1n"/>
       <definedName name="to_tradecode"/>
@@ -991,6 +1886,46 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:B7" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A3:B7">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" name="假设：类信贷占调整后的非标比重" dataDxfId="3"/>
+    <tableColumn id="2" name=" " dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="F3:G8" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="F3:G8">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" name="分类" dataDxfId="1"/>
+    <tableColumn id="2" name="不良贷款拨备计提指导标准" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="D3:D6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" dataCellStyle="百分比">
+  <autoFilter ref="D3:D6">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" name="假设：应收款项类其他项计提比例" dataDxfId="6" dataCellStyle="百分比"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1258,20 +2193,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="20" max="20" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.53125" customWidth="1"/>
+    <col min="20" max="20" width="15.19921875" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,14 +2236,14 @@
         <v>1699.77</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="N2" s="16">
         <f>N9</f>
         <v>2787.16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1326,11 +2261,11 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1357,7 +2292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
@@ -1384,13 +2319,13 @@
         <v>100.24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="N6" s="12">
         <v>985.19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +2357,7 @@
         <v>150.49</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1449,13 +2384,13 @@
         <v>361.7</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="N8" s="12">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1483,13 +2418,13 @@
         <v>78.89</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="N9" s="12">
         <v>2787.16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1510,14 +2445,14 @@
         <v>1600</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="N10" s="2">
         <f>SUM(N6:N9)</f>
         <v>4130.84</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1538,18 +2473,13 @@
         <v>4084.5099999999998</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="N11" s="2">
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1563,10 +2493,7 @@
         <v>99.77</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1581,10 +2508,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1592,12 +2516,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B18">
         <f>SUM(B23:B26)</f>
         <v>219.76</v>
@@ -1606,7 +2525,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1664,13 +2583,13 @@
         <v>4129.9699999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="T20">
         <f>T18/T19</f>
         <v>0.31419231837484651</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1706,7 +2625,7 @@
       </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
@@ -1737,7 +2656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +2706,7 @@
         <v>444.6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="17" t="s">
         <v>10</v>
       </c>
@@ -1837,7 +2756,7 @@
         <v>3331.29</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="17" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +2807,7 @@
         <v>328.59</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="17" t="s">
         <v>31</v>
       </c>
@@ -1940,7 +2859,7 @@
         <v>537.85</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +2910,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2036,7 +2955,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2075,7 +2994,7 @@
         <v>4668.07</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2102,7 +3021,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2114,7 +3033,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -2123,7 +3042,7 @@
         <v>5866.7599999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +3050,7 @@
         <v>43.06</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
@@ -2182,7 +3101,7 @@
         <v>1449.6943999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +3131,7 @@
       </c>
       <c r="U40" s="21"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
@@ -2240,7 +3159,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2282,7 +3201,7 @@
       </c>
       <c r="U42" s="22"/>
     </row>
-    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="17" t="s">
         <v>54</v>
       </c>
@@ -2326,7 +3245,7 @@
         <v>83.904269999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
         <v>71</v>
       </c>
@@ -2372,7 +3291,7 @@
         <v>9.1248500000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="17" t="s">
         <v>10</v>
       </c>
@@ -2418,7 +3337,7 @@
         <v>1439.5695499999999</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="17" t="s">
         <v>11</v>
       </c>
@@ -2451,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -2480,7 +3399,7 @@
         <v>1533.5986699999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +3419,7 @@
         <v>67.708160000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -2516,12 +3435,12 @@
         <v>1465.8905099999999</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="T50" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56" s="23" t="s">
         <v>102</v>
       </c>
@@ -2550,7 +3469,7 @@
         <v>63.418611708699999</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58" s="24" t="s">
         <v>103</v>
       </c>
@@ -2568,7 +3487,7 @@
       </c>
       <c r="P58" s="24"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59" s="24"/>
       <c r="B59" s="24">
         <v>2016</v>
@@ -2586,7 +3505,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60" s="24" t="s">
         <v>104</v>
       </c>
@@ -2612,7 +3531,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61" s="24" t="s">
         <v>105</v>
       </c>
@@ -2637,7 +3556,7 @@
         <v>49.15</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="E62" s="27" t="s">
         <v>109</v>
       </c>
@@ -2657,7 +3576,7 @@
         <v>14.102498947400001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="E63" s="27" t="s">
         <v>94</v>
       </c>
@@ -2678,7 +3597,7 @@
         <v>0.16611276129999999</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="E64" s="27" t="s">
         <v>95</v>
       </c>
@@ -2699,7 +3618,7 @@
         <v>63.418611708699999</v>
       </c>
     </row>
-    <row r="65" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H65" s="24" t="s">
         <v>95</v>
       </c>
@@ -2714,7 +3633,7 @@
         <v>0.94874999999999998</v>
       </c>
     </row>
-    <row r="66" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:16" x14ac:dyDescent="0.4">
       <c r="O66" s="24" t="s">
         <v>95</v>
       </c>
@@ -2724,9 +3643,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:C15"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2734,3504 +3650,4225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U69"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.53125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.9296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.06640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.86328125" style="39" customWidth="1"/>
+    <col min="10" max="13" width="9.1328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.53125" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.73046875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.86328125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="17.53125" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.53125" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.86328125" style="39" customWidth="1"/>
+    <col min="21" max="21" width="9.06640625" style="39"/>
+    <col min="22" max="22" width="9.46484375" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.06640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="97"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+    </row>
+    <row r="3" spans="1:23" ht="41.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="95">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="96">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="94">
+        <v>0.33</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="94">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="38">
+        <f>(R22-O22)/(非标类信贷!C22-非标类信贷!D22)</f>
+        <v>7.4683615233503515E-3</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="94">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="94">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="40"/>
+      <c r="F8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B9" s="40"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B10" s="40"/>
+    </row>
+    <row r="11" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="E11" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="74"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="54"/>
+      <c r="B12" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="R12" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="S12" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="T12" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="U12" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="V12" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="W12" s="87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="F3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="40">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="38"/>
-      <c r="F8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="38"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="38"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" t="s">
-        <v>159</v>
-      </c>
-      <c r="L12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" t="s">
-        <v>161</v>
-      </c>
-      <c r="N12" t="s">
-        <v>162</v>
-      </c>
-      <c r="O12" t="s">
-        <v>169</v>
-      </c>
-      <c r="P12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>173</v>
-      </c>
-      <c r="R12" t="s">
-        <v>175</v>
-      </c>
-      <c r="S12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="C13" s="58">
         <f>数据底稿!B2</f>
         <v>1645.73</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="58">
         <f>C13*$B$4</f>
         <v>164.57300000000001</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="71">
         <f>D13*I45</f>
         <v>155.57376741741206</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="59">
         <f t="shared" ref="F13:I13" si="0">E13*J45</f>
         <v>6.0716129819110813</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="59">
         <f t="shared" si="0"/>
         <v>4.5911784157344239E-2</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="59">
         <f t="shared" si="0"/>
         <v>3.0751759886994706E-4</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="75">
         <f t="shared" si="0"/>
         <v>4.2909920315615335E-7</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="71">
         <f>E13*$G$4</f>
         <v>2.3336065112611806</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="59">
         <f>F13*$G$5</f>
         <v>0.18214838945733244</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="59">
         <f>G13*$G$6</f>
         <v>1.3773535247203272E-2</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="59">
         <f>H13*$G$7</f>
         <v>1.8451055932196822E-4</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="75">
         <f>I13*$G$8</f>
         <v>4.2909920315615335E-7</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="78">
         <f>SUM(J13:N13)</f>
         <v>2.5297133756242416</v>
       </c>
-      <c r="P13" s="39">
-        <f>O13*2</f>
-        <v>5.0594267512484832</v>
-      </c>
-      <c r="Q13" s="42">
+      <c r="P13" s="78">
+        <f>(C13-D13)*$D$4</f>
+        <v>14.81157</v>
+      </c>
+      <c r="Q13" s="83">
         <f>O45</f>
         <v>0</v>
       </c>
-      <c r="R13" s="42"/>
-      <c r="S13" s="44" t="e">
-        <f>O13/Q13</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="39">
+      <c r="R13" s="83">
+        <f>P45</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="88">
+        <f>O13+P13-R13</f>
+        <v>17.34128337562424</v>
+      </c>
+      <c r="T13" s="58">
+        <f>D13*$G$4</f>
+        <v>2.4685950000000001</v>
+      </c>
+      <c r="U13" s="59">
+        <f>O13-T13</f>
+        <v>6.1118375624241494E-2</v>
+      </c>
+      <c r="V13" s="44">
+        <f>Q45</f>
+        <v>1536.87</v>
+      </c>
+      <c r="W13" s="45">
+        <f>-S13/V13</f>
+        <v>-1.1283506982128769E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="55"/>
+      <c r="B14" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="61">
         <f>数据底稿!E2</f>
         <v>556.53</v>
       </c>
-      <c r="D14" s="39">
-        <f t="shared" ref="D14:D17" si="1">C14*$B$4</f>
+      <c r="D14" s="61">
+        <f>C14*$B$4</f>
         <v>55.652999999999999</v>
       </c>
-      <c r="E14" s="16">
-        <f t="shared" ref="E14:E37" si="2">D14*I46</f>
+      <c r="E14" s="72">
+        <f t="shared" ref="E14:E37" si="1">D14*I46</f>
         <v>53.231860503712269</v>
       </c>
-      <c r="F14" s="16">
-        <f t="shared" ref="F14:F37" si="3">E14*J46</f>
+      <c r="F14" s="62">
+        <f t="shared" ref="F14:F37" si="2">E14*J46</f>
         <v>1.5124513680081912</v>
       </c>
-      <c r="G14" s="16">
-        <f t="shared" ref="G14:G37" si="4">F14*K46</f>
+      <c r="G14" s="62">
+        <f t="shared" ref="G14:G37" si="3">F14*K46</f>
         <v>9.4332450440608503E-3</v>
       </c>
-      <c r="H14" s="16">
-        <f t="shared" ref="H14:H37" si="5">G14*L46</f>
+      <c r="H14" s="62">
+        <f t="shared" ref="H14:H37" si="4">G14*L46</f>
         <v>6.791442316658901E-5</v>
       </c>
-      <c r="I14" s="16">
-        <f t="shared" ref="I14:I37" si="6">H14*M46</f>
+      <c r="I14" s="76">
+        <f t="shared" ref="I14:I37" si="5">H14*M46</f>
         <v>1.1240858026636072E-7</v>
       </c>
-      <c r="J14" s="16">
-        <f t="shared" ref="J14:J37" si="7">E14*$G$4</f>
+      <c r="J14" s="72">
+        <f>E14*$G$4</f>
         <v>0.79847790755568404</v>
       </c>
-      <c r="K14" s="16">
-        <f t="shared" ref="K14:K37" si="8">F14*$G$5</f>
+      <c r="K14" s="62">
+        <f>F14*$G$5</f>
         <v>4.5373541040245734E-2</v>
       </c>
-      <c r="L14" s="16">
-        <f t="shared" ref="L14:L37" si="9">G14*$G$6</f>
+      <c r="L14" s="62">
+        <f>G14*$G$6</f>
         <v>2.8299735132182552E-3</v>
       </c>
-      <c r="M14" s="16">
-        <f t="shared" ref="M14:M37" si="10">H14*$G$7</f>
+      <c r="M14" s="62">
+        <f>H14*$G$7</f>
         <v>4.0748653899953407E-5</v>
       </c>
-      <c r="N14" s="16">
-        <f t="shared" ref="N14:N37" si="11">I14*$G$8</f>
+      <c r="N14" s="76">
+        <f>I14*$G$8</f>
         <v>1.1240858026636072E-7</v>
       </c>
-      <c r="O14" s="16">
-        <f t="shared" ref="O14:O37" si="12">SUM(J14:N14)</f>
+      <c r="O14" s="79">
+        <f t="shared" ref="O14:O37" si="6">SUM(J14:N14)</f>
         <v>0.84672228317162812</v>
       </c>
-      <c r="P14" s="39">
-        <f t="shared" ref="P14:P37" si="13">O14*2</f>
-        <v>1.6934445663432562</v>
-      </c>
-      <c r="Q14" s="42">
-        <f>P46</f>
+      <c r="P14" s="79">
+        <f t="shared" ref="P14:P37" si="7">(C14-D14)*$D$4</f>
+        <v>5.0087699999999993</v>
+      </c>
+      <c r="Q14" s="84">
+        <f t="shared" ref="Q14:Q37" si="8">O46</f>
+        <v>3172.48</v>
+      </c>
+      <c r="R14" s="84">
+        <f t="shared" ref="R14:R37" si="9">P46</f>
         <v>17.059999999999999</v>
       </c>
-      <c r="R14" s="42"/>
-      <c r="S14" s="44">
-        <f t="shared" ref="S14:S37" si="14">O14/Q14</f>
-        <v>4.9632021287903179E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="39">
+      <c r="S14" s="89">
+        <f t="shared" ref="S14:S37" si="10">O14+P14-R14</f>
+        <v>-11.20450771682837</v>
+      </c>
+      <c r="T14" s="61">
+        <f t="shared" ref="T14:T37" si="11">D14*$G$4</f>
+        <v>0.83479499999999995</v>
+      </c>
+      <c r="U14" s="62">
+        <f>O14-T14</f>
+        <v>1.1927283171628167E-2</v>
+      </c>
+      <c r="V14" s="39">
+        <f t="shared" ref="V14:V37" si="12">Q46</f>
+        <v>1390.09</v>
+      </c>
+      <c r="W14" s="45">
+        <f t="shared" ref="W14:W37" si="13">-S14/V14</f>
+        <v>8.0602750302702503E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="55"/>
+      <c r="B15" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="61">
         <f>数据底稿!H2</f>
         <v>3270.6499999999996</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="61">
+        <f>C15*$B$4</f>
+        <v>327.065</v>
+      </c>
+      <c r="E15" s="72">
         <f t="shared" si="1"/>
-        <v>327.065</v>
-      </c>
-      <c r="E15" s="16">
+        <v>308.05144855587611</v>
+      </c>
+      <c r="F15" s="62">
         <f t="shared" si="2"/>
-        <v>308.05144855587611</v>
-      </c>
-      <c r="F15" s="16">
+        <v>11.149763241899922</v>
+      </c>
+      <c r="G15" s="62">
         <f t="shared" si="3"/>
-        <v>11.149763241899922</v>
-      </c>
-      <c r="G15" s="16">
+        <v>4.2701830636199908E-2</v>
+      </c>
+      <c r="H15" s="62">
         <f t="shared" si="4"/>
-        <v>4.2701830636199908E-2</v>
-      </c>
-      <c r="H15" s="16">
+        <v>6.7643890741183633E-4</v>
+      </c>
+      <c r="I15" s="76">
         <f t="shared" si="5"/>
-        <v>6.7643890741183633E-4</v>
-      </c>
-      <c r="I15" s="16">
+        <v>1.5345383043803817E-6</v>
+      </c>
+      <c r="J15" s="72">
+        <f>E15*$G$4</f>
+        <v>4.6207717283381413</v>
+      </c>
+      <c r="K15" s="62">
+        <f>F15*$G$5</f>
+        <v>0.33449289725699766</v>
+      </c>
+      <c r="L15" s="62">
+        <f>G15*$G$6</f>
+        <v>1.2810549190859973E-2</v>
+      </c>
+      <c r="M15" s="62">
+        <f>H15*$G$7</f>
+        <v>4.0586334444710177E-4</v>
+      </c>
+      <c r="N15" s="76">
+        <f>I15*$G$8</f>
+        <v>1.5345383043803817E-6</v>
+      </c>
+      <c r="O15" s="79">
         <f t="shared" si="6"/>
-        <v>1.5345383043803817E-6</v>
-      </c>
-      <c r="J15" s="16">
+        <v>4.9684825726687505</v>
+      </c>
+      <c r="P15" s="79">
         <f t="shared" si="7"/>
-        <v>4.6207717283381413</v>
-      </c>
-      <c r="K15" s="16">
+        <v>29.435849999999995</v>
+      </c>
+      <c r="Q15" s="84">
         <f t="shared" si="8"/>
-        <v>0.33449289725699766</v>
-      </c>
-      <c r="L15" s="16">
+        <v>4347.78</v>
+      </c>
+      <c r="R15" s="84">
         <f t="shared" si="9"/>
-        <v>1.2810549190859973E-2</v>
-      </c>
-      <c r="M15" s="16">
+        <v>48.9</v>
+      </c>
+      <c r="S15" s="89">
         <f t="shared" si="10"/>
-        <v>4.0586334444710177E-4</v>
-      </c>
-      <c r="N15" s="16">
+        <v>-14.495667427331256</v>
+      </c>
+      <c r="T15" s="61">
         <f t="shared" si="11"/>
-        <v>1.5345383043803817E-6</v>
-      </c>
-      <c r="O15" s="16">
+        <v>4.9059749999999998</v>
+      </c>
+      <c r="U15" s="62">
+        <f>O15-T15</f>
+        <v>6.2507572668750733E-2</v>
+      </c>
+      <c r="V15" s="39">
         <f t="shared" si="12"/>
-        <v>4.9684825726687505</v>
-      </c>
-      <c r="P15" s="39">
+        <v>1086.7</v>
+      </c>
+      <c r="W15" s="45">
         <f t="shared" si="13"/>
-        <v>9.936965145337501</v>
-      </c>
-      <c r="Q15" s="42">
-        <f t="shared" ref="Q14:Q37" si="15">O47</f>
-        <v>4347.78</v>
-      </c>
-      <c r="R15" s="42"/>
-      <c r="S15" s="44">
-        <f t="shared" si="14"/>
-        <v>1.1427631050027257E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="39">
+        <v>1.3339162075394548E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="55"/>
+      <c r="B16" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="61">
         <f>数据底稿!K2</f>
         <v>1699.77</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="61">
+        <f>C16*$B$4</f>
+        <v>169.977</v>
+      </c>
+      <c r="E16" s="72">
         <f t="shared" si="1"/>
-        <v>169.977</v>
-      </c>
-      <c r="E16" s="16">
+        <v>162.92230295652786</v>
+      </c>
+      <c r="F16" s="62">
         <f t="shared" si="2"/>
-        <v>162.92230295652786</v>
-      </c>
-      <c r="F16" s="16">
+        <v>4.5128793675154446</v>
+      </c>
+      <c r="G16" s="62">
         <f t="shared" si="3"/>
-        <v>4.5128793675154446</v>
-      </c>
-      <c r="G16" s="16">
+        <v>2.7064048621139283E-2</v>
+      </c>
+      <c r="H16" s="62">
         <f t="shared" si="4"/>
-        <v>2.7064048621139283E-2</v>
-      </c>
-      <c r="H16" s="16">
+        <v>8.0980961116565526E-5</v>
+      </c>
+      <c r="I16" s="76">
         <f t="shared" si="5"/>
-        <v>8.0980961116565526E-5</v>
-      </c>
-      <c r="I16" s="16">
+        <v>3.8992230174297698E-7</v>
+      </c>
+      <c r="J16" s="72">
+        <f>E16*$G$4</f>
+        <v>2.4438345443479177</v>
+      </c>
+      <c r="K16" s="62">
+        <f>F16*$G$5</f>
+        <v>0.13538638102546333</v>
+      </c>
+      <c r="L16" s="62">
+        <f>G16*$G$6</f>
+        <v>8.1192145863417838E-3</v>
+      </c>
+      <c r="M16" s="62">
+        <f>H16*$G$7</f>
+        <v>4.8588576669939316E-5</v>
+      </c>
+      <c r="N16" s="76">
+        <f>I16*$G$8</f>
+        <v>3.8992230174297698E-7</v>
+      </c>
+      <c r="O16" s="79">
         <f t="shared" si="6"/>
-        <v>3.8992230174297698E-7</v>
-      </c>
-      <c r="J16" s="16">
+        <v>2.5873891184586943</v>
+      </c>
+      <c r="P16" s="79">
         <f t="shared" si="7"/>
-        <v>2.4438345443479177</v>
-      </c>
-      <c r="K16" s="16">
+        <v>15.297929999999999</v>
+      </c>
+      <c r="Q16" s="84">
         <f t="shared" si="8"/>
-        <v>0.13538638102546333</v>
-      </c>
-      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="84">
         <f t="shared" si="9"/>
-        <v>8.1192145863417838E-3</v>
-      </c>
-      <c r="M16" s="16">
+        <v>24.59</v>
+      </c>
+      <c r="S16" s="89">
         <f t="shared" si="10"/>
-        <v>4.8588576669939316E-5</v>
-      </c>
-      <c r="N16" s="16">
+        <v>-6.7046808815413073</v>
+      </c>
+      <c r="T16" s="61">
         <f t="shared" si="11"/>
-        <v>3.8992230174297698E-7</v>
-      </c>
-      <c r="O16" s="16">
+        <v>2.549655</v>
+      </c>
+      <c r="U16" s="62">
+        <f>O16-T16</f>
+        <v>3.7734118458694343E-2</v>
+      </c>
+      <c r="V16" s="39">
         <f t="shared" si="12"/>
-        <v>2.5873891184586943</v>
-      </c>
-      <c r="P16" s="39">
+        <v>1105.49</v>
+      </c>
+      <c r="W16" s="45">
         <f t="shared" si="13"/>
-        <v>5.1747782369173887</v>
-      </c>
-      <c r="Q16" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="42"/>
-      <c r="S16" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="39">
+        <v>6.0648950976863718E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="63"/>
+      <c r="B17" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="64">
         <f>数据底稿!N2</f>
         <v>2787.16</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="64">
+        <f>C17*$B$4</f>
+        <v>278.71600000000001</v>
+      </c>
+      <c r="E17" s="73">
         <f t="shared" si="1"/>
-        <v>278.71600000000001</v>
-      </c>
-      <c r="E17" s="16">
+        <v>266.44621189905052</v>
+      </c>
+      <c r="F17" s="65">
         <f t="shared" si="2"/>
-        <v>266.44621189905052</v>
-      </c>
-      <c r="F17" s="16">
+        <v>7.7085112841331771</v>
+      </c>
+      <c r="G17" s="65">
         <f t="shared" si="3"/>
-        <v>7.7085112841331771</v>
-      </c>
-      <c r="G17" s="16">
+        <v>3.3140191853110235E-2</v>
+      </c>
+      <c r="H17" s="65">
         <f t="shared" si="4"/>
-        <v>3.3140191853110235E-2</v>
-      </c>
-      <c r="H17" s="16">
+        <v>1.9207014758441216E-4</v>
+      </c>
+      <c r="I17" s="77">
         <f t="shared" si="5"/>
-        <v>1.9207014758441216E-4</v>
-      </c>
-      <c r="I17" s="16">
+        <v>9.5974707779871214E-7</v>
+      </c>
+      <c r="J17" s="73">
+        <f>E17*$G$4</f>
+        <v>3.9966931784857578</v>
+      </c>
+      <c r="K17" s="65">
+        <f>F17*$G$5</f>
+        <v>0.2312553385239953</v>
+      </c>
+      <c r="L17" s="65">
+        <f>G17*$G$6</f>
+        <v>9.9420575559330693E-3</v>
+      </c>
+      <c r="M17" s="65">
+        <f>H17*$G$7</f>
+        <v>1.1524208855064729E-4</v>
+      </c>
+      <c r="N17" s="77">
+        <f>I17*$G$8</f>
+        <v>9.5974707779871214E-7</v>
+      </c>
+      <c r="O17" s="80">
         <f t="shared" si="6"/>
-        <v>9.5974707779871214E-7</v>
-      </c>
-      <c r="J17" s="16">
+        <v>4.2380067764013143</v>
+      </c>
+      <c r="P17" s="80">
         <f t="shared" si="7"/>
-        <v>3.9966931784857578</v>
-      </c>
-      <c r="K17" s="16">
+        <v>25.084440000000001</v>
+      </c>
+      <c r="Q17" s="85">
         <f t="shared" si="8"/>
-        <v>0.2312553385239953</v>
-      </c>
-      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="R17" s="85">
         <f t="shared" si="9"/>
-        <v>9.9420575559330693E-3</v>
-      </c>
-      <c r="M17" s="16">
+        <v>26.55</v>
+      </c>
+      <c r="S17" s="90">
         <f t="shared" si="10"/>
-        <v>1.1524208855064729E-4</v>
-      </c>
-      <c r="N17" s="16">
+        <v>2.7724467764013134</v>
+      </c>
+      <c r="T17" s="64">
         <f t="shared" si="11"/>
-        <v>9.5974707779871214E-7</v>
-      </c>
-      <c r="O17" s="16">
+        <v>4.1807400000000001</v>
+      </c>
+      <c r="U17" s="65">
+        <f>O17-T17</f>
+        <v>5.7266776401314168E-2</v>
+      </c>
+      <c r="V17" s="52">
         <f t="shared" si="12"/>
-        <v>4.2380067764013143</v>
-      </c>
-      <c r="P17" s="39">
+        <v>392.22</v>
+      </c>
+      <c r="W17" s="66">
         <f t="shared" si="13"/>
-        <v>8.4760135528026286</v>
-      </c>
-      <c r="Q17" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="42"/>
-      <c r="S17" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="39">
+        <v>-7.0686012350245101E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="58">
         <f>数据底稿!B19</f>
         <v>5646.9999999999991</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="58">
         <f>C18*$B$5</f>
-        <v>1694.0999999999997</v>
-      </c>
-      <c r="E18" s="16">
+        <v>1863.5099999999998</v>
+      </c>
+      <c r="E18" s="71">
+        <f t="shared" si="1"/>
+        <v>1799.7084065879121</v>
+      </c>
+      <c r="F18" s="59">
         <f t="shared" si="2"/>
-        <v>1636.0985514435563</v>
-      </c>
-      <c r="F18" s="16">
+        <v>30.879774986947002</v>
+      </c>
+      <c r="G18" s="59">
         <f t="shared" si="3"/>
-        <v>28.072522715406361</v>
-      </c>
-      <c r="G18" s="16">
+        <v>0.18793376390173677</v>
+      </c>
+      <c r="H18" s="59">
         <f t="shared" si="4"/>
-        <v>0.17084887627430612</v>
-      </c>
-      <c r="H18" s="16">
+        <v>1.2492505231367803E-3</v>
+      </c>
+      <c r="I18" s="75">
         <f t="shared" si="5"/>
-        <v>1.1356822937607092E-3</v>
-      </c>
-      <c r="I18" s="16">
+        <v>5.4290414261312572E-6</v>
+      </c>
+      <c r="J18" s="71">
+        <f>E18*$G$4</f>
+        <v>26.995626098818679</v>
+      </c>
+      <c r="K18" s="59">
+        <f>F18*$G$5</f>
+        <v>0.92639324960840996</v>
+      </c>
+      <c r="L18" s="59">
+        <f>G18*$G$6</f>
+        <v>5.6380129170521029E-2</v>
+      </c>
+      <c r="M18" s="59">
+        <f>H18*$G$7</f>
+        <v>7.4955031388206821E-4</v>
+      </c>
+      <c r="N18" s="75">
+        <f>I18*$G$8</f>
+        <v>5.4290414261312572E-6</v>
+      </c>
+      <c r="O18" s="78">
         <f t="shared" si="6"/>
-        <v>4.9354922055738699E-6</v>
-      </c>
-      <c r="J18" s="16">
+        <v>27.979154456952916</v>
+      </c>
+      <c r="P18" s="78">
         <f t="shared" si="7"/>
-        <v>24.541478271653343</v>
-      </c>
-      <c r="K18" s="16">
+        <v>37.834899999999998</v>
+      </c>
+      <c r="Q18" s="83">
         <f t="shared" si="8"/>
-        <v>0.84217568146219079</v>
-      </c>
-      <c r="L18" s="16">
+        <v>1452.02</v>
+      </c>
+      <c r="R18" s="83">
         <f t="shared" si="9"/>
-        <v>5.1254662882291836E-2</v>
-      </c>
-      <c r="M18" s="16">
+        <v>43.06</v>
+      </c>
+      <c r="S18" s="89">
         <f t="shared" si="10"/>
-        <v>6.8140937625642544E-4</v>
-      </c>
-      <c r="N18" s="16">
+        <v>22.754054456952915</v>
+      </c>
+      <c r="T18" s="61">
         <f t="shared" si="11"/>
-        <v>4.9354922055738699E-6</v>
-      </c>
-      <c r="O18" s="16">
+        <v>27.952649999999995</v>
+      </c>
+      <c r="U18" s="62">
+        <f>O18-T18</f>
+        <v>2.6504456952920918E-2</v>
+      </c>
+      <c r="V18" s="39">
         <f t="shared" si="12"/>
-        <v>25.43559496086629</v>
-      </c>
-      <c r="P18" s="39">
+        <v>394.66</v>
+      </c>
+      <c r="W18" s="45">
         <f t="shared" si="13"/>
-        <v>50.871189921732579</v>
-      </c>
-      <c r="Q18" s="42">
-        <f t="shared" si="15"/>
-        <v>1452.02</v>
-      </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="44">
-        <f t="shared" si="14"/>
-        <v>1.751738609720685E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="39">
+        <v>-5.7654828097483693E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="55"/>
+      <c r="B19" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="61">
         <f>数据底稿!E19</f>
         <v>8438.9500000000007</v>
       </c>
-      <c r="D19" s="39">
-        <f t="shared" ref="D19:D25" si="16">C19*$B$5</f>
-        <v>2531.6849999999999</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="61">
+        <f>C19*$B$5</f>
+        <v>2784.8535000000002</v>
+      </c>
+      <c r="E19" s="72">
+        <f t="shared" si="1"/>
+        <v>2674.8096706264287</v>
+      </c>
+      <c r="F19" s="62">
         <f t="shared" si="2"/>
-        <v>2431.6451551149348</v>
-      </c>
-      <c r="F19" s="16">
+        <v>61.460754737694153</v>
+      </c>
+      <c r="G19" s="62">
         <f t="shared" si="3"/>
-        <v>55.873413397903768</v>
-      </c>
-      <c r="G19" s="16">
+        <v>0.56364798730034305</v>
+      </c>
+      <c r="H19" s="62">
         <f t="shared" si="4"/>
-        <v>0.51240726118212998</v>
-      </c>
-      <c r="H19" s="16">
+        <v>3.3394797763958992E-3</v>
+      </c>
+      <c r="I19" s="76">
         <f t="shared" si="5"/>
-        <v>3.0358907058144536E-3</v>
-      </c>
-      <c r="I19" s="16">
+        <v>4.8151420009402893E-6</v>
+      </c>
+      <c r="J19" s="72">
+        <f>E19*$G$4</f>
+        <v>40.122145059396431</v>
+      </c>
+      <c r="K19" s="62">
+        <f>F19*$G$5</f>
+        <v>1.8438226421308246</v>
+      </c>
+      <c r="L19" s="62">
+        <f>G19*$G$6</f>
+        <v>0.16909439619010291</v>
+      </c>
+      <c r="M19" s="62">
+        <f>H19*$G$7</f>
+        <v>2.0036878658375393E-3</v>
+      </c>
+      <c r="N19" s="76">
+        <f>I19*$G$8</f>
+        <v>4.8151420009402893E-6</v>
+      </c>
+      <c r="O19" s="79">
         <f t="shared" si="6"/>
-        <v>4.3774018190366263E-6</v>
-      </c>
-      <c r="J19" s="16">
+        <v>42.137070600725195</v>
+      </c>
+      <c r="P19" s="79">
         <f t="shared" si="7"/>
-        <v>36.47467732672402</v>
-      </c>
-      <c r="K19" s="16">
+        <v>56.540965000000007</v>
+      </c>
+      <c r="Q19" s="84">
         <f t="shared" si="8"/>
-        <v>1.6762024019371129</v>
-      </c>
-      <c r="L19" s="16">
+        <v>873.12</v>
+      </c>
+      <c r="R19" s="84">
         <f t="shared" si="9"/>
-        <v>0.153722178354639</v>
-      </c>
-      <c r="M19" s="16">
+        <v>25.36</v>
+      </c>
+      <c r="S19" s="89">
         <f t="shared" si="10"/>
-        <v>1.8215344234886722E-3</v>
-      </c>
-      <c r="N19" s="16">
+        <v>73.318035600725196</v>
+      </c>
+      <c r="T19" s="61">
         <f t="shared" si="11"/>
-        <v>4.3774018190366263E-6</v>
-      </c>
-      <c r="O19" s="16">
+        <v>41.772802500000004</v>
+      </c>
+      <c r="U19" s="62">
+        <f>O19-T19</f>
+        <v>0.36426810072519089</v>
+      </c>
+      <c r="V19" s="39">
         <f t="shared" si="12"/>
-        <v>38.306427818841087</v>
-      </c>
-      <c r="P19" s="39">
+        <v>241.64</v>
+      </c>
+      <c r="W19" s="45">
         <f t="shared" si="13"/>
-        <v>76.612855637682173</v>
-      </c>
-      <c r="Q19" s="42">
-        <f t="shared" si="15"/>
-        <v>873.12</v>
-      </c>
-      <c r="R19" s="42"/>
-      <c r="S19" s="44">
-        <f t="shared" si="14"/>
-        <v>4.387303900820172E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="39">
+        <v>-0.30341845555671743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="55"/>
+      <c r="B20" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="61">
         <f>数据底稿!H19</f>
         <v>6796.17</v>
       </c>
-      <c r="D20" s="39">
-        <f t="shared" si="16"/>
-        <v>2038.8509999999999</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="61">
+        <f>C20*$B$5</f>
+        <v>2242.7361000000001</v>
+      </c>
+      <c r="E20" s="72">
+        <f t="shared" si="1"/>
+        <v>2109.9388404155134</v>
+      </c>
+      <c r="F20" s="62">
         <f t="shared" si="2"/>
-        <v>1918.1262185595572</v>
-      </c>
-      <c r="F20" s="16">
+        <v>80.750921266828087</v>
+      </c>
+      <c r="G20" s="62">
         <f t="shared" si="3"/>
-        <v>73.40992842438915</v>
-      </c>
-      <c r="G20" s="16">
+        <v>0.72810861841867247</v>
+      </c>
+      <c r="H20" s="62">
         <f t="shared" si="4"/>
-        <v>0.66191692583515671</v>
-      </c>
-      <c r="H20" s="16">
+        <v>5.3722759802147082E-3</v>
+      </c>
+      <c r="I20" s="76">
         <f t="shared" si="5"/>
-        <v>4.8838872547406435E-3</v>
-      </c>
-      <c r="I20" s="16">
+        <v>2.4418903923497778E-5</v>
+      </c>
+      <c r="J20" s="72">
+        <f>E20*$G$4</f>
+        <v>31.6490826062327</v>
+      </c>
+      <c r="K20" s="62">
+        <f>F20*$G$5</f>
+        <v>2.4225276380048424</v>
+      </c>
+      <c r="L20" s="62">
+        <f>G20*$G$6</f>
+        <v>0.21843258552560174</v>
+      </c>
+      <c r="M20" s="62">
+        <f>H20*$G$7</f>
+        <v>3.2233655881288249E-3</v>
+      </c>
+      <c r="N20" s="76">
+        <f>I20*$G$8</f>
+        <v>2.4418903923497778E-5</v>
+      </c>
+      <c r="O20" s="79">
         <f t="shared" si="6"/>
-        <v>2.2199003566816163E-5</v>
-      </c>
-      <c r="J20" s="16">
+        <v>34.293290614255199</v>
+      </c>
+      <c r="P20" s="79">
         <f t="shared" si="7"/>
-        <v>28.771893278393357</v>
-      </c>
-      <c r="K20" s="16">
+        <v>45.534339000000003</v>
+      </c>
+      <c r="Q20" s="84">
         <f t="shared" si="8"/>
-        <v>2.2022978527316743</v>
-      </c>
-      <c r="L20" s="16">
+        <v>1084</v>
+      </c>
+      <c r="R20" s="84">
         <f t="shared" si="9"/>
-        <v>0.198575077750547</v>
-      </c>
-      <c r="M20" s="16">
+        <v>65.2</v>
+      </c>
+      <c r="S20" s="89">
         <f t="shared" si="10"/>
-        <v>2.930332352844386E-3</v>
-      </c>
-      <c r="N20" s="16">
+        <v>14.627629614255198</v>
+      </c>
+      <c r="T20" s="61">
         <f t="shared" si="11"/>
-        <v>2.2199003566816163E-5</v>
-      </c>
-      <c r="O20" s="16">
+        <v>33.6410415</v>
+      </c>
+      <c r="U20" s="62">
+        <f>O20-T20</f>
+        <v>0.65224911425519849</v>
+      </c>
+      <c r="V20" s="39">
         <f t="shared" si="12"/>
-        <v>31.175718740231989</v>
-      </c>
-      <c r="P20" s="39">
+        <v>285.22000000000003</v>
+      </c>
+      <c r="W20" s="45">
         <f t="shared" si="13"/>
-        <v>62.351437480463979</v>
-      </c>
-      <c r="Q20" s="42">
-        <f t="shared" si="15"/>
-        <v>1084</v>
-      </c>
-      <c r="R20" s="42"/>
-      <c r="S20" s="44">
-        <f t="shared" si="14"/>
-        <v>2.8759888136745376E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="39">
+        <v>-5.128542743936329E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="55"/>
+      <c r="B21" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="61">
         <f>数据底稿!K19</f>
         <v>9139.35</v>
       </c>
-      <c r="D21" s="39">
-        <f t="shared" si="16"/>
-        <v>2741.8049999999998</v>
-      </c>
-      <c r="E21" s="16">
+      <c r="D21" s="61">
+        <f>C21*$B$5</f>
+        <v>3015.9855000000002</v>
+      </c>
+      <c r="E21" s="72">
+        <f t="shared" si="1"/>
+        <v>2854.1875435207708</v>
+      </c>
+      <c r="F21" s="62">
         <f t="shared" si="2"/>
-        <v>2594.7159486552459</v>
-      </c>
-      <c r="F21" s="16">
+        <v>105.01551954759434</v>
+      </c>
+      <c r="G21" s="62">
         <f t="shared" si="3"/>
-        <v>95.46865413417666</v>
-      </c>
-      <c r="G21" s="16">
+        <v>0.65086251137969486</v>
+      </c>
+      <c r="H21" s="62">
         <f t="shared" si="4"/>
-        <v>0.59169319216335881</v>
-      </c>
-      <c r="H21" s="16">
+        <v>4.8895965179173353E-3</v>
+      </c>
+      <c r="I21" s="76">
         <f t="shared" si="5"/>
-        <v>4.4450877435612129E-3</v>
-      </c>
-      <c r="I21" s="16">
+        <v>1.5368214976423425E-5</v>
+      </c>
+      <c r="J21" s="72">
+        <f>E21*$G$4</f>
+        <v>42.812813152811557</v>
+      </c>
+      <c r="K21" s="62">
+        <f>F21*$G$5</f>
+        <v>3.1504655864278299</v>
+      </c>
+      <c r="L21" s="62">
+        <f>G21*$G$6</f>
+        <v>0.19525875341390844</v>
+      </c>
+      <c r="M21" s="62">
+        <f>H21*$G$7</f>
+        <v>2.9337579107504013E-3</v>
+      </c>
+      <c r="N21" s="76">
+        <f>I21*$G$8</f>
+        <v>1.5368214976423425E-5</v>
+      </c>
+      <c r="O21" s="79">
         <f t="shared" si="6"/>
-        <v>1.3971104524021293E-5</v>
-      </c>
-      <c r="J21" s="16">
+        <v>46.161486618779023</v>
+      </c>
+      <c r="P21" s="79">
         <f t="shared" si="7"/>
-        <v>38.92073922982869</v>
-      </c>
-      <c r="K21" s="16">
+        <v>61.233644999999996</v>
+      </c>
+      <c r="Q21" s="84">
         <f t="shared" si="8"/>
-        <v>2.8640596240252996</v>
-      </c>
-      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="R21" s="84">
         <f t="shared" si="9"/>
-        <v>0.17750795764900765</v>
-      </c>
-      <c r="M21" s="16">
+        <v>20.32</v>
+      </c>
+      <c r="S21" s="89">
         <f t="shared" si="10"/>
-        <v>2.6670526461367275E-3</v>
-      </c>
-      <c r="N21" s="16">
+        <v>87.075131618779011</v>
+      </c>
+      <c r="T21" s="61">
         <f t="shared" si="11"/>
-        <v>1.3971104524021293E-5</v>
-      </c>
-      <c r="O21" s="16">
+        <v>45.239782500000004</v>
+      </c>
+      <c r="U21" s="62">
+        <f>O21-T21</f>
+        <v>0.9217041187790187</v>
+      </c>
+      <c r="V21" s="39">
         <f t="shared" si="12"/>
-        <v>41.964987835253659</v>
-      </c>
-      <c r="P21" s="39">
+        <v>286.14</v>
+      </c>
+      <c r="W21" s="45">
         <f t="shared" si="13"/>
-        <v>83.929975670507318</v>
-      </c>
-      <c r="Q21" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="42"/>
-      <c r="S21" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="39">
+        <v>-0.30430953945194317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="55"/>
+      <c r="B22" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="61">
         <f>数据底稿!T19</f>
         <v>15913.82</v>
       </c>
-      <c r="D22" s="39">
-        <f t="shared" si="16"/>
-        <v>4774.1459999999997</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22" s="61">
+        <f>C22*$B$5</f>
+        <v>5251.5605999999998</v>
+      </c>
+      <c r="E22" s="72">
+        <f t="shared" si="1"/>
+        <v>5016.8929033291097</v>
+      </c>
+      <c r="F22" s="62">
         <f t="shared" si="2"/>
-        <v>4560.8117302991905</v>
-      </c>
-      <c r="F22" s="16">
+        <v>143.76109608855131</v>
+      </c>
+      <c r="G22" s="62">
         <f t="shared" si="3"/>
-        <v>130.69190553504666</v>
-      </c>
-      <c r="G22" s="16">
+        <v>0.86804162559568465</v>
+      </c>
+      <c r="H22" s="62">
         <f t="shared" si="4"/>
-        <v>0.78912875054153164</v>
-      </c>
-      <c r="H22" s="16">
+        <v>6.2261198550494197E-3</v>
+      </c>
+      <c r="I22" s="76">
         <f t="shared" si="5"/>
-        <v>5.6601089591358372E-3</v>
-      </c>
-      <c r="I22" s="16">
+        <v>1.7552874485481814E-5</v>
+      </c>
+      <c r="J22" s="72">
+        <f>E22*$G$4</f>
+        <v>75.253393549936646</v>
+      </c>
+      <c r="K22" s="62">
+        <f>F22*$G$5</f>
+        <v>4.3128328826565392</v>
+      </c>
+      <c r="L22" s="62">
+        <f>G22*$G$6</f>
+        <v>0.2604124876787054</v>
+      </c>
+      <c r="M22" s="62">
+        <f>H22*$G$7</f>
+        <v>3.7356719130296518E-3</v>
+      </c>
+      <c r="N22" s="76">
+        <f>I22*$G$8</f>
+        <v>1.7552874485481814E-5</v>
+      </c>
+      <c r="O22" s="79">
         <f t="shared" si="6"/>
-        <v>1.5957158623165289E-5</v>
-      </c>
-      <c r="J22" s="16">
+        <v>79.830392145059406</v>
+      </c>
+      <c r="P22" s="79">
         <f t="shared" si="7"/>
-        <v>68.41217595448785</v>
-      </c>
-      <c r="K22" s="16">
+        <v>106.62259399999999</v>
+      </c>
+      <c r="Q22" s="84">
         <f t="shared" si="8"/>
-        <v>3.9207571660513998</v>
-      </c>
-      <c r="L22" s="16">
+        <v>1052.3</v>
+      </c>
+      <c r="R22" s="84">
         <f t="shared" si="9"/>
-        <v>0.23673862516245947</v>
-      </c>
-      <c r="M22" s="16">
+        <v>159.46</v>
+      </c>
+      <c r="S22" s="89">
         <f t="shared" si="10"/>
-        <v>3.3960653754815024E-3</v>
-      </c>
-      <c r="N22" s="16">
+        <v>26.992986145059405</v>
+      </c>
+      <c r="T22" s="61">
         <f t="shared" si="11"/>
-        <v>1.5957158623165289E-5</v>
-      </c>
-      <c r="O22" s="16">
+        <v>78.773409000000001</v>
+      </c>
+      <c r="U22" s="62">
+        <f>O22-T22</f>
+        <v>1.0569831450594052</v>
+      </c>
+      <c r="V22" s="39">
         <f t="shared" si="12"/>
-        <v>72.573083768235819</v>
-      </c>
-      <c r="P22" s="39">
+        <v>318.39</v>
+      </c>
+      <c r="W22" s="45">
         <f t="shared" si="13"/>
-        <v>145.14616753647164</v>
-      </c>
-      <c r="Q22" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="42"/>
-      <c r="S22" s="44" t="e">
-        <f>O22/Q22</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="39">
+        <v>-8.4779629212787477E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="55"/>
+      <c r="B23" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="61">
         <f>数据底稿!N19</f>
         <v>5165.9399999999996</v>
       </c>
-      <c r="D23" s="39">
-        <f t="shared" si="16"/>
-        <v>1549.7819999999999</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="61">
+        <f>C23*$B$5</f>
+        <v>1704.7601999999999</v>
+      </c>
+      <c r="E23" s="72">
+        <f t="shared" si="1"/>
+        <v>1621.2286441577478</v>
+      </c>
+      <c r="F23" s="62">
         <f t="shared" si="2"/>
-        <v>1473.844221961589</v>
-      </c>
-      <c r="F23" s="16">
+        <v>53.804428244404725</v>
+      </c>
+      <c r="G23" s="62">
         <f t="shared" si="3"/>
-        <v>48.913116585822486</v>
-      </c>
-      <c r="G23" s="16">
+        <v>0.3044296514524989</v>
+      </c>
+      <c r="H23" s="62">
         <f t="shared" si="4"/>
-        <v>0.27675422859318088</v>
-      </c>
-      <c r="H23" s="16">
+        <v>2.3034676098272612E-3</v>
+      </c>
+      <c r="I23" s="76">
         <f t="shared" si="5"/>
-        <v>2.0940614634793286E-3</v>
-      </c>
-      <c r="I23" s="16">
+        <v>5.9590390751713154E-6</v>
+      </c>
+      <c r="J23" s="72">
+        <f>E23*$G$4</f>
+        <v>24.318429662366217</v>
+      </c>
+      <c r="K23" s="62">
+        <f>F23*$G$5</f>
+        <v>1.6141328473321417</v>
+      </c>
+      <c r="L23" s="62">
+        <f>G23*$G$6</f>
+        <v>9.1328895435749666E-2</v>
+      </c>
+      <c r="M23" s="62">
+        <f>H23*$G$7</f>
+        <v>1.3820805658963566E-3</v>
+      </c>
+      <c r="N23" s="76">
+        <f>I23*$G$8</f>
+        <v>5.9590390751713154E-6</v>
+      </c>
+      <c r="O23" s="79">
         <f t="shared" si="6"/>
-        <v>5.4173082501557421E-6</v>
-      </c>
-      <c r="J23" s="16">
+        <v>26.025279444739081</v>
+      </c>
+      <c r="P23" s="79">
         <f t="shared" si="7"/>
-        <v>22.107663329423836</v>
-      </c>
-      <c r="K23" s="16">
+        <v>34.611798</v>
+      </c>
+      <c r="Q23" s="84">
         <f t="shared" si="8"/>
-        <v>1.4673934975746745</v>
-      </c>
-      <c r="L23" s="16">
+        <v>575.38</v>
+      </c>
+      <c r="R23" s="84">
         <f t="shared" si="9"/>
-        <v>8.3026268577954268E-2</v>
-      </c>
-      <c r="M23" s="16">
+        <v>20.92</v>
+      </c>
+      <c r="S23" s="89">
         <f t="shared" si="10"/>
-        <v>1.2564368780875971E-3</v>
-      </c>
-      <c r="N23" s="16">
+        <v>39.717077444739076</v>
+      </c>
+      <c r="T23" s="61">
         <f t="shared" si="11"/>
-        <v>5.4173082501557421E-6</v>
-      </c>
-      <c r="O23" s="16">
+        <v>25.571402999999997</v>
+      </c>
+      <c r="U23" s="62">
+        <f>O23-T23</f>
+        <v>0.45387644473908395</v>
+      </c>
+      <c r="V23" s="39">
         <f t="shared" si="12"/>
-        <v>23.659344949762804</v>
-      </c>
-      <c r="P23" s="39">
+        <v>169.72</v>
+      </c>
+      <c r="W23" s="45">
         <f t="shared" si="13"/>
-        <v>47.318689899525609</v>
-      </c>
-      <c r="Q23" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="42"/>
-      <c r="S23" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="39">
+        <v>-0.23401530429377254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="55"/>
+      <c r="B24" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="61">
         <f>数据底稿!Q19</f>
         <v>2048.3199999999997</v>
       </c>
-      <c r="D24" s="39">
-        <f t="shared" si="16"/>
-        <v>614.49599999999987</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="61">
+        <f>C24*$B$5</f>
+        <v>675.9455999999999</v>
+      </c>
+      <c r="E24" s="72">
+        <f t="shared" si="1"/>
+        <v>634.5630926949882</v>
+      </c>
+      <c r="F24" s="62">
         <f t="shared" si="2"/>
-        <v>576.87553881362555</v>
-      </c>
-      <c r="F24" s="16">
+        <v>28.163866658026137</v>
+      </c>
+      <c r="G24" s="62">
         <f t="shared" si="3"/>
-        <v>25.603515143660122</v>
-      </c>
-      <c r="G24" s="16">
+        <v>0.19631108848168999</v>
+      </c>
+      <c r="H24" s="62">
         <f t="shared" si="4"/>
-        <v>0.17846462589244541</v>
-      </c>
-      <c r="H24" s="16">
+        <v>1.3229287824554745E-3</v>
+      </c>
+      <c r="I24" s="76">
         <f t="shared" si="5"/>
-        <v>1.2026625295049765E-3</v>
-      </c>
-      <c r="I24" s="16">
+        <v>4.1398569973895925E-6</v>
+      </c>
+      <c r="J24" s="72">
+        <f>E24*$G$4</f>
+        <v>9.5184463904248222</v>
+      </c>
+      <c r="K24" s="62">
+        <f>F24*$G$5</f>
+        <v>0.84491599974078413</v>
+      </c>
+      <c r="L24" s="62">
+        <f>G24*$G$6</f>
+        <v>5.8893326544506991E-2</v>
+      </c>
+      <c r="M24" s="62">
+        <f>H24*$G$7</f>
+        <v>7.9375726947328469E-4</v>
+      </c>
+      <c r="N24" s="76">
+        <f>I24*$G$8</f>
+        <v>4.1398569973895925E-6</v>
+      </c>
+      <c r="O24" s="79">
         <f t="shared" si="6"/>
-        <v>3.7635063612632652E-6</v>
-      </c>
-      <c r="J24" s="16">
+        <v>10.423053613836585</v>
+      </c>
+      <c r="P24" s="79">
         <f t="shared" si="7"/>
-        <v>8.6531330822043824</v>
-      </c>
-      <c r="K24" s="16">
+        <v>13.723743999999996</v>
+      </c>
+      <c r="Q24" s="84">
         <f t="shared" si="8"/>
-        <v>0.76810545430980359</v>
-      </c>
-      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="84">
         <f t="shared" si="9"/>
-        <v>5.3539387767733621E-2</v>
-      </c>
-      <c r="M24" s="16">
+        <v>14.73</v>
+      </c>
+      <c r="S24" s="89">
         <f t="shared" si="10"/>
-        <v>7.2159751770298588E-4</v>
-      </c>
-      <c r="N24" s="16">
+        <v>9.4167976138365823</v>
+      </c>
+      <c r="T24" s="61">
         <f t="shared" si="11"/>
-        <v>3.7635063612632652E-6</v>
-      </c>
-      <c r="O24" s="16">
+        <v>10.139183999999998</v>
+      </c>
+      <c r="U24" s="62">
+        <f>O24-T24</f>
+        <v>0.28386961383658615</v>
+      </c>
+      <c r="V24" s="39">
         <f t="shared" si="12"/>
-        <v>9.4755032853059848</v>
-      </c>
-      <c r="P24" s="39">
+        <v>99.07</v>
+      </c>
+      <c r="W24" s="45">
         <f t="shared" si="13"/>
-        <v>18.95100657061197</v>
-      </c>
-      <c r="Q24" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="42"/>
-      <c r="S24" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="39">
+        <v>-9.5051959360417715E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="63"/>
+      <c r="B25" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="64">
         <f>数据底稿!W19</f>
         <v>4129.9699999999993</v>
       </c>
-      <c r="D25" s="39">
-        <f t="shared" si="16"/>
-        <v>1238.9909999999998</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="64">
+        <f>C25*$B$5</f>
+        <v>1362.8900999999998</v>
+      </c>
+      <c r="E25" s="73">
+        <f t="shared" si="1"/>
+        <v>1282.4937568555981</v>
+      </c>
+      <c r="F25" s="65">
         <f t="shared" si="2"/>
-        <v>1165.903415323271</v>
-      </c>
-      <c r="F25" s="16">
+        <v>53.099880382618359</v>
+      </c>
+      <c r="G25" s="65">
         <f t="shared" si="3"/>
-        <v>48.272618529653052</v>
-      </c>
-      <c r="G25" s="16">
+        <v>0.45829709697652332</v>
+      </c>
+      <c r="H25" s="65">
         <f t="shared" si="4"/>
-        <v>0.41663372452411213</v>
-      </c>
-      <c r="H25" s="16">
+        <v>1.4307042808966279E-3</v>
+      </c>
+      <c r="I25" s="77">
         <f t="shared" si="5"/>
-        <v>1.3006402553605708E-3</v>
-      </c>
-      <c r="I25" s="16">
+        <v>8.3457996503368226E-6</v>
+      </c>
+      <c r="J25" s="73">
+        <f>E25*$G$4</f>
+        <v>19.237406352833972</v>
+      </c>
+      <c r="K25" s="65">
+        <f>F25*$G$5</f>
+        <v>1.5929964114785506</v>
+      </c>
+      <c r="L25" s="65">
+        <f>G25*$G$6</f>
+        <v>0.13748912909295699</v>
+      </c>
+      <c r="M25" s="65">
+        <f>H25*$G$7</f>
+        <v>8.5842256853797675E-4</v>
+      </c>
+      <c r="N25" s="77">
+        <f>I25*$G$8</f>
+        <v>8.3457996503368226E-6</v>
+      </c>
+      <c r="O25" s="80">
         <f t="shared" si="6"/>
-        <v>7.5870905912152938E-6</v>
-      </c>
-      <c r="J25" s="16">
+        <v>20.968758661773666</v>
+      </c>
+      <c r="P25" s="80">
         <f t="shared" si="7"/>
-        <v>17.488551229849065</v>
-      </c>
-      <c r="K25" s="16">
+        <v>27.670798999999999</v>
+      </c>
+      <c r="Q25" s="85">
         <f t="shared" si="8"/>
-        <v>1.4481785558895914</v>
-      </c>
-      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="R25" s="85">
         <f t="shared" si="9"/>
-        <v>0.12499011735723363</v>
-      </c>
-      <c r="M25" s="16">
+        <v>23.55</v>
+      </c>
+      <c r="S25" s="90">
         <f t="shared" si="10"/>
-        <v>7.8038415321634246E-4</v>
-      </c>
-      <c r="N25" s="16">
+        <v>25.089557661773664</v>
+      </c>
+      <c r="T25" s="64">
         <f t="shared" si="11"/>
-        <v>7.5870905912152938E-6</v>
-      </c>
-      <c r="O25" s="16">
+        <v>20.443351499999999</v>
+      </c>
+      <c r="U25" s="65">
+        <f>O25-T25</f>
+        <v>0.52540716177366775</v>
+      </c>
+      <c r="V25" s="52">
         <f t="shared" si="12"/>
-        <v>19.062507874339694</v>
-      </c>
-      <c r="P25" s="39">
+        <v>125.54</v>
+      </c>
+      <c r="W25" s="66">
         <f t="shared" si="13"/>
-        <v>38.125015748679388</v>
-      </c>
-      <c r="Q25" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="42"/>
-      <c r="S25" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="39">
+        <v>-0.1998530959198157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="58">
         <f>数据底稿!B37</f>
         <v>3701.5499999999997</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="58">
         <f>C26*$B$6</f>
-        <v>740.31</v>
-      </c>
-      <c r="E26" s="16">
+        <v>370.15499999999997</v>
+      </c>
+      <c r="E26" s="71">
+        <f t="shared" si="1"/>
+        <v>361.43883405531801</v>
+      </c>
+      <c r="F26" s="59">
         <f t="shared" si="2"/>
-        <v>722.87766811063602</v>
-      </c>
-      <c r="F26" s="16">
+        <v>4.2390626640950346</v>
+      </c>
+      <c r="G26" s="59">
         <f t="shared" si="3"/>
-        <v>8.4781253281900693</v>
-      </c>
-      <c r="G26" s="16">
+        <v>3.9419079441489382E-2</v>
+      </c>
+      <c r="H26" s="59">
         <f t="shared" si="4"/>
-        <v>7.8838158882978765E-2</v>
-      </c>
-      <c r="H26" s="16">
+        <v>2.221342129011694E-5</v>
+      </c>
+      <c r="I26" s="75">
         <f t="shared" si="5"/>
-        <v>4.442684258023388E-5</v>
-      </c>
-      <c r="I26" s="16">
+        <v>4.3460869972159972E-8</v>
+      </c>
+      <c r="J26" s="71">
+        <f>E26*$G$4</f>
+        <v>5.4215825108297704</v>
+      </c>
+      <c r="K26" s="59">
+        <f>F26*$G$5</f>
+        <v>0.12717187992285103</v>
+      </c>
+      <c r="L26" s="59">
+        <f>G26*$G$6</f>
+        <v>1.1825723832446814E-2</v>
+      </c>
+      <c r="M26" s="59">
+        <f>H26*$G$7</f>
+        <v>1.3328052774070163E-5</v>
+      </c>
+      <c r="N26" s="75">
+        <f>I26*$G$8</f>
+        <v>4.3460869972159972E-8</v>
+      </c>
+      <c r="O26" s="78">
         <f t="shared" si="6"/>
-        <v>8.6921739944319944E-8</v>
-      </c>
-      <c r="J26" s="16">
+        <v>5.5605934860987114</v>
+      </c>
+      <c r="P26" s="78">
         <f t="shared" si="7"/>
-        <v>10.843165021659541</v>
-      </c>
-      <c r="K26" s="16">
+        <v>33.313949999999998</v>
+      </c>
+      <c r="Q26" s="83">
         <f t="shared" si="8"/>
-        <v>0.25434375984570207</v>
-      </c>
-      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="R26" s="84">
         <f t="shared" si="9"/>
-        <v>2.3651447664893629E-2</v>
-      </c>
-      <c r="M26" s="16">
+        <v>97.36</v>
+      </c>
+      <c r="S26" s="89">
         <f t="shared" si="10"/>
-        <v>2.6656105548140327E-5</v>
-      </c>
-      <c r="N26" s="16">
+        <v>-58.485456513901291</v>
+      </c>
+      <c r="T26" s="61">
         <f t="shared" si="11"/>
-        <v>8.6921739944319944E-8</v>
-      </c>
-      <c r="O26" s="16">
+        <v>5.5523249999999997</v>
+      </c>
+      <c r="U26" s="62">
+        <f>O26-T26</f>
+        <v>8.2684860987116693E-3</v>
+      </c>
+      <c r="V26" s="39">
         <f t="shared" si="12"/>
-        <v>11.121186972197423</v>
-      </c>
-      <c r="P26" s="39">
+        <v>111.55</v>
+      </c>
+      <c r="W26" s="45">
         <f t="shared" si="13"/>
-        <v>22.242373944394846</v>
-      </c>
-      <c r="Q26" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="42"/>
-      <c r="S26" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="39">
+        <v>0.52429813100763145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="55"/>
+      <c r="B27" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="61">
         <f>数据底稿!F37</f>
         <v>2379.6147000000001</v>
       </c>
-      <c r="D27" s="39">
-        <f t="shared" ref="D27:D32" si="17">C27*$B$6</f>
-        <v>475.92294000000004</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D27" s="61">
+        <f>C27*$B$6</f>
+        <v>237.96147000000002</v>
+      </c>
+      <c r="E27" s="72">
+        <f t="shared" si="1"/>
+        <v>231.56313309829784</v>
+      </c>
+      <c r="F27" s="62">
         <f t="shared" si="2"/>
-        <v>463.12626619659568</v>
-      </c>
-      <c r="F27" s="16">
+        <v>4.2239928398267068</v>
+      </c>
+      <c r="G27" s="62">
         <f t="shared" si="3"/>
-        <v>8.4479856796534136</v>
-      </c>
-      <c r="G27" s="16">
+        <v>2.4887971815556201E-2</v>
+      </c>
+      <c r="H27" s="62">
         <f t="shared" si="4"/>
-        <v>4.9775943631112401E-2</v>
-      </c>
-      <c r="H27" s="16">
+        <v>5.0972761086140121E-5</v>
+      </c>
+      <c r="I27" s="76">
         <f t="shared" si="5"/>
-        <v>1.0194552217228024E-4</v>
-      </c>
-      <c r="I27" s="16">
+        <v>3.6026004188469591E-8</v>
+      </c>
+      <c r="J27" s="72">
+        <f>E27*$G$4</f>
+        <v>3.4734469964744674</v>
+      </c>
+      <c r="K27" s="62">
+        <f>F27*$G$5</f>
+        <v>0.1267197851948012</v>
+      </c>
+      <c r="L27" s="62">
+        <f>G27*$G$6</f>
+        <v>7.4663915446668595E-3</v>
+      </c>
+      <c r="M27" s="62">
+        <f>H27*$G$7</f>
+        <v>3.0583656651684073E-5</v>
+      </c>
+      <c r="N27" s="76">
+        <f>I27*$G$8</f>
+        <v>3.6026004188469591E-8</v>
+      </c>
+      <c r="O27" s="79">
         <f t="shared" si="6"/>
-        <v>7.2052008376939182E-8</v>
-      </c>
-      <c r="J27" s="16">
+        <v>3.6076637928965916</v>
+      </c>
+      <c r="P27" s="79">
         <f t="shared" si="7"/>
-        <v>6.9468939929489348</v>
-      </c>
-      <c r="K27" s="16">
+        <v>21.4165323</v>
+      </c>
+      <c r="Q27" s="84">
         <f t="shared" si="8"/>
-        <v>0.25343957038960241</v>
-      </c>
-      <c r="L27" s="16">
+        <v>174.10274999999999</v>
+      </c>
+      <c r="R27" s="84">
         <f t="shared" si="9"/>
-        <v>1.4932783089333719E-2</v>
-      </c>
-      <c r="M27" s="16">
+        <v>24.131910000000001</v>
+      </c>
+      <c r="S27" s="89">
         <f t="shared" si="10"/>
-        <v>6.1167313303368145E-5</v>
-      </c>
-      <c r="N27" s="16">
+        <v>0.89228609289659033</v>
+      </c>
+      <c r="T27" s="61">
         <f t="shared" si="11"/>
-        <v>7.2052008376939182E-8</v>
-      </c>
-      <c r="O27" s="16">
+        <v>3.56942205</v>
+      </c>
+      <c r="U27" s="62">
+        <f>O27-T27</f>
+        <v>3.8241742896591546E-2</v>
+      </c>
+      <c r="V27" s="39">
         <f t="shared" si="12"/>
-        <v>7.2153275857931831</v>
-      </c>
-      <c r="P27" s="39">
+        <v>51.603630000000003</v>
+      </c>
+      <c r="W27" s="45">
         <f t="shared" si="13"/>
-        <v>14.430655171586366</v>
-      </c>
-      <c r="Q27" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="42"/>
-      <c r="S27" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="39">
+        <v>-1.7291149729129332E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="55"/>
+      <c r="B28" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="61">
         <f>数据底稿!I37</f>
         <v>1.2</v>
       </c>
-      <c r="D28" s="39">
-        <f t="shared" si="17"/>
-        <v>0.24</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="D28" s="61">
+        <f>C28*$B$6</f>
+        <v>0.12</v>
+      </c>
+      <c r="E28" s="72">
+        <f>D28*I60</f>
+        <v>0.11798459793797822</v>
+      </c>
+      <c r="F28" s="62">
         <f t="shared" si="2"/>
-        <v>0.23596919587595644</v>
-      </c>
-      <c r="F28" s="16">
+        <v>9.1095840545430621E-4</v>
+      </c>
+      <c r="G28" s="62">
         <f t="shared" si="3"/>
-        <v>1.8219168109086124E-3</v>
-      </c>
-      <c r="G28" s="16">
+        <v>4.9479074519811366E-6</v>
+      </c>
+      <c r="H28" s="62">
         <f t="shared" si="4"/>
-        <v>9.8958149039622732E-6</v>
-      </c>
-      <c r="H28" s="16">
+        <v>1.4892538980247394E-8</v>
+      </c>
+      <c r="I28" s="76">
         <f t="shared" si="5"/>
-        <v>2.9785077960494787E-8</v>
-      </c>
-      <c r="I28" s="16">
-        <f t="shared" si="6"/>
-        <v>1.884252624790698E-11</v>
-      </c>
-      <c r="J28" s="16">
+        <v>9.4212631239534901E-12</v>
+      </c>
+      <c r="J28" s="72">
+        <f>E28*$G$4</f>
+        <v>1.7697689690696732E-3</v>
+      </c>
+      <c r="K28" s="62">
+        <f>F28*$G$5</f>
+        <v>2.7328752163629185E-5</v>
+      </c>
+      <c r="L28" s="62">
+        <f>G28*$G$6</f>
+        <v>1.4843722355943409E-6</v>
+      </c>
+      <c r="M28" s="62">
+        <f>H28*$G$7</f>
+        <v>8.9355233881484358E-9</v>
+      </c>
+      <c r="N28" s="76">
+        <f>I28*$G$8</f>
+        <v>9.4212631239534901E-12</v>
+      </c>
+      <c r="O28" s="79">
+        <f>SUM(J28:N28)</f>
+        <v>1.7985910384135477E-3</v>
+      </c>
+      <c r="P28" s="79">
         <f t="shared" si="7"/>
-        <v>3.5395379381393463E-3</v>
-      </c>
-      <c r="K28" s="16">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="Q28" s="84">
         <f t="shared" si="8"/>
-        <v>5.4657504327258369E-5</v>
-      </c>
-      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="R28" s="84">
         <f t="shared" si="9"/>
-        <v>2.9687444711886818E-6</v>
-      </c>
-      <c r="M28" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="S28" s="89">
         <f t="shared" si="10"/>
-        <v>1.7871046776296872E-8</v>
-      </c>
-      <c r="N28" s="16">
+        <v>-2.3874014089615865</v>
+      </c>
+      <c r="T28" s="67">
         <f t="shared" si="11"/>
-        <v>1.884252624790698E-11</v>
-      </c>
-      <c r="O28" s="16">
+        <v>1.8E-3</v>
+      </c>
+      <c r="U28" s="62">
+        <f>O28-T28</f>
+        <v>-1.4089615864522256E-6</v>
+      </c>
+      <c r="V28" s="39">
         <f t="shared" si="12"/>
-        <v>3.5971820768270955E-3</v>
-      </c>
-      <c r="P28" s="39">
+        <v>47.743119999999998</v>
+      </c>
+      <c r="W28" s="45">
         <f t="shared" si="13"/>
-        <v>7.1943641536541909E-3</v>
-      </c>
-      <c r="Q28" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="42"/>
-      <c r="S28" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="39">
+        <v>5.0005140195311631E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="55"/>
+      <c r="B29" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="61">
         <f>数据底稿!U37</f>
         <v>1449.6943999999999</v>
       </c>
-      <c r="D29" s="39">
-        <f t="shared" si="17"/>
-        <v>289.93887999999998</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="D29" s="61">
+        <f>C29*$B$6</f>
+        <v>144.96943999999999</v>
+      </c>
+      <c r="E29" s="72">
+        <f t="shared" si="1"/>
+        <v>140.20773092979601</v>
+      </c>
+      <c r="F29" s="62">
         <f t="shared" si="2"/>
-        <v>280.41546185959203</v>
-      </c>
-      <c r="F29" s="16">
+        <v>2.9760778967058283</v>
+      </c>
+      <c r="G29" s="62">
         <f t="shared" si="3"/>
-        <v>5.9521557934116567</v>
-      </c>
-      <c r="G29" s="16">
+        <v>1.1360612922121096E-2</v>
+      </c>
+      <c r="H29" s="62">
         <f t="shared" si="4"/>
-        <v>2.2721225844242191E-2</v>
-      </c>
-      <c r="H29" s="16">
+        <v>6.6231992379873952E-5</v>
+      </c>
+      <c r="I29" s="76">
         <f t="shared" si="5"/>
-        <v>1.324639847597479E-4</v>
-      </c>
-      <c r="I29" s="16">
+        <v>1.3066345148046438E-7</v>
+      </c>
+      <c r="J29" s="72">
+        <f>E29*$G$4</f>
+        <v>2.1031159639469403</v>
+      </c>
+      <c r="K29" s="62">
+        <f>F29*$G$5</f>
+        <v>8.9282336901174847E-2</v>
+      </c>
+      <c r="L29" s="62">
+        <f>G29*$G$6</f>
+        <v>3.4081838766363286E-3</v>
+      </c>
+      <c r="M29" s="62">
+        <f>H29*$G$7</f>
+        <v>3.9739195427924372E-5</v>
+      </c>
+      <c r="N29" s="76">
+        <f>I29*$G$8</f>
+        <v>1.3066345148046438E-7</v>
+      </c>
+      <c r="O29" s="79">
         <f t="shared" si="6"/>
-        <v>2.6132690296092877E-7</v>
-      </c>
-      <c r="J29" s="16">
+        <v>2.1958463545836313</v>
+      </c>
+      <c r="P29" s="79">
         <f t="shared" si="7"/>
-        <v>4.2062319278938807</v>
-      </c>
-      <c r="K29" s="16">
+        <v>13.047249599999999</v>
+      </c>
+      <c r="Q29" s="84">
         <f t="shared" si="8"/>
-        <v>0.17856467380234969</v>
-      </c>
-      <c r="L29" s="16">
+        <v>255.45525000000001</v>
+      </c>
+      <c r="R29" s="84">
         <f t="shared" si="9"/>
-        <v>6.8163677532726572E-3</v>
-      </c>
-      <c r="M29" s="16">
+        <v>67.708160000000007</v>
+      </c>
+      <c r="S29" s="89">
         <f t="shared" si="10"/>
-        <v>7.9478390855848745E-5</v>
-      </c>
-      <c r="N29" s="16">
+        <v>-52.465064045416376</v>
+      </c>
+      <c r="T29" s="61">
         <f t="shared" si="11"/>
-        <v>2.6132690296092877E-7</v>
-      </c>
-      <c r="O29" s="16">
+        <v>2.1745416</v>
+      </c>
+      <c r="U29" s="62">
+        <f>O29-T29</f>
+        <v>2.1304754583631347E-2</v>
+      </c>
+      <c r="V29" s="39">
         <f t="shared" si="12"/>
-        <v>4.3916927091672626</v>
-      </c>
-      <c r="P29" s="39">
+        <v>78.062079999999995</v>
+      </c>
+      <c r="W29" s="45">
         <f t="shared" si="13"/>
-        <v>8.7833854183345252</v>
-      </c>
-      <c r="Q29" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="42"/>
-      <c r="S29" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="39">
+        <v>0.67209410824585225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="55"/>
+      <c r="B30" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="61">
         <f>数据底稿!O37</f>
         <v>763.49552000000006</v>
       </c>
-      <c r="D30" s="39">
-        <f t="shared" si="17"/>
-        <v>152.69910400000001</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="D30" s="61">
+        <f>C30*$B$6</f>
+        <v>76.349552000000003</v>
+      </c>
+      <c r="E30" s="72">
+        <f t="shared" si="1"/>
+        <v>72.450134663206782</v>
+      </c>
+      <c r="F30" s="62">
         <f t="shared" si="2"/>
-        <v>144.90026932641356</v>
-      </c>
-      <c r="F30" s="16">
+        <v>2.6421137552407901</v>
+      </c>
+      <c r="G30" s="62">
         <f t="shared" si="3"/>
-        <v>5.2842275104815801</v>
-      </c>
-      <c r="G30" s="16">
+        <v>1.8077729712283781E-2</v>
+      </c>
+      <c r="H30" s="62">
         <f t="shared" si="4"/>
-        <v>3.6155459424567563E-2</v>
-      </c>
-      <c r="H30" s="16">
+        <v>8.1053053857959269E-5</v>
+      </c>
+      <c r="I30" s="76">
         <f t="shared" si="5"/>
-        <v>1.6210610771591854E-4</v>
-      </c>
-      <c r="I30" s="16">
+        <v>2.6581056660521717E-7</v>
+      </c>
+      <c r="J30" s="72">
+        <f>E30*$G$4</f>
+        <v>1.0867520199481018</v>
+      </c>
+      <c r="K30" s="62">
+        <f>F30*$G$5</f>
+        <v>7.9263412657223697E-2</v>
+      </c>
+      <c r="L30" s="62">
+        <f>G30*$G$6</f>
+        <v>5.4233189136851344E-3</v>
+      </c>
+      <c r="M30" s="62">
+        <f>H30*$G$7</f>
+        <v>4.8631832314775561E-5</v>
+      </c>
+      <c r="N30" s="76">
+        <f>I30*$G$8</f>
+        <v>2.6581056660521717E-7</v>
+      </c>
+      <c r="O30" s="79">
         <f t="shared" si="6"/>
-        <v>5.3162113321043435E-7</v>
-      </c>
-      <c r="J30" s="16">
+        <v>1.1714876491618922</v>
+      </c>
+      <c r="P30" s="79">
         <f t="shared" si="7"/>
-        <v>2.1735040398962036</v>
-      </c>
-      <c r="K30" s="16">
+        <v>6.871459680000001</v>
+      </c>
+      <c r="Q30" s="84">
         <f t="shared" si="8"/>
-        <v>0.15852682531444739</v>
-      </c>
-      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="R30" s="84">
         <f t="shared" si="9"/>
-        <v>1.0846637827370269E-2</v>
-      </c>
-      <c r="M30" s="16">
+        <v>14.410450000000001</v>
+      </c>
+      <c r="S30" s="89">
         <f t="shared" si="10"/>
-        <v>9.7263664629551122E-5</v>
-      </c>
-      <c r="N30" s="16">
+        <v>-6.3675026708381068</v>
+      </c>
+      <c r="T30" s="61">
         <f t="shared" si="11"/>
-        <v>5.3162113321043435E-7</v>
-      </c>
-      <c r="O30" s="16">
+        <v>1.1452432800000001</v>
+      </c>
+      <c r="U30" s="62">
+        <f>O30-T30</f>
+        <v>2.62443691618921E-2</v>
+      </c>
+      <c r="V30" s="39">
         <f t="shared" si="12"/>
-        <v>2.3429752983237844</v>
-      </c>
-      <c r="P30" s="39">
+        <v>19.07517</v>
+      </c>
+      <c r="W30" s="45">
         <f t="shared" si="13"/>
-        <v>4.6859505966475687</v>
-      </c>
-      <c r="Q30" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="42"/>
-      <c r="S30" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="39">
+        <v>0.33381105756006929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="55"/>
+      <c r="B31" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="61">
         <f>数据底稿!R37</f>
         <v>711.88409999999999</v>
       </c>
-      <c r="D31" s="39">
-        <f t="shared" si="17"/>
-        <v>142.37682000000001</v>
-      </c>
-      <c r="E31" s="16">
+      <c r="D31" s="61">
+        <f>C31*$B$6</f>
+        <v>71.188410000000005</v>
+      </c>
+      <c r="E31" s="72">
+        <f t="shared" si="1"/>
+        <v>67.468050791055163</v>
+      </c>
+      <c r="F31" s="62">
         <f t="shared" si="2"/>
-        <v>134.93610158211033</v>
-      </c>
-      <c r="F31" s="16">
+        <v>2.4387277539414076</v>
+      </c>
+      <c r="G31" s="62">
         <f t="shared" si="3"/>
-        <v>4.8774555078828152</v>
-      </c>
-      <c r="G31" s="16">
+        <v>1.7884372546183379E-2</v>
+      </c>
+      <c r="H31" s="62">
         <f t="shared" si="4"/>
-        <v>3.5768745092366758E-2</v>
-      </c>
-      <c r="H31" s="16">
+        <v>2.5538607429933797E-5</v>
+      </c>
+      <c r="I31" s="76">
         <f t="shared" si="5"/>
-        <v>5.1077214859867595E-5</v>
-      </c>
-      <c r="I31" s="16">
+        <v>1.8778193301949748E-7</v>
+      </c>
+      <c r="J31" s="72">
+        <f>E31*$G$4</f>
+        <v>1.0120207618658275</v>
+      </c>
+      <c r="K31" s="62">
+        <f>F31*$G$5</f>
+        <v>7.3161832618242231E-2</v>
+      </c>
+      <c r="L31" s="62">
+        <f>G31*$G$6</f>
+        <v>5.3653117638550133E-3</v>
+      </c>
+      <c r="M31" s="62">
+        <f>H31*$G$7</f>
+        <v>1.5323164457960276E-5</v>
+      </c>
+      <c r="N31" s="76">
+        <f>I31*$G$8</f>
+        <v>1.8778193301949748E-7</v>
+      </c>
+      <c r="O31" s="79">
         <f t="shared" si="6"/>
-        <v>3.7556386603899497E-7</v>
-      </c>
-      <c r="J31" s="16">
+        <v>1.0905634171943157</v>
+      </c>
+      <c r="P31" s="79">
         <f t="shared" si="7"/>
-        <v>2.0240415237316549</v>
-      </c>
-      <c r="K31" s="16">
+        <v>6.4069569</v>
+      </c>
+      <c r="Q31" s="84">
         <f t="shared" si="8"/>
-        <v>0.14632366523648446</v>
-      </c>
-      <c r="L31" s="16">
+        <v>84.171869999999998</v>
+      </c>
+      <c r="R31" s="84">
         <f t="shared" si="9"/>
-        <v>1.0730623527710027E-2</v>
-      </c>
-      <c r="M31" s="16">
+        <v>2.35</v>
+      </c>
+      <c r="S31" s="89">
         <f t="shared" si="10"/>
-        <v>3.0646328915920553E-5</v>
-      </c>
-      <c r="N31" s="16">
+        <v>5.1475203171943154</v>
+      </c>
+      <c r="T31" s="61">
         <f t="shared" si="11"/>
-        <v>3.7556386603899497E-7</v>
-      </c>
-      <c r="O31" s="16">
+        <v>1.0678261500000001</v>
+      </c>
+      <c r="U31" s="62">
+        <f>O31-T31</f>
+        <v>2.2737267194315569E-2</v>
+      </c>
+      <c r="V31" s="39">
         <f t="shared" si="12"/>
-        <v>2.1811268343886314</v>
-      </c>
-      <c r="P31" s="39">
+        <v>25.31119</v>
+      </c>
+      <c r="W31" s="45">
         <f t="shared" si="13"/>
-        <v>4.3622536687772628</v>
-      </c>
-      <c r="Q31" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="42"/>
-      <c r="S31" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="39">
+        <v>-0.20336935233761491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="63"/>
+      <c r="B32" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="64">
         <f>数据底稿!L37</f>
         <v>0</v>
       </c>
-      <c r="D32" s="39">
-        <f t="shared" si="17"/>
+      <c r="D32" s="64">
+        <f>C32*$B$6</f>
         <v>0</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="16">
+      <c r="G32" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="16">
+      <c r="H32" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H32" s="16">
+      <c r="I32" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I32" s="16">
+      <c r="J32" s="73">
+        <f>E32*$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="65">
+        <f>F32*$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="65">
+        <f>G32*$G$6</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="65">
+        <f>H32*$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="77">
+        <f>I32*$G$8</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="80">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J32" s="16">
+      <c r="P32" s="80">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K32" s="16">
+      <c r="Q32" s="85">
+        <f t="shared" si="8"/>
+        <v>215.42554000000001</v>
+      </c>
+      <c r="R32" s="85">
+        <f t="shared" si="9"/>
+        <v>24.378209999999999</v>
+      </c>
+      <c r="S32" s="90">
+        <f t="shared" si="10"/>
+        <v>-24.378209999999999</v>
+      </c>
+      <c r="T32" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="65">
+        <f>O32-T32</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="52">
+        <f t="shared" si="12"/>
+        <v>62.21358</v>
+      </c>
+      <c r="W32" s="66">
+        <f t="shared" si="13"/>
+        <v>0.39184708547555053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="42">
+        <f>数据底稿!F56</f>
+        <v>78.983999999999995</v>
+      </c>
+      <c r="D33" s="42">
+        <f>C33*$B$7</f>
+        <v>7.8983999999999996</v>
+      </c>
+      <c r="E33" s="72">
+        <f t="shared" si="1"/>
+        <v>7.6760519112507852</v>
+      </c>
+      <c r="F33" s="62">
+        <f t="shared" si="2"/>
+        <v>0.11520432347819491</v>
+      </c>
+      <c r="G33" s="62">
+        <f t="shared" si="3"/>
+        <v>1.2588479503308706E-3</v>
+      </c>
+      <c r="H33" s="62">
+        <f t="shared" si="4"/>
+        <v>2.5875711160157487E-6</v>
+      </c>
+      <c r="I33" s="76">
+        <f t="shared" si="5"/>
+        <v>4.1441012262512042E-10</v>
+      </c>
+      <c r="J33" s="72">
+        <f>E33*$G$4</f>
+        <v>0.11514077866876177</v>
+      </c>
+      <c r="K33" s="62">
+        <f>F33*$G$5</f>
+        <v>3.4561297043458473E-3</v>
+      </c>
+      <c r="L33" s="62">
+        <f>G33*$G$6</f>
+        <v>3.7765438509926118E-4</v>
+      </c>
+      <c r="M33" s="62">
+        <f>H33*$G$7</f>
+        <v>1.5525426696094492E-6</v>
+      </c>
+      <c r="N33" s="76">
+        <f>I33*$G$8</f>
+        <v>4.1441012262512042E-10</v>
+      </c>
+      <c r="O33" s="81">
+        <f t="shared" si="6"/>
+        <v>0.1189761157152866</v>
+      </c>
+      <c r="P33" s="81">
+        <f t="shared" si="7"/>
+        <v>0.71085600000000004</v>
+      </c>
+      <c r="Q33" s="49">
+        <f t="shared" si="8"/>
+        <v>19.095199999999998</v>
+      </c>
+      <c r="R33" s="49">
+        <f t="shared" si="9"/>
+        <v>1.20529</v>
+      </c>
+      <c r="S33" s="91">
+        <f t="shared" si="10"/>
+        <v>-0.37545788428471338</v>
+      </c>
+      <c r="T33" s="42">
+        <f t="shared" si="11"/>
+        <v>0.11847599999999998</v>
+      </c>
+      <c r="U33" s="43">
+        <f>O33-T33</f>
+        <v>5.0011571528661702E-4</v>
+      </c>
+      <c r="V33" s="39">
+        <f t="shared" si="12"/>
+        <v>5.2125899999999996</v>
+      </c>
+      <c r="W33" s="45">
+        <f t="shared" si="13"/>
+        <v>7.2029045884044865E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="55"/>
+      <c r="B34" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="42">
+        <f>数据底稿!I56</f>
+        <v>142.75730999999999</v>
+      </c>
+      <c r="D34" s="42">
+        <f>C34*$B$7</f>
+        <v>14.275731</v>
+      </c>
+      <c r="E34" s="72">
+        <f t="shared" si="1"/>
+        <v>13.643289596440621</v>
+      </c>
+      <c r="F34" s="62">
+        <f t="shared" si="2"/>
+        <v>0.42809585085369156</v>
+      </c>
+      <c r="G34" s="62">
+        <f t="shared" si="3"/>
+        <v>5.3839181515264213E-3</v>
+      </c>
+      <c r="H34" s="62">
+        <f t="shared" si="4"/>
+        <v>1.4601398615739407E-6</v>
+      </c>
+      <c r="I34" s="76">
+        <f t="shared" si="5"/>
+        <v>1.1164726014942083E-10</v>
+      </c>
+      <c r="J34" s="72">
+        <f>E34*$G$4</f>
+        <v>0.2046493439466093</v>
+      </c>
+      <c r="K34" s="62">
+        <f>F34*$G$5</f>
+        <v>1.2842875525610746E-2</v>
+      </c>
+      <c r="L34" s="62">
+        <f>G34*$G$6</f>
+        <v>1.6151754454579263E-3</v>
+      </c>
+      <c r="M34" s="62">
+        <f>H34*$G$7</f>
+        <v>8.760839169443644E-7</v>
+      </c>
+      <c r="N34" s="76">
+        <f>I34*$G$8</f>
+        <v>1.1164726014942083E-10</v>
+      </c>
+      <c r="O34" s="81">
+        <f t="shared" si="6"/>
+        <v>0.21910827111324216</v>
+      </c>
+      <c r="P34" s="81">
+        <f t="shared" si="7"/>
+        <v>1.2848157899999999</v>
+      </c>
+      <c r="Q34" s="49">
+        <f t="shared" si="8"/>
+        <v>29.067599999999999</v>
+      </c>
+      <c r="R34" s="49">
+        <f t="shared" si="9"/>
+        <v>2.4623499999999998</v>
+      </c>
+      <c r="S34" s="91">
+        <f t="shared" si="10"/>
+        <v>-0.95842593888675776</v>
+      </c>
+      <c r="T34" s="42">
+        <f t="shared" si="11"/>
+        <v>0.21413596500000001</v>
+      </c>
+      <c r="U34" s="43">
+        <f>O34-T34</f>
+        <v>4.9723061132421476E-3</v>
+      </c>
+      <c r="V34" s="39">
+        <f t="shared" si="12"/>
+        <v>6.0468400000000004</v>
+      </c>
+      <c r="W34" s="45">
+        <f t="shared" si="13"/>
+        <v>0.15850029749203842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="55"/>
+      <c r="B35" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42">
+        <f>C35*$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="72">
+        <f>E35*$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="62">
+        <f>F35*$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="62">
+        <f>G35*$G$6</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="62">
+        <f>H35*$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="76">
+        <f>I35*$G$8</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="49">
+        <f t="shared" si="8"/>
+        <v>23.67202</v>
+      </c>
+      <c r="R35" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="43">
+        <f>O35-T35</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="39">
+        <f t="shared" si="12"/>
+        <v>3.4059300000000001</v>
+      </c>
+      <c r="W35" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="55"/>
+      <c r="B36" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="42">
+        <f>数据底稿!M56</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="42">
+        <f>C36*$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="72">
+        <f>E36*$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="62">
+        <f>F36*$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="62">
+        <f>G36*$G$6</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="62">
+        <f>H36*$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="76">
+        <f>I36*$G$8</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="49">
+        <f t="shared" si="8"/>
+        <v>1.5683990000000001</v>
+      </c>
+      <c r="R36" s="49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="43">
+        <f>O36-T36</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="39">
+        <f t="shared" si="12"/>
+        <v>4.4069799999999999</v>
+      </c>
+      <c r="W36" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="55"/>
+      <c r="B37" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="42">
+        <f>数据底稿!P56</f>
+        <v>63.418611708699999</v>
+      </c>
+      <c r="D37" s="42">
+        <f>C37*$B$7</f>
+        <v>6.3418611708700006</v>
+      </c>
+      <c r="E37" s="72">
+        <f t="shared" si="1"/>
+        <v>5.7806207334417818</v>
+      </c>
+      <c r="F37" s="62">
+        <f t="shared" si="2"/>
+        <v>0.39774269204027324</v>
+      </c>
+      <c r="G37" s="62">
+        <f t="shared" si="3"/>
+        <v>5.7818130712362003E-3</v>
+      </c>
+      <c r="H37" s="62">
+        <f t="shared" si="4"/>
+        <v>2.5780385141849078E-5</v>
+      </c>
+      <c r="I37" s="76">
+        <f t="shared" si="5"/>
+        <v>1.7945253124825929E-8</v>
+      </c>
+      <c r="J37" s="72">
+        <f>E37*$G$4</f>
+        <v>8.6709311001626724E-2</v>
+      </c>
+      <c r="K37" s="62">
+        <f>F37*$G$5</f>
+        <v>1.1932280761208197E-2</v>
+      </c>
+      <c r="L37" s="62">
+        <f>G37*$G$6</f>
+        <v>1.7345439213708601E-3</v>
+      </c>
+      <c r="M37" s="62">
+        <f>H37*$G$7</f>
+        <v>1.5468231085109447E-5</v>
+      </c>
+      <c r="N37" s="76">
+        <f>I37*$G$8</f>
+        <v>1.7945253124825929E-8</v>
+      </c>
+      <c r="O37" s="81">
+        <f t="shared" si="6"/>
+        <v>0.10039162186054403</v>
+      </c>
+      <c r="P37" s="81">
+        <f t="shared" si="7"/>
+        <v>0.57076750537830001</v>
+      </c>
+      <c r="Q37" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L32" s="16">
+      <c r="R37" s="49">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="16">
+        <v>0.94874999999999998</v>
+      </c>
+      <c r="S37" s="91">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="16">
+        <v>-0.2775908727611559</v>
+      </c>
+      <c r="T37" s="42">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="16">
+        <v>9.5127917563050002E-2</v>
+      </c>
+      <c r="U37" s="43">
+        <f>O37-T37</f>
+        <v>5.2637042974940235E-3</v>
+      </c>
+      <c r="V37" s="39">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="39">
+        <v>3.5233203100999999</v>
+      </c>
+      <c r="W37" s="45">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="42"/>
-      <c r="S32" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="39">
-        <f>数据底稿!F56</f>
-        <v>78.983999999999995</v>
-      </c>
-      <c r="D33" s="39">
-        <f>C33*$B$7</f>
-        <v>15.796799999999999</v>
-      </c>
-      <c r="E33" s="16">
-        <f t="shared" si="2"/>
-        <v>15.35210382250157</v>
-      </c>
-      <c r="F33" s="16">
-        <f t="shared" si="3"/>
-        <v>0.23040864695638982</v>
-      </c>
-      <c r="G33" s="16">
-        <f t="shared" si="4"/>
-        <v>2.5176959006617413E-3</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" si="5"/>
-        <v>5.1751422320314975E-6</v>
-      </c>
-      <c r="I33" s="16">
-        <f t="shared" si="6"/>
-        <v>8.2882024525024084E-10</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="7"/>
-        <v>0.23028155733752353</v>
-      </c>
-      <c r="K33" s="16">
-        <f t="shared" si="8"/>
-        <v>6.9122594086916947E-3</v>
-      </c>
-      <c r="L33" s="16">
-        <f t="shared" si="9"/>
-        <v>7.5530877019852236E-4</v>
-      </c>
-      <c r="M33" s="16">
-        <f t="shared" si="10"/>
-        <v>3.1050853392188983E-6</v>
-      </c>
-      <c r="N33" s="16">
-        <f t="shared" si="11"/>
-        <v>8.2882024525024084E-10</v>
-      </c>
-      <c r="O33" s="16">
-        <f t="shared" si="12"/>
-        <v>0.2379522314305732</v>
-      </c>
-      <c r="P33" s="39">
-        <f t="shared" si="13"/>
-        <v>0.4759044628611464</v>
-      </c>
-      <c r="Q33" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="42"/>
-      <c r="S33" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="39">
-        <f>数据底稿!I56</f>
-        <v>142.75730999999999</v>
-      </c>
-      <c r="D34" s="39">
-        <f t="shared" ref="D34:D37" si="18">C34*$B$7</f>
-        <v>28.551462000000001</v>
-      </c>
-      <c r="E34" s="16">
-        <f t="shared" si="2"/>
-        <v>27.286579192881241</v>
-      </c>
-      <c r="F34" s="16">
-        <f t="shared" si="3"/>
-        <v>0.85619170170738312</v>
-      </c>
-      <c r="G34" s="16">
-        <f t="shared" si="4"/>
-        <v>1.0767836303052843E-2</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" si="5"/>
-        <v>2.9202797231478814E-6</v>
-      </c>
-      <c r="I34" s="16">
-        <f t="shared" si="6"/>
-        <v>2.2329452029884165E-10</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" si="7"/>
-        <v>0.4092986878932186</v>
-      </c>
-      <c r="K34" s="16">
-        <f t="shared" si="8"/>
-        <v>2.5685751051221492E-2</v>
-      </c>
-      <c r="L34" s="16">
-        <f t="shared" si="9"/>
-        <v>3.2303508909158527E-3</v>
-      </c>
-      <c r="M34" s="16">
-        <f t="shared" si="10"/>
-        <v>1.7521678338887288E-6</v>
-      </c>
-      <c r="N34" s="16">
-        <f t="shared" si="11"/>
-        <v>2.2329452029884165E-10</v>
-      </c>
-      <c r="O34" s="16">
-        <f t="shared" si="12"/>
-        <v>0.43821654222648432</v>
-      </c>
-      <c r="P34" s="39">
-        <f t="shared" si="13"/>
-        <v>0.87643308445296864</v>
-      </c>
-      <c r="Q34" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="42"/>
-      <c r="S34" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="42"/>
-      <c r="S35" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="39">
-        <f>数据底稿!M56</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="39">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="42"/>
-      <c r="S36" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="39">
-        <f>数据底稿!P56</f>
-        <v>63.418611708699999</v>
-      </c>
-      <c r="D37" s="39">
-        <f t="shared" si="18"/>
-        <v>12.683722341740001</v>
-      </c>
-      <c r="E37" s="16">
-        <f t="shared" si="2"/>
-        <v>11.561241466883564</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" si="3"/>
-        <v>0.79548538408054648</v>
-      </c>
-      <c r="G37" s="16">
-        <f t="shared" si="4"/>
-        <v>1.1563626142472401E-2</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" si="5"/>
-        <v>5.1560770283698155E-5</v>
-      </c>
-      <c r="I37" s="16">
-        <f t="shared" si="6"/>
-        <v>3.5890506249651859E-8</v>
-      </c>
-      <c r="J37" s="16">
-        <f t="shared" si="7"/>
-        <v>0.17341862200325345</v>
-      </c>
-      <c r="K37" s="16">
-        <f t="shared" si="8"/>
-        <v>2.3864561522416394E-2</v>
-      </c>
-      <c r="L37" s="16">
-        <f t="shared" si="9"/>
-        <v>3.4690878427417202E-3</v>
-      </c>
-      <c r="M37" s="16">
-        <f t="shared" si="10"/>
-        <v>3.0936462170218894E-5</v>
-      </c>
-      <c r="N37" s="16">
-        <f t="shared" si="11"/>
-        <v>3.5890506249651859E-8</v>
-      </c>
-      <c r="O37" s="16">
-        <f t="shared" si="12"/>
-        <v>0.20078324372108805</v>
-      </c>
-      <c r="P37" s="39">
-        <f t="shared" si="13"/>
-        <v>0.4015664874421761</v>
-      </c>
-      <c r="Q37" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="42"/>
-      <c r="S37" s="44" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
+        <v>7.8786726249501074E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="P39" s="46"/>
+    </row>
+    <row r="42" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="48">
+        <v>42916</v>
+      </c>
+      <c r="B43" s="39" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="41">
-        <v>42916</v>
-      </c>
-      <c r="B43" t="s">
-        <v>164</v>
-      </c>
-      <c r="I43" t="s">
-        <v>166</v>
-      </c>
-      <c r="S43" s="40"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" t="s">
-        <v>161</v>
-      </c>
-      <c r="G44" t="s">
-        <v>162</v>
-      </c>
-      <c r="H44" t="s">
-        <v>165</v>
-      </c>
-      <c r="I44" t="s">
-        <v>163</v>
-      </c>
-      <c r="J44" t="s">
-        <v>159</v>
-      </c>
-      <c r="K44" t="s">
-        <v>160</v>
-      </c>
-      <c r="L44" t="s">
-        <v>161</v>
-      </c>
-      <c r="M44" t="s">
-        <v>162</v>
-      </c>
-      <c r="O44" t="s">
-        <v>172</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="I43" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+    </row>
+    <row r="44" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="U44" s="42"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" t="str">
+      <c r="C44" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q44" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="U44" s="44"/>
+    </row>
+    <row r="45" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="39" t="str">
         <f>[1]!to_tradecode(B45)</f>
         <v>601398</v>
       </c>
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="43">
+      <c r="B45" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="49">
         <f>[1]!s_stmnote_bank(A45,"31",$A$43,100000000)</f>
         <v>131076.89000000001</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="49">
         <f>[1]!s_stmnote_bank(A45,"34",$A$43,100000000)</f>
         <v>5411.48</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="49">
         <f>[1]!s_stmnote_bank(A45,"37",$A$43,100000000)</f>
         <v>1048.5</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="49">
         <f>[1]!s_stmnote_bank(A45,"40",$A$43,100000000)</f>
         <v>928.74</v>
       </c>
-      <c r="G45" s="43">
+      <c r="G45" s="49">
         <f>[1]!s_stmnote_bank(A45,"43",$A$43,100000000)</f>
         <v>193.48</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="49">
         <f>[1]!s_stmnote_bank_1n(A45,$A$43,1,100000000)</f>
         <v>138659.09</v>
       </c>
-      <c r="I45" s="45">
+      <c r="I45" s="50">
         <f>C45/$H45</f>
         <v>0.94531768526679372</v>
       </c>
-      <c r="J45" s="45">
-        <f t="shared" ref="J45:M45" si="19">D45/$H45</f>
+      <c r="J45" s="50">
+        <f t="shared" ref="J45:M45" si="14">D45/$H45</f>
         <v>3.9027228579100008E-2</v>
       </c>
-      <c r="K45" s="45">
-        <f t="shared" si="19"/>
+      <c r="K45" s="50">
+        <f t="shared" si="14"/>
         <v>7.5617112444629486E-3</v>
       </c>
-      <c r="L45" s="45">
-        <f t="shared" si="19"/>
+      <c r="L45" s="50">
+        <f t="shared" si="14"/>
         <v>6.6980102061826603E-3</v>
       </c>
-      <c r="M45" s="45">
-        <f t="shared" si="19"/>
+      <c r="M45" s="50">
+        <f t="shared" si="14"/>
         <v>1.3953647034608404E-3</v>
       </c>
-      <c r="N45" s="40">
+      <c r="N45" s="41">
         <f>SUM(I45:M45)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O45" s="42"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" t="str">
+      <c r="O45" s="44"/>
+      <c r="Q45" s="44">
+        <f>[1]!s_stm07_is(A45,"W99893153",$A$43,1,100000000)</f>
+        <v>1536.87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A46" s="39" t="str">
         <f>[1]!to_tradecode(B46)</f>
         <v>601939</v>
       </c>
-      <c r="B46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="43">
+      <c r="B46" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="49">
         <f>[1]!s_stmnote_bank(A46,"31",$A$43,100000000)</f>
         <v>119629.13</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="49">
         <f>[1]!s_stmnote_bank(A46,"34",$A$43,100000000)</f>
         <v>3553.56</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="49">
         <f>[1]!s_stmnote_bank(A46,"37",$A$43,100000000)</f>
         <v>780.07</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="49">
         <f>[1]!s_stmnote_bank(A46,"40",$A$43,100000000)</f>
         <v>900.44</v>
       </c>
-      <c r="G46" s="43">
+      <c r="G46" s="49">
         <f>[1]!s_stmnote_bank(A46,"43",$A$43,100000000)</f>
         <v>207.01</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="49">
         <f>[1]!s_stmnote_bank_1n(A46,$A$43,1,100000000)</f>
         <v>125070.21</v>
       </c>
-      <c r="I46" s="45">
-        <f t="shared" ref="I46:I69" si="20">C46/$H46</f>
+      <c r="I46" s="50">
+        <f t="shared" ref="I46:I69" si="15">C46/$H46</f>
         <v>0.95649579544161634</v>
       </c>
-      <c r="J46" s="45">
-        <f t="shared" ref="J46:J69" si="21">D46/$H46</f>
+      <c r="J46" s="50">
+        <f t="shared" ref="J46:J69" si="16">D46/$H46</f>
         <v>2.8412521255061454E-2</v>
       </c>
-      <c r="K46" s="45">
-        <f t="shared" ref="K46:K69" si="22">E46/$H46</f>
+      <c r="K46" s="50">
+        <f t="shared" ref="K46:K69" si="17">E46/$H46</f>
         <v>6.2370567699534529E-3</v>
       </c>
-      <c r="L46" s="45">
-        <f t="shared" ref="L46:L69" si="23">F46/$H46</f>
+      <c r="L46" s="50">
+        <f t="shared" ref="L46:L69" si="18">F46/$H46</f>
         <v>7.1994761982089898E-3</v>
       </c>
-      <c r="M46" s="45">
-        <f t="shared" ref="M46:M69" si="24">G46/$H46</f>
+      <c r="M46" s="50">
+        <f t="shared" ref="M46:M69" si="19">G46/$H46</f>
         <v>1.6551503351597474E-3</v>
       </c>
-      <c r="N46" s="40">
-        <f t="shared" ref="N46:N69" si="25">SUM(I46:M46)</f>
+      <c r="N46" s="41">
+        <f t="shared" ref="N46:N69" si="20">SUM(I46:M46)</f>
         <v>1</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="44">
         <v>3172.48</v>
       </c>
-      <c r="P46" s="42">
+      <c r="P46" s="39">
         <v>17.059999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" t="str">
+      <c r="Q46" s="44">
+        <f>[1]!s_stm07_is(A46,"W99893153",$A$43,1,100000000)</f>
+        <v>1390.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A47" s="39" t="str">
         <f>[1]!to_tradecode(B47)</f>
         <v>601288</v>
       </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="43">
+      <c r="B47" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="49">
         <f>[1]!s_stmnote_bank(A47,"31",$A$43,100000000)</f>
         <v>98066.33</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="49">
         <f>[1]!s_stmnote_bank(A47,"34",$A$43,100000000)</f>
         <v>3768.54</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="49">
         <f>[1]!s_stmnote_bank(A47,"37",$A$43,100000000)</f>
         <v>398.76</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="49">
         <f>[1]!s_stmnote_bank(A47,"40",$A$43,100000000)</f>
         <v>1649.35</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="49">
         <f>[1]!s_stmnote_bank(A47,"43",$A$43,100000000)</f>
         <v>236.2</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H47" s="49">
         <f>[1]!s_stmnote_bank_1n(A47,$A$43,1,100000000)</f>
         <v>104119.18</v>
       </c>
-      <c r="I47" s="45">
+      <c r="I47" s="50">
+        <f t="shared" si="15"/>
+        <v>0.94186613840024491</v>
+      </c>
+      <c r="J47" s="50">
+        <f t="shared" si="16"/>
+        <v>3.6194484051833682E-2</v>
+      </c>
+      <c r="K47" s="50">
+        <f t="shared" si="17"/>
+        <v>3.8298419176947033E-3</v>
+      </c>
+      <c r="L47" s="50">
+        <f t="shared" si="18"/>
+        <v>1.5840981459900087E-2</v>
+      </c>
+      <c r="M47" s="50">
+        <f t="shared" si="19"/>
+        <v>2.2685541703267352E-3</v>
+      </c>
+      <c r="N47" s="41">
         <f t="shared" si="20"/>
-        <v>0.94186613840024491</v>
-      </c>
-      <c r="J47" s="45">
-        <f t="shared" si="21"/>
-        <v>3.6194484051833682E-2</v>
-      </c>
-      <c r="K47" s="45">
-        <f t="shared" si="22"/>
-        <v>3.8298419176947033E-3</v>
-      </c>
-      <c r="L47" s="45">
-        <f t="shared" si="23"/>
-        <v>1.5840981459900087E-2</v>
-      </c>
-      <c r="M47" s="45">
-        <f t="shared" si="24"/>
-        <v>2.2685541703267352E-3</v>
-      </c>
-      <c r="N47" s="40">
-        <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O47" s="42">
+      <c r="O47" s="44">
         <v>4347.78</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="39">
         <v>48.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" t="str">
+      <c r="Q47" s="44">
+        <f>[1]!s_stm07_is(A47,"W99893153",$A$43,1,100000000)</f>
+        <v>1086.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="39" t="str">
         <f>[1]!to_tradecode(B48)</f>
         <v>601988</v>
       </c>
-      <c r="B48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="43">
+      <c r="B48" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="49">
         <f>[1]!s_stmnote_bank(A48,"31",$A$43,100000000)</f>
         <v>102086.58</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="49">
         <f>[1]!s_stmnote_bank(A48,"34",$A$43,100000000)</f>
         <v>2950.2</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="49">
         <f>[1]!s_stmnote_bank(A48,"37",$A$43,100000000)</f>
         <v>638.73</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="49">
         <f>[1]!s_stmnote_bank(A48,"40",$A$43,100000000)</f>
         <v>318.69</v>
       </c>
-      <c r="G48" s="43">
+      <c r="G48" s="49">
         <f>[1]!s_stmnote_bank(A48,"43",$A$43,100000000)</f>
         <v>512.83000000000004</v>
       </c>
-      <c r="H48" s="43">
+      <c r="H48" s="49">
         <f>[1]!s_stmnote_bank_1n(A48,$A$43,1,100000000)</f>
         <v>106507.03</v>
       </c>
-      <c r="I48" s="45">
+      <c r="I48" s="50">
+        <f t="shared" si="15"/>
+        <v>0.95849616687274075</v>
+      </c>
+      <c r="J48" s="50">
+        <f t="shared" si="16"/>
+        <v>2.7699580018333062E-2</v>
+      </c>
+      <c r="K48" s="50">
+        <f t="shared" si="17"/>
+        <v>5.9970689258727807E-3</v>
+      </c>
+      <c r="L48" s="50">
+        <f t="shared" si="18"/>
+        <v>2.9921968531091327E-3</v>
+      </c>
+      <c r="M48" s="50">
+        <f t="shared" si="19"/>
+        <v>4.8149873299443242E-3</v>
+      </c>
+      <c r="N48" s="41">
         <f t="shared" si="20"/>
-        <v>0.95849616687274075</v>
-      </c>
-      <c r="J48" s="45">
-        <f t="shared" si="21"/>
-        <v>2.7699580018333062E-2</v>
-      </c>
-      <c r="K48" s="45">
-        <f t="shared" si="22"/>
-        <v>5.9970689258727807E-3</v>
-      </c>
-      <c r="L48" s="45">
-        <f t="shared" si="23"/>
-        <v>2.9921968531091327E-3</v>
-      </c>
-      <c r="M48" s="45">
-        <f t="shared" si="24"/>
-        <v>4.8149873299443242E-3</v>
-      </c>
-      <c r="N48" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O48" s="42"/>
-      <c r="P48">
+      <c r="O48" s="44"/>
+      <c r="P48" s="39">
         <v>24.59</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" t="str">
+      <c r="Q48" s="44">
+        <f>[1]!s_stm07_is(A48,"W99893153",$A$43,1,100000000)</f>
+        <v>1105.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="39" t="str">
         <f>[1]!to_tradecode(B49)</f>
         <v>601328</v>
       </c>
-      <c r="B49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="43">
+      <c r="B49" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="49">
         <f>[1]!s_stmnote_bank(A49,"31",$A$43,100000000)</f>
         <v>41777.620000000003</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="49">
         <f>[1]!s_stmnote_bank(A49,"34",$A$43,100000000)</f>
         <v>1264.32</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="49">
         <f>[1]!s_stmnote_bank(A49,"37",$A$43,100000000)</f>
         <v>187.88</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="49">
         <f>[1]!s_stmnote_bank(A49,"40",$A$43,100000000)</f>
         <v>253.28</v>
       </c>
-      <c r="G49" s="43">
+      <c r="G49" s="49">
         <f>[1]!s_stmnote_bank(A49,"43",$A$43,100000000)</f>
         <v>218.37</v>
       </c>
-      <c r="H49" s="43">
+      <c r="H49" s="49">
         <f>[1]!s_stmnote_bank_1n(A49,$A$43,1,100000000)</f>
         <v>43701.47</v>
       </c>
-      <c r="I49" s="45">
+      <c r="I49" s="50">
+        <f t="shared" si="15"/>
+        <v>0.95597745339001183</v>
+      </c>
+      <c r="J49" s="50">
+        <f t="shared" si="16"/>
+        <v>2.8930834592062919E-2</v>
+      </c>
+      <c r="K49" s="50">
+        <f t="shared" si="17"/>
+        <v>4.2991688837926961E-3</v>
+      </c>
+      <c r="L49" s="50">
+        <f t="shared" si="18"/>
+        <v>5.795686049004759E-3</v>
+      </c>
+      <c r="M49" s="50">
+        <f t="shared" si="19"/>
+        <v>4.9968570851278002E-3</v>
+      </c>
+      <c r="N49" s="41">
         <f t="shared" si="20"/>
-        <v>0.95597745339001183</v>
-      </c>
-      <c r="J49" s="45">
-        <f t="shared" si="21"/>
-        <v>2.8930834592062919E-2</v>
-      </c>
-      <c r="K49" s="45">
-        <f t="shared" si="22"/>
-        <v>4.2991688837926961E-3</v>
-      </c>
-      <c r="L49" s="45">
-        <f t="shared" si="23"/>
-        <v>5.795686049004759E-3</v>
-      </c>
-      <c r="M49" s="45">
-        <f t="shared" si="24"/>
-        <v>4.9968570851278002E-3</v>
-      </c>
-      <c r="N49" s="40">
-        <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O49" s="42"/>
-      <c r="P49">
+      <c r="O49" s="44"/>
+      <c r="P49" s="39">
         <v>26.55</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" t="str">
+      <c r="Q49" s="44">
+        <f>[1]!s_stm07_is(A49,"W99893153",$A$43,1,100000000)</f>
+        <v>392.22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="39" t="str">
         <f>[1]!to_tradecode(B50)</f>
         <v>600036</v>
       </c>
-      <c r="B50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="43">
+      <c r="B50" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="49">
         <f>[1]!s_stmnote_bank(A50,"31",$A$43,100000000)</f>
         <v>34187.4</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="49">
         <f>[1]!s_stmnote_bank(A50,"34",$A$43,100000000)</f>
         <v>607.39</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="49">
         <f>[1]!s_stmnote_bank(A50,"37",$A$43,100000000)</f>
         <v>215.44</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="49">
         <f>[1]!s_stmnote_bank(A50,"40",$A$43,100000000)</f>
         <v>235.31</v>
       </c>
-      <c r="G50" s="43">
+      <c r="G50" s="49">
         <f>[1]!s_stmnote_bank(A50,"43",$A$43,100000000)</f>
         <v>153.84</v>
       </c>
-      <c r="H50" s="43">
+      <c r="H50" s="49">
         <f>[1]!s_stmnote_bank_1n(A50,$A$43,1,100000000)</f>
         <v>35399.379999999997</v>
       </c>
-      <c r="I50" s="45">
+      <c r="I50" s="50">
+        <f t="shared" si="15"/>
+        <v>0.96576267719943132</v>
+      </c>
+      <c r="J50" s="50">
+        <f t="shared" si="16"/>
+        <v>1.7158210115544397E-2</v>
+      </c>
+      <c r="K50" s="50">
+        <f t="shared" si="17"/>
+        <v>6.0859822968650865E-3</v>
+      </c>
+      <c r="L50" s="50">
+        <f t="shared" si="18"/>
+        <v>6.647291562733585E-3</v>
+      </c>
+      <c r="M50" s="50">
+        <f t="shared" si="19"/>
+        <v>4.3458388254257567E-3</v>
+      </c>
+      <c r="N50" s="41">
         <f t="shared" si="20"/>
-        <v>0.96576267719943132</v>
-      </c>
-      <c r="J50" s="45">
-        <f t="shared" si="21"/>
-        <v>1.7158210115544397E-2</v>
-      </c>
-      <c r="K50" s="45">
-        <f t="shared" si="22"/>
-        <v>6.0859822968650865E-3</v>
-      </c>
-      <c r="L50" s="45">
-        <f t="shared" si="23"/>
-        <v>6.647291562733585E-3</v>
-      </c>
-      <c r="M50" s="45">
-        <f t="shared" si="24"/>
-        <v>4.3458388254257567E-3</v>
-      </c>
-      <c r="N50" s="40">
-        <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O50" s="42">
+      <c r="O50" s="44">
         <v>1452.02</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="39">
         <v>43.06</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" t="str">
+      <c r="Q50" s="44">
+        <f>[1]!s_stm07_is(A50,"W99893153",$A$43,1,100000000)</f>
+        <v>394.66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A51" s="39" t="str">
         <f>[1]!to_tradecode(B51)</f>
         <v>601998</v>
       </c>
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="43">
+      <c r="B51" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="49">
         <f>[1]!s_stmnote_bank(A51,"31",$A$43,100000000)</f>
         <v>29689.5</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="49">
         <f>[1]!s_stmnote_bank(A51,"34",$A$43,100000000)</f>
         <v>710.26</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="49">
         <f>[1]!s_stmnote_bank(A51,"37",$A$43,100000000)</f>
         <v>283.48</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="49">
         <f>[1]!s_stmnote_bank(A51,"40",$A$43,100000000)</f>
         <v>183.14</v>
       </c>
-      <c r="G51" s="43">
+      <c r="G51" s="49">
         <f>[1]!s_stmnote_bank(A51,"43",$A$43,100000000)</f>
         <v>44.57</v>
       </c>
-      <c r="H51" s="43">
+      <c r="H51" s="49">
         <f>[1]!s_stmnote_bank_1n(A51,$A$43,1,100000000)</f>
         <v>30910.95</v>
       </c>
-      <c r="I51" s="45">
+      <c r="I51" s="50">
+        <f t="shared" si="15"/>
+        <v>0.9604848767184444</v>
+      </c>
+      <c r="J51" s="50">
+        <f t="shared" si="16"/>
+        <v>2.2977617963860702E-2</v>
+      </c>
+      <c r="K51" s="50">
+        <f t="shared" si="17"/>
+        <v>9.1708601644401103E-3</v>
+      </c>
+      <c r="L51" s="50">
+        <f t="shared" si="18"/>
+        <v>5.9247612900929928E-3</v>
+      </c>
+      <c r="M51" s="50">
+        <f t="shared" si="19"/>
+        <v>1.4418838631617599E-3</v>
+      </c>
+      <c r="N51" s="41">
         <f t="shared" si="20"/>
-        <v>0.9604848767184444</v>
-      </c>
-      <c r="J51" s="45">
-        <f t="shared" si="21"/>
-        <v>2.2977617963860702E-2</v>
-      </c>
-      <c r="K51" s="45">
-        <f t="shared" si="22"/>
-        <v>9.1708601644401103E-3</v>
-      </c>
-      <c r="L51" s="45">
-        <f t="shared" si="23"/>
-        <v>5.9247612900929928E-3</v>
-      </c>
-      <c r="M51" s="45">
-        <f t="shared" si="24"/>
-        <v>1.4418838631617599E-3</v>
-      </c>
-      <c r="N51" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O51" s="42">
+      <c r="O51" s="44">
         <v>873.12</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="39">
         <v>25.36</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" t="str">
+      <c r="Q51" s="44">
+        <f>[1]!s_stm07_is(A51,"W99893153",$A$43,1,100000000)</f>
+        <v>241.64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="39" t="str">
         <f>[1]!to_tradecode(B52)</f>
         <v>600000</v>
       </c>
-      <c r="B52" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="43">
+      <c r="B52" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="49">
         <f>[1]!s_stmnote_bank(A52,"31",$A$43,100000000)</f>
         <v>28482.22</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="49">
         <f>[1]!s_stmnote_bank(A52,"34",$A$43,100000000)</f>
         <v>1158.67</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="49">
         <f>[1]!s_stmnote_bank(A52,"37",$A$43,100000000)</f>
         <v>272.98</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="49">
         <f>[1]!s_stmnote_bank(A52,"40",$A$43,100000000)</f>
         <v>223.38</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="49">
         <f>[1]!s_stmnote_bank(A52,"43",$A$43,100000000)</f>
         <v>137.61000000000001</v>
       </c>
-      <c r="H52" s="43">
+      <c r="H52" s="49">
         <f>[1]!s_stmnote_bank_1n(A52,$A$43,1,100000000)</f>
         <v>30274.86</v>
       </c>
-      <c r="I52" s="45">
+      <c r="I52" s="50">
+        <f t="shared" si="15"/>
+        <v>0.94078783518734688</v>
+      </c>
+      <c r="J52" s="50">
+        <f t="shared" si="16"/>
+        <v>3.8271688126716358E-2</v>
+      </c>
+      <c r="K52" s="50">
+        <f t="shared" si="17"/>
+        <v>9.0167221252220493E-3</v>
+      </c>
+      <c r="L52" s="50">
+        <f t="shared" si="18"/>
+        <v>7.3783991073782008E-3</v>
+      </c>
+      <c r="M52" s="50">
+        <f t="shared" si="19"/>
+        <v>4.5453554533365307E-3</v>
+      </c>
+      <c r="N52" s="41">
         <f t="shared" si="20"/>
-        <v>0.94078783518734688</v>
-      </c>
-      <c r="J52" s="45">
-        <f t="shared" si="21"/>
-        <v>3.8271688126716358E-2</v>
-      </c>
-      <c r="K52" s="45">
-        <f t="shared" si="22"/>
-        <v>9.0167221252220493E-3</v>
-      </c>
-      <c r="L52" s="45">
-        <f t="shared" si="23"/>
-        <v>7.3783991073782008E-3</v>
-      </c>
-      <c r="M52" s="45">
-        <f t="shared" si="24"/>
-        <v>4.5453554533365307E-3</v>
-      </c>
-      <c r="N52" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O52" s="43">
+      <c r="O52" s="44">
         <v>1084</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="39">
         <v>65.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" t="str">
+      <c r="Q52" s="44">
+        <f>[1]!s_stm07_is(A52,"W99893153",$A$43,1,100000000)</f>
+        <v>285.22000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="39" t="str">
         <f>[1]!to_tradecode(B53)</f>
         <v>600016</v>
       </c>
-      <c r="B53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="43">
+      <c r="B53" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="49">
         <f>[1]!s_stmnote_bank(A53,"31",$A$43,100000000)</f>
         <v>25611.1</v>
       </c>
-      <c r="D53" s="43">
+      <c r="D53" s="49">
         <f>[1]!s_stmnote_bank(A53,"34",$A$43,100000000)</f>
         <v>995.74</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="49">
         <f>[1]!s_stmnote_bank(A53,"37",$A$43,100000000)</f>
         <v>167.73</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F53" s="49">
         <f>[1]!s_stmnote_bank(A53,"40",$A$43,100000000)</f>
         <v>203.31</v>
       </c>
-      <c r="G53" s="43">
+      <c r="G53" s="49">
         <f>[1]!s_stmnote_bank(A53,"43",$A$43,100000000)</f>
         <v>85.06</v>
       </c>
-      <c r="H53" s="43">
+      <c r="H53" s="49">
         <f>[1]!s_stmnote_bank_1n(A53,$A$43,1,100000000)</f>
         <v>27062.94</v>
       </c>
-      <c r="I53" s="45">
+      <c r="I53" s="50">
+        <f t="shared" si="15"/>
+        <v>0.94635320478854112</v>
+      </c>
+      <c r="J53" s="50">
+        <f t="shared" si="16"/>
+        <v>3.6793489546959796E-2</v>
+      </c>
+      <c r="K53" s="50">
+        <f t="shared" si="17"/>
+        <v>6.1977745211717573E-3</v>
+      </c>
+      <c r="L53" s="50">
+        <f t="shared" si="18"/>
+        <v>7.5124875567842966E-3</v>
+      </c>
+      <c r="M53" s="50">
+        <f t="shared" si="19"/>
+        <v>3.1430435865430735E-3</v>
+      </c>
+      <c r="N53" s="41">
         <f t="shared" si="20"/>
-        <v>0.94635320478854112</v>
-      </c>
-      <c r="J53" s="45">
-        <f t="shared" si="21"/>
-        <v>3.6793489546959796E-2</v>
-      </c>
-      <c r="K53" s="45">
-        <f t="shared" si="22"/>
-        <v>6.1977745211717573E-3</v>
-      </c>
-      <c r="L53" s="45">
-        <f t="shared" si="23"/>
-        <v>7.5124875567842966E-3</v>
-      </c>
-      <c r="M53" s="45">
-        <f t="shared" si="24"/>
-        <v>3.1430435865430735E-3</v>
-      </c>
-      <c r="N53" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O53" s="42"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" t="str">
+      <c r="O53" s="44"/>
+      <c r="P53" s="39">
+        <v>20.32</v>
+      </c>
+      <c r="Q53" s="44">
+        <f>[1]!s_stm07_is(A53,"W99893153",$A$43,1,100000000)</f>
+        <v>286.14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A54" s="39" t="str">
         <f>[1]!to_tradecode(B54)</f>
         <v>601166</v>
       </c>
-      <c r="B54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="43">
+      <c r="B54" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="49">
         <f>[1]!s_stmnote_bank(A54,"31",$A$43,100000000)</f>
         <v>21825.74</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="49">
         <f>[1]!s_stmnote_bank(A54,"34",$A$43,100000000)</f>
         <v>654.67999999999995</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="49">
         <f>[1]!s_stmnote_bank(A54,"37",$A$43,100000000)</f>
         <v>137.94999999999999</v>
       </c>
-      <c r="F54" s="43">
+      <c r="F54" s="49">
         <f>[1]!s_stmnote_bank(A54,"40",$A$43,100000000)</f>
         <v>163.87</v>
       </c>
-      <c r="G54" s="43">
+      <c r="G54" s="49">
         <f>[1]!s_stmnote_bank(A54,"43",$A$43,100000000)</f>
         <v>64.41</v>
       </c>
-      <c r="H54" s="43">
+      <c r="H54" s="49">
         <f>[1]!s_stmnote_bank_1n(A54,$A$43,1,100000000)</f>
         <v>22846.65</v>
       </c>
-      <c r="I54" s="45">
+      <c r="I54" s="50">
+        <f t="shared" si="15"/>
+        <v>0.95531467414259863</v>
+      </c>
+      <c r="J54" s="50">
+        <f t="shared" si="16"/>
+        <v>2.8655404621684137E-2</v>
+      </c>
+      <c r="K54" s="50">
+        <f t="shared" si="17"/>
+        <v>6.0380843581006394E-3</v>
+      </c>
+      <c r="L54" s="50">
+        <f t="shared" si="18"/>
+        <v>7.1726051740627177E-3</v>
+      </c>
+      <c r="M54" s="50">
+        <f t="shared" si="19"/>
+        <v>2.8192317035539123E-3</v>
+      </c>
+      <c r="N54" s="41">
         <f t="shared" si="20"/>
-        <v>0.95531467414259863</v>
-      </c>
-      <c r="J54" s="45">
-        <f t="shared" si="21"/>
-        <v>2.8655404621684137E-2</v>
-      </c>
-      <c r="K54" s="45">
-        <f t="shared" si="22"/>
-        <v>6.0380843581006394E-3</v>
-      </c>
-      <c r="L54" s="45">
-        <f t="shared" si="23"/>
-        <v>7.1726051740627177E-3</v>
-      </c>
-      <c r="M54" s="45">
-        <f t="shared" si="24"/>
-        <v>2.8192317035539123E-3</v>
-      </c>
-      <c r="N54" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O54" s="42"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" t="str">
+      <c r="O54" s="44">
+        <v>1052.3</v>
+      </c>
+      <c r="P54" s="39">
+        <v>159.46</v>
+      </c>
+      <c r="Q54" s="44">
+        <f>[1]!s_stm07_is(A54,"W99893153",$A$43,1,100000000)</f>
+        <v>318.39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A55" s="39" t="str">
         <f>[1]!to_tradecode(B55)</f>
         <v>601818</v>
       </c>
-      <c r="B55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="43">
+      <c r="B55" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="49">
         <f>[1]!s_stmnote_bank(A55,"31",$A$43,100000000)</f>
         <v>18681.919999999998</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="49">
         <f>[1]!s_stmnote_bank(A55,"34",$A$43,100000000)</f>
         <v>651.95000000000005</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="49">
         <f>[1]!s_stmnote_bank(A55,"37",$A$43,100000000)</f>
         <v>111.15</v>
       </c>
-      <c r="F55" s="43">
+      <c r="F55" s="49">
         <f>[1]!s_stmnote_bank(A55,"40",$A$43,100000000)</f>
         <v>148.63999999999999</v>
       </c>
-      <c r="G55" s="43">
+      <c r="G55" s="49">
         <f>[1]!s_stmnote_bank(A55,"43",$A$43,100000000)</f>
         <v>50.82</v>
       </c>
-      <c r="H55" s="43">
+      <c r="H55" s="49">
         <f>[1]!s_stmnote_bank_1n(A55,$A$43,1,100000000)</f>
         <v>19644.48</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="50">
+        <f t="shared" si="15"/>
+        <v>0.95100099366335977</v>
+      </c>
+      <c r="J55" s="50">
+        <f t="shared" si="16"/>
+        <v>3.318743993223542E-2</v>
+      </c>
+      <c r="K55" s="50">
+        <f t="shared" si="17"/>
+        <v>5.6580779944289698E-3</v>
+      </c>
+      <c r="L55" s="50">
+        <f t="shared" si="18"/>
+        <v>7.5665021420775703E-3</v>
+      </c>
+      <c r="M55" s="50">
+        <f t="shared" si="19"/>
+        <v>2.5869862678981575E-3</v>
+      </c>
+      <c r="N55" s="41">
         <f t="shared" si="20"/>
-        <v>0.95100099366335977</v>
-      </c>
-      <c r="J55" s="45">
-        <f t="shared" si="21"/>
-        <v>3.318743993223542E-2</v>
-      </c>
-      <c r="K55" s="45">
-        <f t="shared" si="22"/>
-        <v>5.6580779944289698E-3</v>
-      </c>
-      <c r="L55" s="45">
-        <f t="shared" si="23"/>
-        <v>7.5665021420775703E-3</v>
-      </c>
-      <c r="M55" s="45">
-        <f t="shared" si="24"/>
-        <v>2.5869862678981575E-3</v>
-      </c>
-      <c r="N55" s="40">
-        <f t="shared" si="25"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="O55" s="42"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" t="str">
+      <c r="O55" s="44">
+        <v>575.38</v>
+      </c>
+      <c r="P55" s="39">
+        <v>20.92</v>
+      </c>
+      <c r="Q55" s="44">
+        <f>[1]!s_stm07_is(A55,"W99893153",$A$43,1,100000000)</f>
+        <v>169.72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A56" s="39" t="str">
         <f>[1]!to_tradecode(B56)</f>
         <v>600015</v>
       </c>
-      <c r="B56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="43">
+      <c r="B56" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="49">
         <f>[1]!s_stmnote_bank(A56,"31",$A$43,100000000)</f>
         <v>12293.8</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="49">
         <f>[1]!s_stmnote_bank(A56,"34",$A$43,100000000)</f>
         <v>581.22</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="49">
         <f>[1]!s_stmnote_bank(A56,"37",$A$43,100000000)</f>
         <v>91.28</v>
       </c>
-      <c r="F56" s="43">
+      <c r="F56" s="49">
         <f>[1]!s_stmnote_bank(A56,"40",$A$43,100000000)</f>
         <v>88.25</v>
       </c>
-      <c r="G56" s="43">
+      <c r="G56" s="49">
         <f>[1]!s_stmnote_bank(A56,"43",$A$43,100000000)</f>
         <v>40.98</v>
       </c>
-      <c r="H56" s="43">
+      <c r="H56" s="49">
         <f>[1]!s_stmnote_bank_1n(A56,$A$43,1,100000000)</f>
         <v>13095.53</v>
       </c>
-      <c r="I56" s="45">
+      <c r="I56" s="50">
+        <f t="shared" si="15"/>
+        <v>0.93877834650449421</v>
+      </c>
+      <c r="J56" s="50">
+        <f t="shared" si="16"/>
+        <v>4.438308338799575E-2</v>
+      </c>
+      <c r="K56" s="50">
+        <f t="shared" si="17"/>
+        <v>6.970317352562286E-3</v>
+      </c>
+      <c r="L56" s="50">
+        <f t="shared" si="18"/>
+        <v>6.7389406919765747E-3</v>
+      </c>
+      <c r="M56" s="50">
+        <f t="shared" si="19"/>
+        <v>3.1293120629711049E-3</v>
+      </c>
+      <c r="N56" s="41">
         <f t="shared" si="20"/>
-        <v>0.93877834650449421</v>
-      </c>
-      <c r="J56" s="45">
-        <f t="shared" si="21"/>
-        <v>4.438308338799575E-2</v>
-      </c>
-      <c r="K56" s="45">
-        <f t="shared" si="22"/>
-        <v>6.970317352562286E-3</v>
-      </c>
-      <c r="L56" s="45">
-        <f t="shared" si="23"/>
-        <v>6.7389406919765747E-3</v>
-      </c>
-      <c r="M56" s="45">
-        <f t="shared" si="24"/>
-        <v>3.1293120629711049E-3</v>
-      </c>
-      <c r="N56" s="40">
-        <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O56" s="42"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" t="str">
+      <c r="O56" s="44"/>
+      <c r="P56" s="39">
+        <v>14.73</v>
+      </c>
+      <c r="Q56" s="44">
+        <f>[1]!s_stm07_is(A56,"W99893153",$A$43,1,100000000)</f>
+        <v>99.07</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="39" t="str">
         <f>[1]!to_tradecode(B57)</f>
         <v>000001</v>
       </c>
-      <c r="B57" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="43">
+      <c r="B57" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="49">
         <f>[1]!s_stmnote_bank(A57,"31",$A$43,100000000)</f>
         <v>15002.35</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D57" s="49">
         <f>[1]!s_stmnote_bank(A57,"34",$A$43,100000000)</f>
         <v>660.09</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="49">
         <f>[1]!s_stmnote_bank(A57,"37",$A$43,100000000)</f>
         <v>137.6</v>
       </c>
-      <c r="F57" s="43">
+      <c r="F57" s="49">
         <f>[1]!s_stmnote_bank(A57,"40",$A$43,100000000)</f>
         <v>49.77</v>
       </c>
-      <c r="G57" s="43">
+      <c r="G57" s="49">
         <f>[1]!s_stmnote_bank(A57,"43",$A$43,100000000)</f>
         <v>93</v>
       </c>
-      <c r="H57" s="43">
+      <c r="H57" s="49">
         <f>[1]!s_stmnote_bank_1n(A57,$A$43,1,100000000)</f>
         <v>15942.81</v>
       </c>
-      <c r="I57" s="45">
+      <c r="I57" s="50">
+        <f t="shared" si="15"/>
+        <v>0.94101039904508688</v>
+      </c>
+      <c r="J57" s="50">
+        <f t="shared" si="16"/>
+        <v>4.1403617053706342E-2</v>
+      </c>
+      <c r="K57" s="50">
+        <f t="shared" si="17"/>
+        <v>8.6308498940901885E-3</v>
+      </c>
+      <c r="L57" s="50">
+        <f t="shared" si="18"/>
+        <v>3.1217834246284066E-3</v>
+      </c>
+      <c r="M57" s="50">
+        <f t="shared" si="19"/>
+        <v>5.8333505824882817E-3</v>
+      </c>
+      <c r="N57" s="41">
         <f t="shared" si="20"/>
-        <v>0.94101039904508688</v>
-      </c>
-      <c r="J57" s="45">
-        <f t="shared" si="21"/>
-        <v>4.1403617053706342E-2</v>
-      </c>
-      <c r="K57" s="45">
-        <f t="shared" si="22"/>
-        <v>8.6308498940901885E-3</v>
-      </c>
-      <c r="L57" s="45">
-        <f t="shared" si="23"/>
-        <v>3.1217834246284066E-3</v>
-      </c>
-      <c r="M57" s="45">
-        <f t="shared" si="24"/>
-        <v>5.8333505824882817E-3</v>
-      </c>
-      <c r="N57" s="40">
-        <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O57" s="42"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" t="str">
+      <c r="O57" s="44"/>
+      <c r="P57" s="51">
+        <v>23.55</v>
+      </c>
+      <c r="Q57" s="44">
+        <f>[1]!s_stm07_is(A57,"W99893153",$A$43,1,100000000)</f>
+        <v>125.54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A58" s="39" t="str">
         <f>[1]!to_tradecode(B58)</f>
         <v>601169</v>
       </c>
-      <c r="B58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="43">
+      <c r="B58" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="49">
         <f>[1]!s_stmnote_bank(A58,"31",$A$43,100000000)</f>
         <v>9805.0815999999995</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="49">
         <f>[1]!s_stmnote_bank(A58,"34",$A$43,100000000)</f>
         <v>117.7701</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="49">
         <f>[1]!s_stmnote_bank(A58,"37",$A$43,100000000)</f>
         <v>93.376300000000001</v>
       </c>
-      <c r="F58" s="43">
+      <c r="F58" s="49">
         <f>[1]!s_stmnote_bank(A58,"40",$A$43,100000000)</f>
         <v>5.6585999999999999</v>
       </c>
-      <c r="G58" s="43">
+      <c r="G58" s="49">
         <f>[1]!s_stmnote_bank(A58,"43",$A$43,100000000)</f>
         <v>19.6464</v>
       </c>
-      <c r="H58" s="43">
+      <c r="H58" s="49">
         <v>10041.532999999999</v>
       </c>
-      <c r="I58" s="45">
+      <c r="I58" s="50">
+        <f t="shared" si="15"/>
+        <v>0.97645265917066648</v>
+      </c>
+      <c r="J58" s="50">
+        <f t="shared" si="16"/>
+        <v>1.172829885635988E-2</v>
+      </c>
+      <c r="K58" s="50">
+        <f t="shared" si="17"/>
+        <v>9.2990084282947635E-3</v>
+      </c>
+      <c r="L58" s="50">
+        <f t="shared" si="18"/>
+        <v>5.6351953431811662E-4</v>
+      </c>
+      <c r="M58" s="50">
+        <f t="shared" si="19"/>
+        <v>1.9565140103607686E-3</v>
+      </c>
+      <c r="N58" s="41">
         <f t="shared" si="20"/>
-        <v>0.97645265917066648</v>
-      </c>
-      <c r="J58" s="45">
-        <f t="shared" si="21"/>
-        <v>1.172829885635988E-2</v>
-      </c>
-      <c r="K58" s="45">
-        <f t="shared" si="22"/>
-        <v>9.2990084282947635E-3</v>
-      </c>
-      <c r="L58" s="45">
-        <f t="shared" si="23"/>
-        <v>5.6351953431811662E-4</v>
-      </c>
-      <c r="M58" s="45">
-        <f t="shared" si="24"/>
-        <v>1.9565140103607686E-3</v>
-      </c>
-      <c r="N58" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O58" s="42"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" t="str">
+      <c r="O58" s="44"/>
+      <c r="P58" s="39">
+        <v>97.36</v>
+      </c>
+      <c r="Q58" s="44">
+        <f>[1]!s_stm07_is(A58,"W99893153",$A$43,1,100000000)</f>
+        <v>111.55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A59" s="39" t="str">
         <f>[1]!to_tradecode(B59)</f>
         <v>601009</v>
       </c>
-      <c r="B59" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="43">
+      <c r="B59" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="49">
         <f>[1]!s_stmnote_bank(A59,"31",$A$43,100000000)</f>
         <v>3586.1287200000002</v>
       </c>
-      <c r="D59" s="43">
+      <c r="D59" s="49">
         <f>[1]!s_stmnote_bank(A59,"34",$A$43,100000000)</f>
         <v>67.222840000000005</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="49">
         <f>[1]!s_stmnote_bank(A59,"37",$A$43,100000000)</f>
         <v>21.713480000000001</v>
       </c>
-      <c r="F59" s="43">
+      <c r="F59" s="49">
         <f>[1]!s_stmnote_bank(A59,"40",$A$43,100000000)</f>
         <v>7.54765</v>
       </c>
-      <c r="G59" s="43">
+      <c r="G59" s="49">
         <f>[1]!s_stmnote_bank(A59,"43",$A$43,100000000)</f>
         <v>2.6046</v>
       </c>
-      <c r="H59" s="43">
+      <c r="H59" s="49">
         <f>[1]!s_stmnote_bank_1n(A59,$A$43,1,100000000)</f>
         <v>3685.21729</v>
       </c>
-      <c r="I59" s="45">
+      <c r="I59" s="50">
+        <f t="shared" si="15"/>
+        <v>0.97311187856713877</v>
+      </c>
+      <c r="J59" s="50">
+        <f t="shared" si="16"/>
+        <v>1.8241214753445381E-2</v>
+      </c>
+      <c r="K59" s="50">
+        <f t="shared" si="17"/>
+        <v>5.8920487698026621E-3</v>
+      </c>
+      <c r="L59" s="50">
+        <f t="shared" si="18"/>
+        <v>2.0480881874946374E-3</v>
+      </c>
+      <c r="M59" s="50">
+        <f t="shared" si="19"/>
+        <v>7.0676972211861078E-4</v>
+      </c>
+      <c r="N59" s="41">
         <f t="shared" si="20"/>
-        <v>0.97311187856713877</v>
-      </c>
-      <c r="J59" s="45">
-        <f t="shared" si="21"/>
-        <v>1.8241214753445381E-2</v>
-      </c>
-      <c r="K59" s="45">
-        <f t="shared" si="22"/>
-        <v>5.8920487698026621E-3</v>
-      </c>
-      <c r="L59" s="45">
-        <f t="shared" si="23"/>
-        <v>2.0480881874946374E-3</v>
-      </c>
-      <c r="M59" s="45">
-        <f t="shared" si="24"/>
-        <v>7.0676972211861078E-4</v>
-      </c>
-      <c r="N59" s="40">
-        <f t="shared" si="25"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="O59" s="42"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" t="str">
+      <c r="O59" s="44">
+        <v>174.10274999999999</v>
+      </c>
+      <c r="P59" s="51">
+        <v>24.131910000000001</v>
+      </c>
+      <c r="Q59" s="44">
+        <f>[1]!s_stm07_is(A59,"W99893153",$A$43,1,100000000)</f>
+        <v>51.603630000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A60" s="39" t="str">
         <f>[1]!to_tradecode(B60)</f>
         <v>002142</v>
       </c>
-      <c r="B60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="43">
+      <c r="B60" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="49">
         <f>[1]!s_stmnote_bank(A60,"31",$A$43,100000000)</f>
         <v>3202.2810100000002</v>
       </c>
-      <c r="D60" s="43">
+      <c r="D60" s="49">
         <f>[1]!s_stmnote_bank(A60,"34",$A$43,100000000)</f>
         <v>25.14714</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="49">
         <f>[1]!s_stmnote_bank(A60,"37",$A$43,100000000)</f>
         <v>17.690429999999999</v>
       </c>
-      <c r="F60" s="43">
+      <c r="F60" s="49">
         <f>[1]!s_stmnote_bank(A60,"40",$A$43,100000000)</f>
         <v>9.8030799999999996</v>
       </c>
-      <c r="G60" s="43">
+      <c r="G60" s="49">
         <f>[1]!s_stmnote_bank(A60,"43",$A$43,100000000)</f>
         <v>2.0604200000000001</v>
       </c>
-      <c r="H60" s="43">
+      <c r="H60" s="49">
         <f>[1]!s_stmnote_bank_1n(A60,$A$43,1,100000000)</f>
         <v>3256.9820800000002</v>
       </c>
-      <c r="I60" s="45">
+      <c r="I60" s="50">
+        <f t="shared" si="15"/>
+        <v>0.98320498281648516</v>
+      </c>
+      <c r="J60" s="50">
+        <f t="shared" si="16"/>
+        <v>7.7209942770087329E-3</v>
+      </c>
+      <c r="K60" s="50">
+        <f t="shared" si="17"/>
+        <v>5.4315404768822059E-3</v>
+      </c>
+      <c r="L60" s="50">
+        <f t="shared" si="18"/>
+        <v>3.0098661150754625E-3</v>
+      </c>
+      <c r="M60" s="50">
+        <f t="shared" si="19"/>
+        <v>6.3261631454846693E-4</v>
+      </c>
+      <c r="N60" s="41">
         <f t="shared" si="20"/>
-        <v>0.98320498281648516</v>
-      </c>
-      <c r="J60" s="45">
-        <f t="shared" si="21"/>
-        <v>7.7209942770087329E-3</v>
-      </c>
-      <c r="K60" s="45">
-        <f t="shared" si="22"/>
-        <v>5.4315404768822059E-3</v>
-      </c>
-      <c r="L60" s="45">
-        <f t="shared" si="23"/>
-        <v>3.0098661150754625E-3</v>
-      </c>
-      <c r="M60" s="45">
-        <f t="shared" si="24"/>
-        <v>6.3261631454846693E-4</v>
-      </c>
-      <c r="N60" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O60" s="42"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" t="str">
+      <c r="O60" s="44"/>
+      <c r="P60" s="51">
+        <v>2.4</v>
+      </c>
+      <c r="Q60" s="44">
+        <f>[1]!s_stm07_is(A60,"W99893153",$A$43,1,100000000)</f>
+        <v>47.743119999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="39" t="str">
         <f>[1]!to_tradecode(B61)</f>
         <v>601229</v>
       </c>
-      <c r="B61" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="43">
+      <c r="B61" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="49">
         <f>[1]!s_stmnote_bank(A61,"31",$A$43,100000000)</f>
         <v>5811.7031699999998</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="49">
         <f>[1]!s_stmnote_bank(A61,"34",$A$43,100000000)</f>
         <v>127.54994000000001</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="49">
         <f>[1]!s_stmnote_bank(A61,"37",$A$43,100000000)</f>
         <v>22.93852</v>
       </c>
-      <c r="F61" s="43">
+      <c r="F61" s="49">
         <f>[1]!s_stmnote_bank(A61,"40",$A$43,100000000)</f>
         <v>35.032730000000001</v>
       </c>
-      <c r="G61" s="43">
+      <c r="G61" s="49">
         <f>[1]!s_stmnote_bank(A61,"43",$A$43,100000000)</f>
         <v>11.854799999999999</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="49">
         <f>[1]!s_stmnote_bank_1n(A61,$A$43,1,100000000)</f>
         <v>6009.0791600000002</v>
       </c>
-      <c r="I61" s="45">
+      <c r="I61" s="50">
+        <f t="shared" si="15"/>
+        <v>0.96715370446209925</v>
+      </c>
+      <c r="J61" s="50">
+        <f t="shared" si="16"/>
+        <v>2.1226203982974323E-2</v>
+      </c>
+      <c r="K61" s="50">
+        <f t="shared" si="17"/>
+        <v>3.8173103381117716E-3</v>
+      </c>
+      <c r="L61" s="50">
+        <f t="shared" si="18"/>
+        <v>5.8299664669419996E-3</v>
+      </c>
+      <c r="M61" s="50">
+        <f t="shared" si="19"/>
+        <v>1.9728147498725909E-3</v>
+      </c>
+      <c r="N61" s="41">
         <f t="shared" si="20"/>
-        <v>0.96715370446209925</v>
-      </c>
-      <c r="J61" s="45">
-        <f t="shared" si="21"/>
-        <v>2.1226203982974323E-2</v>
-      </c>
-      <c r="K61" s="45">
-        <f t="shared" si="22"/>
-        <v>3.8173103381117716E-3</v>
-      </c>
-      <c r="L61" s="45">
-        <f t="shared" si="23"/>
-        <v>5.8299664669419996E-3</v>
-      </c>
-      <c r="M61" s="45">
-        <f t="shared" si="24"/>
-        <v>1.9728147498725909E-3</v>
-      </c>
-      <c r="N61" s="40">
-        <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O61" s="42"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" t="str">
+      <c r="O61" s="44">
+        <v>255.45525000000001</v>
+      </c>
+      <c r="P61" s="51">
+        <v>67.708160000000007</v>
+      </c>
+      <c r="Q61" s="44">
+        <f>[1]!s_stm07_is(A61,"W99893153",$A$43,1,100000000)</f>
+        <v>78.062079999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A62" s="39" t="str">
         <f>[1]!to_tradecode(B62)</f>
         <v>601997</v>
       </c>
-      <c r="B62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="43">
+      <c r="B62" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="49">
         <f>[1]!s_stmnote_bank(A62,"31",$A$43,100000000)</f>
         <v>1040.7348500000001</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="49">
         <f>[1]!s_stmnote_bank(A62,"34",$A$43,100000000)</f>
         <v>39.996290000000002</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="49">
         <f>[1]!s_stmnote_bank(A62,"37",$A$43,100000000)</f>
         <v>7.5041200000000003</v>
       </c>
-      <c r="F62" s="43">
+      <c r="F62" s="49">
         <f>[1]!s_stmnote_bank(A62,"40",$A$43,100000000)</f>
         <v>4.91737</v>
       </c>
-      <c r="G62" s="43">
+      <c r="G62" s="49">
         <f>[1]!s_stmnote_bank(A62,"43",$A$43,100000000)</f>
         <v>3.5967500000000001</v>
       </c>
-      <c r="H62" s="43">
+      <c r="H62" s="49">
         <f>[1]!s_stmnote_bank_1n(A62,$A$43,1,100000000)</f>
         <v>1096.74937</v>
       </c>
-      <c r="I62" s="45">
+      <c r="I62" s="50">
+        <f t="shared" si="15"/>
+        <v>0.94892678169489175</v>
+      </c>
+      <c r="J62" s="50">
+        <f t="shared" si="16"/>
+        <v>3.6468030977761128E-2</v>
+      </c>
+      <c r="K62" s="50">
+        <f t="shared" si="17"/>
+        <v>6.8421466246203549E-3</v>
+      </c>
+      <c r="L62" s="50">
+        <f t="shared" si="18"/>
+        <v>4.4835858898191116E-3</v>
+      </c>
+      <c r="M62" s="50">
+        <f t="shared" si="19"/>
+        <v>3.2794639307611364E-3</v>
+      </c>
+      <c r="N62" s="41">
         <f t="shared" si="20"/>
-        <v>0.94892678169489175</v>
-      </c>
-      <c r="J62" s="45">
-        <f t="shared" si="21"/>
-        <v>3.6468030977761128E-2</v>
-      </c>
-      <c r="K62" s="45">
-        <f t="shared" si="22"/>
-        <v>6.8421466246203549E-3</v>
-      </c>
-      <c r="L62" s="45">
-        <f t="shared" si="23"/>
-        <v>4.4835858898191116E-3</v>
-      </c>
-      <c r="M62" s="45">
-        <f t="shared" si="24"/>
-        <v>3.2794639307611364E-3</v>
-      </c>
-      <c r="N62" s="40">
-        <f t="shared" si="25"/>
         <v>1.0000000091178534</v>
       </c>
-      <c r="O62" s="42"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" t="str">
+      <c r="O62" s="44"/>
+      <c r="P62" s="51">
+        <v>14.410450000000001</v>
+      </c>
+      <c r="Q62" s="44">
+        <f>[1]!s_stm07_is(A62,"W99893153",$A$43,1,100000000)</f>
+        <v>19.07517</v>
+      </c>
+      <c r="R62" s="51">
+        <v>5160</v>
+      </c>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51" t="e">
+        <f>R62+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A63" s="39" t="str">
         <f>[1]!to_tradecode(B63)</f>
         <v>600926</v>
       </c>
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="43">
+      <c r="B63" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="49">
         <f>[1]!s_stmnote_bank(A63,"31",$A$43,100000000)</f>
         <v>2588.3849100000002</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="49">
         <f>[1]!s_stmnote_bank(A63,"34",$A$43,100000000)</f>
         <v>98.72</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="49">
         <f>[1]!s_stmnote_bank(A63,"37",$A$43,100000000)</f>
         <v>20.028590000000001</v>
       </c>
-      <c r="F63" s="43">
+      <c r="F63" s="49">
         <f>[1]!s_stmnote_bank(A63,"40",$A$43,100000000)</f>
         <v>3.8999899999999998</v>
       </c>
-      <c r="G63" s="43">
+      <c r="G63" s="49">
         <f>[1]!s_stmnote_bank(A63,"43",$A$43,100000000)</f>
         <v>20.081520000000001</v>
       </c>
-      <c r="H63" s="43">
+      <c r="H63" s="49">
         <f>[1]!s_stmnote_bank_1n(A63,$A$43,1,100000000)</f>
         <v>2731.11501</v>
       </c>
-      <c r="I63" s="45">
+      <c r="I63" s="50">
+        <f t="shared" si="15"/>
+        <v>0.94773925686857119</v>
+      </c>
+      <c r="J63" s="50">
+        <f t="shared" si="16"/>
+        <v>3.6146408935008562E-2</v>
+      </c>
+      <c r="K63" s="50">
+        <f t="shared" si="17"/>
+        <v>7.333484648821143E-3</v>
+      </c>
+      <c r="L63" s="50">
+        <f t="shared" si="18"/>
+        <v>1.4279845358837525E-3</v>
+      </c>
+      <c r="M63" s="50">
+        <f t="shared" si="19"/>
+        <v>7.3528650117154907E-3</v>
+      </c>
+      <c r="N63" s="41">
         <f t="shared" si="20"/>
-        <v>0.94773925686857119</v>
-      </c>
-      <c r="J63" s="45">
-        <f t="shared" si="21"/>
-        <v>3.6146408935008562E-2</v>
-      </c>
-      <c r="K63" s="45">
-        <f t="shared" si="22"/>
-        <v>7.333484648821143E-3</v>
-      </c>
-      <c r="L63" s="45">
-        <f t="shared" si="23"/>
-        <v>1.4279845358837525E-3</v>
-      </c>
-      <c r="M63" s="45">
-        <f t="shared" si="24"/>
-        <v>7.3528650117154907E-3</v>
-      </c>
-      <c r="N63" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O63" s="42"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" t="str">
+      <c r="O63" s="44">
+        <v>84.171869999999998</v>
+      </c>
+      <c r="P63" s="51">
+        <v>2.35</v>
+      </c>
+      <c r="Q63" s="44">
+        <f>[1]!s_stm07_is(A63,"W99893153",$A$43,1,100000000)</f>
+        <v>25.31119</v>
+      </c>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+    </row>
+    <row r="64" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A64" s="39" t="str">
         <f>[1]!to_tradecode(B64)</f>
         <v>600919</v>
       </c>
-      <c r="B64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="43">
+      <c r="B64" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="49">
         <f>[1]!s_stmnote_bank(A64,"31",$A$43,100000000)</f>
         <v>6702.3899099999999</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="49">
         <f>[1]!s_stmnote_bank(A64,"34",$A$43,100000000)</f>
         <v>207.65314000000001</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="49">
         <f>[1]!s_stmnote_bank(A64,"37",$A$43,100000000)</f>
         <v>52.106589999999997</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F64" s="49">
         <f>[1]!s_stmnote_bank(A64,"40",$A$43,100000000)</f>
         <v>34.686799999999998</v>
       </c>
-      <c r="G64" s="43">
+      <c r="G64" s="49">
         <f>[1]!s_stmnote_bank(A64,"43",$A$43,100000000)</f>
         <v>13.780010000000001</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H64" s="49">
         <f>[1]!s_stmnote_bank_1n(A64,$A$43,1,100000000)</f>
         <v>7010.6164500000004</v>
       </c>
-      <c r="I64" s="45">
+      <c r="I64" s="50">
+        <f t="shared" si="15"/>
+        <v>0.95603431706779496</v>
+      </c>
+      <c r="J64" s="50">
+        <f t="shared" si="16"/>
+        <v>2.9619811821255747E-2</v>
+      </c>
+      <c r="K64" s="50">
+        <f t="shared" si="17"/>
+        <v>7.4325261368420742E-3</v>
+      </c>
+      <c r="L64" s="50">
+        <f t="shared" si="18"/>
+        <v>4.9477532036430261E-3</v>
+      </c>
+      <c r="M64" s="50">
+        <f t="shared" si="19"/>
+        <v>1.9655917704640654E-3</v>
+      </c>
+      <c r="N64" s="41">
         <f t="shared" si="20"/>
-        <v>0.95603431706779496</v>
-      </c>
-      <c r="J64" s="45">
-        <f t="shared" si="21"/>
-        <v>2.9619811821255747E-2</v>
-      </c>
-      <c r="K64" s="45">
-        <f t="shared" si="22"/>
-        <v>7.4325261368420742E-3</v>
-      </c>
-      <c r="L64" s="45">
-        <f t="shared" si="23"/>
-        <v>4.9477532036430261E-3</v>
-      </c>
-      <c r="M64" s="45">
-        <f t="shared" si="24"/>
-        <v>1.9655917704640654E-3</v>
-      </c>
-      <c r="N64" s="40">
-        <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O64" s="42"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" t="str">
+      <c r="O64" s="44">
+        <v>215.42554000000001</v>
+      </c>
+      <c r="P64" s="51">
+        <v>24.378209999999999</v>
+      </c>
+      <c r="Q64" s="44">
+        <f>[1]!s_stm07_is(A64,"W99893153",$A$43,1,100000000)</f>
+        <v>62.21358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="39" t="str">
         <f>[1]!to_tradecode(B65)</f>
         <v>600908</v>
       </c>
-      <c r="B65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="43">
+      <c r="B65" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="49">
         <f>[1]!s_stmnote_bank(A65,"31",$A$43,100000000)</f>
         <v>618.77553999999998</v>
       </c>
-      <c r="D65" s="43">
+      <c r="D65" s="49">
         <f>[1]!s_stmnote_bank(A65,"34",$A$43,100000000)</f>
         <v>9.5557599999999994</v>
       </c>
-      <c r="E65" s="43">
+      <c r="E65" s="49">
         <f>[1]!s_stmnote_bank(A65,"37",$A$43,100000000)</f>
         <v>6.9572700000000003</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F65" s="49">
         <f>[1]!s_stmnote_bank(A65,"40",$A$43,100000000)</f>
         <v>1.30874</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="49">
         <f>[1]!s_stmnote_bank(A65,"43",$A$43,100000000)</f>
         <v>0.10197000000000001</v>
       </c>
-      <c r="H65" s="43">
+      <c r="H65" s="49">
         <f>[1]!s_stmnote_bank_1n(A65,$A$43,1,100000000)</f>
         <v>636.69928000000004</v>
       </c>
-      <c r="I65" s="45">
+      <c r="I65" s="50">
+        <f t="shared" si="15"/>
+        <v>0.971848970835965</v>
+      </c>
+      <c r="J65" s="50">
+        <f t="shared" si="16"/>
+        <v>1.5008278319397501E-2</v>
+      </c>
+      <c r="K65" s="50">
+        <f t="shared" si="17"/>
+        <v>1.092708947307118E-2</v>
+      </c>
+      <c r="L65" s="50">
+        <f t="shared" si="18"/>
+        <v>2.0555072718159819E-3</v>
+      </c>
+      <c r="M65" s="50">
+        <f t="shared" si="19"/>
+        <v>1.6015409975019917E-4</v>
+      </c>
+      <c r="N65" s="41">
         <f t="shared" si="20"/>
-        <v>0.971848970835965</v>
-      </c>
-      <c r="J65" s="45">
-        <f t="shared" si="21"/>
-        <v>1.5008278319397501E-2</v>
-      </c>
-      <c r="K65" s="45">
-        <f t="shared" si="22"/>
-        <v>1.092708947307118E-2</v>
-      </c>
-      <c r="L65" s="45">
-        <f t="shared" si="23"/>
-        <v>2.0555072718159819E-3</v>
-      </c>
-      <c r="M65" s="45">
-        <f t="shared" si="24"/>
-        <v>1.6015409975019917E-4</v>
-      </c>
-      <c r="N65" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O65" s="42"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="str">
+      <c r="O65" s="44">
+        <v>19.095199999999998</v>
+      </c>
+      <c r="P65" s="51">
+        <v>1.20529</v>
+      </c>
+      <c r="Q65" s="44">
+        <f>[1]!s_stm07_is(A65,"W99893153",$A$43,1,100000000)</f>
+        <v>5.2125899999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="39" t="str">
         <f>[1]!to_tradecode(B66)</f>
         <v>601128</v>
       </c>
-      <c r="B66" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="43">
+      <c r="B66" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="49">
         <f>[1]!s_stmnote_bank(A66,"31",$A$43,100000000)</f>
         <v>685.68228999999997</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="49">
         <f>[1]!s_stmnote_bank(A66,"34",$A$43,100000000)</f>
         <v>22.512519999999999</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="49">
         <f>[1]!s_stmnote_bank(A66,"37",$A$43,100000000)</f>
         <v>9.02318</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F66" s="49">
         <f>[1]!s_stmnote_bank(A66,"40",$A$43,100000000)</f>
         <v>0.19458</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="49">
         <f>[1]!s_stmnote_bank(A66,"43",$A$43,100000000)</f>
         <v>5.4859999999999999E-2</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="49">
         <f>[1]!s_stmnote_bank_1n(A66,$A$43,1,100000000)</f>
         <v>717.46743000000004</v>
       </c>
-      <c r="I66" s="45">
+      <c r="I66" s="50">
+        <f t="shared" si="15"/>
+        <v>0.95569814228361549</v>
+      </c>
+      <c r="J66" s="50">
+        <f t="shared" si="16"/>
+        <v>3.1377758848230922E-2</v>
+      </c>
+      <c r="K66" s="50">
+        <f t="shared" si="17"/>
+        <v>1.2576431518292056E-2</v>
+      </c>
+      <c r="L66" s="50">
+        <f t="shared" si="18"/>
+        <v>2.7120394858899725E-4</v>
+      </c>
+      <c r="M66" s="50">
+        <f t="shared" si="19"/>
+        <v>7.6463401272445206E-5</v>
+      </c>
+      <c r="N66" s="41">
         <f t="shared" si="20"/>
-        <v>0.95569814228361549</v>
-      </c>
-      <c r="J66" s="45">
-        <f t="shared" si="21"/>
-        <v>3.1377758848230922E-2</v>
-      </c>
-      <c r="K66" s="45">
-        <f t="shared" si="22"/>
-        <v>1.2576431518292056E-2</v>
-      </c>
-      <c r="L66" s="45">
-        <f t="shared" si="23"/>
-        <v>2.7120394858899725E-4</v>
-      </c>
-      <c r="M66" s="45">
-        <f t="shared" si="24"/>
-        <v>7.6463401272445206E-5</v>
-      </c>
-      <c r="N66" s="40">
-        <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O66" s="42"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="str">
+      <c r="O66" s="44">
+        <v>29.067599999999999</v>
+      </c>
+      <c r="P66" s="39">
+        <v>2.4623499999999998</v>
+      </c>
+      <c r="Q66" s="44">
+        <f>[1]!s_stm07_is(A66,"W99893153",$A$43,1,100000000)</f>
+        <v>6.0468400000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A67" s="39" t="str">
         <f>[1]!to_tradecode(B67)</f>
         <v>002807</v>
       </c>
-      <c r="B67" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="43">
+      <c r="B67" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="49">
         <f>[1]!s_stmnote_bank(A67,"31",$A$43,100000000)</f>
         <v>517.12267999999995</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="49">
         <f>[1]!s_stmnote_bank(A67,"34",$A$43,100000000)</f>
         <v>10.763260000000001</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="49">
         <f>[1]!s_stmnote_bank(A67,"37",$A$43,100000000)</f>
         <v>5.0457700000000001</v>
       </c>
-      <c r="F67" s="43">
+      <c r="F67" s="49">
         <f>[1]!s_stmnote_bank(A67,"40",$A$43,100000000)</f>
         <v>6.7613799999999999</v>
       </c>
-      <c r="G67" s="43">
+      <c r="G67" s="49">
         <f>[1]!s_stmnote_bank(A67,"43",$A$43,100000000)</f>
         <v>1.4669700000000001</v>
       </c>
-      <c r="H67" s="43">
+      <c r="H67" s="49">
         <f>[1]!s_stmnote_bank_1n(A67,$A$43,1,100000000)</f>
         <v>541.16006000000004</v>
       </c>
-      <c r="I67" s="45">
+      <c r="I67" s="50">
+        <f t="shared" si="15"/>
+        <v>0.95558175523892119</v>
+      </c>
+      <c r="J67" s="50">
+        <f t="shared" si="16"/>
+        <v>1.9889235728150375E-2</v>
+      </c>
+      <c r="K67" s="50">
+        <f t="shared" si="17"/>
+        <v>9.323988174589232E-3</v>
+      </c>
+      <c r="L67" s="50">
+        <f t="shared" si="18"/>
+        <v>1.2494233221867851E-2</v>
+      </c>
+      <c r="M67" s="50">
+        <f t="shared" si="19"/>
+        <v>2.7107876364711762E-3</v>
+      </c>
+      <c r="N67" s="41">
         <f t="shared" si="20"/>
-        <v>0.95558175523892119</v>
-      </c>
-      <c r="J67" s="45">
-        <f t="shared" si="21"/>
-        <v>1.9889235728150375E-2</v>
-      </c>
-      <c r="K67" s="45">
-        <f t="shared" si="22"/>
-        <v>9.323988174589232E-3</v>
-      </c>
-      <c r="L67" s="45">
-        <f t="shared" si="23"/>
-        <v>1.2494233221867851E-2</v>
-      </c>
-      <c r="M67" s="45">
-        <f t="shared" si="24"/>
-        <v>2.7107876364711762E-3</v>
-      </c>
-      <c r="N67" s="40">
-        <f t="shared" si="25"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="O67" s="42"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="str">
+      <c r="O67" s="44">
+        <v>23.67202</v>
+      </c>
+      <c r="Q67" s="44">
+        <f>[1]!s_stm07_is(A67,"W99893153",$A$43,1,100000000)</f>
+        <v>3.4059300000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A68" s="39" t="str">
         <f>[1]!to_tradecode(B68)</f>
         <v>603323</v>
       </c>
-      <c r="B68" t="s">
-        <v>115</v>
-      </c>
-      <c r="C68" s="43">
+      <c r="B68" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="49">
         <f>[1]!s_stmnote_bank(A68,"31",$A$43,100000000)</f>
         <v>409.86730999999997</v>
       </c>
-      <c r="D68" s="43">
+      <c r="D68" s="49">
         <f>[1]!s_stmnote_bank(A68,"34",$A$43,100000000)</f>
         <v>57.653190000000002</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="49">
         <f>[1]!s_stmnote_bank(A68,"37",$A$43,100000000)</f>
         <v>6.22966</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F68" s="49">
         <f>[1]!s_stmnote_bank(A68,"40",$A$43,100000000)</f>
         <v>1.1354299999999999</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="49">
         <f>[1]!s_stmnote_bank(A68,"43",$A$43,100000000)</f>
         <v>0.77741000000000005</v>
       </c>
-      <c r="H68" s="43">
+      <c r="H68" s="49">
         <f>[1]!s_stmnote_bank_1n(A68,$A$43,1,100000000)</f>
         <v>475.66300000000001</v>
       </c>
-      <c r="I68" s="45">
+      <c r="I68" s="50">
+        <f t="shared" si="15"/>
+        <v>0.8616758293161334</v>
+      </c>
+      <c r="J68" s="50">
+        <f t="shared" si="16"/>
+        <v>0.12120595884060774</v>
+      </c>
+      <c r="K68" s="50">
+        <f t="shared" si="17"/>
+        <v>1.3096793317958303E-2</v>
+      </c>
+      <c r="L68" s="50">
+        <f t="shared" si="18"/>
+        <v>2.387047132108236E-3</v>
+      </c>
+      <c r="M68" s="50">
+        <f t="shared" si="19"/>
+        <v>1.6343713931922391E-3</v>
+      </c>
+      <c r="N68" s="41">
         <f t="shared" si="20"/>
-        <v>0.8616758293161334</v>
-      </c>
-      <c r="J68" s="45">
-        <f t="shared" si="21"/>
-        <v>0.12120595884060774</v>
-      </c>
-      <c r="K68" s="45">
-        <f t="shared" si="22"/>
-        <v>1.3096793317958303E-2</v>
-      </c>
-      <c r="L68" s="45">
-        <f t="shared" si="23"/>
-        <v>2.387047132108236E-3</v>
-      </c>
-      <c r="M68" s="45">
-        <f t="shared" si="24"/>
-        <v>1.6343713931922391E-3</v>
-      </c>
-      <c r="N68" s="40">
-        <f t="shared" si="25"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O68" s="42"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" t="str">
+      <c r="O68" s="44">
+        <v>1.5683990000000001</v>
+      </c>
+      <c r="Q68" s="44">
+        <f>[1]!s_stm07_is(A68,"W99893153",$A$43,1,100000000)</f>
+        <v>4.4069799999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="39" t="str">
         <f>[1]!to_tradecode(B69)</f>
         <v>002839</v>
       </c>
-      <c r="B69" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="43">
+      <c r="B69" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="49">
         <f>[1]!s_stmnote_bank(A69,"31",$A$43,100000000)</f>
         <v>432.94372017239999</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="49">
         <f>[1]!s_stmnote_bank(A69,"34",$A$43,100000000)</f>
         <v>32.681458633200002</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="49">
         <f>[1]!s_stmnote_bank(A69,"37",$A$43,100000000)</f>
         <v>6.9045525099000002</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="49">
         <f>[1]!s_stmnote_bank(A69,"40",$A$43,100000000)</f>
         <v>2.1178688054000001</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G69" s="49">
         <f>[1]!s_stmnote_bank(A69,"43",$A$43,100000000)</f>
         <v>0.33062362750000002</v>
       </c>
-      <c r="H69" s="43">
+      <c r="H69" s="49">
         <f>[1]!s_stmnote_bank_1n(A69,$A$43,1,100000000)</f>
         <v>474.97822374839996</v>
       </c>
-      <c r="I69" s="45">
+      <c r="I69" s="50">
+        <f t="shared" si="15"/>
+        <v>0.91150225110474536</v>
+      </c>
+      <c r="J69" s="50">
+        <f t="shared" si="16"/>
+        <v>6.8806225210256478E-2</v>
+      </c>
+      <c r="K69" s="50">
+        <f t="shared" si="17"/>
+        <v>1.4536566445954375E-2</v>
+      </c>
+      <c r="L69" s="50">
+        <f t="shared" si="18"/>
+        <v>4.4588755852559957E-3</v>
+      </c>
+      <c r="M69" s="50">
+        <f t="shared" si="19"/>
+        <v>6.9608165378784643E-4</v>
+      </c>
+      <c r="N69" s="41">
         <f t="shared" si="20"/>
-        <v>0.91150225110474536</v>
-      </c>
-      <c r="J69" s="45">
-        <f t="shared" si="21"/>
-        <v>6.8806225210256478E-2</v>
-      </c>
-      <c r="K69" s="45">
-        <f t="shared" si="22"/>
-        <v>1.4536566445954375E-2</v>
-      </c>
-      <c r="L69" s="45">
-        <f t="shared" si="23"/>
-        <v>4.4588755852559957E-3</v>
-      </c>
-      <c r="M69" s="45">
-        <f t="shared" si="24"/>
-        <v>6.9608165378784643E-4</v>
-      </c>
-      <c r="N69" s="40">
-        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O69" s="42"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="51">
+        <v>0.94874999999999998</v>
+      </c>
+      <c r="Q69" s="44">
+        <f>[1]!s_stm07_is(A69,"W99893153",$A$43,1,100000000)</f>
+        <v>3.5233203100999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="A33:A37"/>
+    <mergeCell ref="E11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>